--- a/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
+++ b/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E4A0FE-A67E-4D0E-B8ED-A274715F4D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D982E-052E-47C2-AF30-1867259A2EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distribución 02'!$A$5:$H$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Endpoints a probar'!$A$1:$V$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'EndPoints AUTH - Probar (41)'!$A$1:$T$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Parámetros Auth'!$A$1:$U$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Parámetros Auth NUEVO (AT)'!$A$1:$U$43</definedName>
@@ -127,7 +126,7 @@
     <author>Hernán Alosilla</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{0FBCD5D6-F57E-4E9F-A5B1-F2EDF9F0D03E}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0FBCD5D6-F57E-4E9F-A5B1-F2EDF9F0D03E}">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{7B066058-04B5-4F6C-826E-8C64A16D1B09}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{7B066058-04B5-4F6C-826E-8C64A16D1B09}">
       <text>
         <r>
           <rPr>
@@ -215,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{96C3E7B3-D59D-4083-BE5B-41ACBBE68CC7}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{96C3E7B3-D59D-4083-BE5B-41ACBBE68CC7}">
       <text>
         <r>
           <rPr>
@@ -279,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{CCA6AD5B-055E-4DB0-BA4C-180E715827DA}">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{CCA6AD5B-055E-4DB0-BA4C-180E715827DA}">
       <text>
         <r>
           <rPr>
@@ -328,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{A29E49AB-F2B0-4CB8-88A9-6CCC64F51AF1}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{A29E49AB-F2B0-4CB8-88A9-6CCC64F51AF1}">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{C2880C0C-2520-4C42-9DD6-7A1396AC608C}">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{C2880C0C-2520-4C42-9DD6-7A1396AC608C}">
       <text>
         <r>
           <rPr>
@@ -428,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{01E0E142-2756-4DBE-A6E9-A842275ABB88}">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{01E0E142-2756-4DBE-A6E9-A842275ABB88}">
       <text>
         <r>
           <rPr>
@@ -479,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{D9494681-1B03-4D1A-9958-FEFC7FD36171}">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{D9494681-1B03-4D1A-9958-FEFC7FD36171}">
       <text>
         <r>
           <rPr>
@@ -507,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{2332E401-C86F-47F8-BFAE-5CB2B9C2D9A3}">
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{2332E401-C86F-47F8-BFAE-5CB2B9C2D9A3}">
       <text>
         <r>
           <rPr>
@@ -531,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{8E1B5E9F-13DB-46A6-B35A-3CC9D60BD811}">
+    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{8E1B5E9F-13DB-46A6-B35A-3CC9D60BD811}">
       <text>
         <r>
           <rPr>
@@ -554,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{E0113A63-AB8F-4CAF-83B9-F3B6A900756D}">
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{E0113A63-AB8F-4CAF-83B9-F3B6A900756D}">
       <text>
         <r>
           <rPr>
@@ -618,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{EE5077F5-B330-4460-9107-F720AFEDF141}">
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{EE5077F5-B330-4460-9107-F720AFEDF141}">
       <text>
         <r>
           <rPr>
@@ -642,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{7B89B75B-EA0D-4F46-BC51-E15356127D48}">
+    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{7B89B75B-EA0D-4F46-BC51-E15356127D48}">
       <text>
         <r>
           <rPr>
@@ -706,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{060310F3-4CB1-42F7-94F9-682E0A3321ED}">
+    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{060310F3-4CB1-42F7-94F9-682E0A3321ED}">
       <text>
         <r>
           <rPr>
@@ -755,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{325DE853-3DC8-4901-989B-9305082D54DE}">
+    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{325DE853-3DC8-4901-989B-9305082D54DE}">
       <text>
         <r>
           <rPr>
@@ -806,7 +805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{0B86804A-F7BA-473F-B8F0-1CA15E7D1B55}">
+    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{0B86804A-F7BA-473F-B8F0-1CA15E7D1B55}">
       <text>
         <r>
           <rPr>
@@ -855,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{BBF45AA5-E098-4520-B821-466EBA0A269D}">
+    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{BBF45AA5-E098-4520-B821-466EBA0A269D}">
       <text>
         <r>
           <rPr>
@@ -906,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{4A7E7F05-816B-4AE8-BB0E-AE8C5EC12353}">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{4A7E7F05-816B-4AE8-BB0E-AE8C5EC12353}">
       <text>
         <r>
           <rPr>
@@ -970,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{04F239E6-2E35-4ADA-BE79-2D7BAB926241}">
+    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{04F239E6-2E35-4ADA-BE79-2D7BAB926241}">
       <text>
         <r>
           <rPr>
@@ -994,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{0FDE3903-B2D7-4EAB-AA79-F202112FA19B}">
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{0FDE3903-B2D7-4EAB-AA79-F202112FA19B}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{D3399E9D-6781-4FC8-B15B-D5C6C6445DB2}">
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{D3399E9D-6781-4FC8-B15B-D5C6C6445DB2}">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{744DE9DA-0C2C-4E6C-9A1C-3FF55075BECE}">
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{744DE9DA-0C2C-4E6C-9A1C-3FF55075BECE}">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{6A572813-79CF-4508-B28C-2D462BB03037}">
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{6A572813-79CF-4508-B28C-2D462BB03037}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{8F41751B-3422-4E74-B682-E9E87609647B}">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{8F41751B-3422-4E74-B682-E9E87609647B}">
       <text>
         <r>
           <rPr>
@@ -1258,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{E6ED3534-4A97-460E-B9A6-2695E361F74C}">
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{E6ED3534-4A97-460E-B9A6-2695E361F74C}">
       <text>
         <r>
           <rPr>
@@ -1322,7 +1321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{EB7C1DF4-0FF8-4B0A-A0DD-44ED6962525E}">
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{EB7C1DF4-0FF8-4B0A-A0DD-44ED6962525E}">
       <text>
         <r>
           <rPr>
@@ -1346,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{89C1E71C-2F35-4F55-BF17-B188CFDDBFB4}">
+    <comment ref="O31" authorId="0" shapeId="0" xr:uid="{89C1E71C-2F35-4F55-BF17-B188CFDDBFB4}">
       <text>
         <r>
           <rPr>
@@ -1410,7 +1409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{B56663B9-1C69-44DA-B835-BF4CB6768522}">
+    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{B56663B9-1C69-44DA-B835-BF4CB6768522}">
       <text>
         <r>
           <rPr>
@@ -1459,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{0C51F02B-BA1A-4022-8CFE-9AE62973AD85}">
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{0C51F02B-BA1A-4022-8CFE-9AE62973AD85}">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{5DD4357F-0290-42E7-8D0F-75D5F871572A}">
+    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{5DD4357F-0290-42E7-8D0F-75D5F871572A}">
       <text>
         <r>
           <rPr>
@@ -1559,7 +1558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{132080D9-E511-4FE2-95C6-0588A660E5A9}">
+    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{132080D9-E511-4FE2-95C6-0588A660E5A9}">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{0DAF0650-9FF3-460A-8311-179D95C82D98}">
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{0DAF0650-9FF3-460A-8311-179D95C82D98}">
       <text>
         <r>
           <rPr>
@@ -1638,7 +1637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{866E88DF-0771-43BB-B904-880D78B653B6}">
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{866E88DF-0771-43BB-B904-880D78B653B6}">
       <text>
         <r>
           <rPr>
@@ -1662,7 +1661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{7A9BDC12-5C80-4B64-A557-F36F72BB9B5F}">
+    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{7A9BDC12-5C80-4B64-A557-F36F72BB9B5F}">
       <text>
         <r>
           <rPr>
@@ -1685,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{A1E12DF7-D6EF-4950-9121-CEAC9A43B065}">
+    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{A1E12DF7-D6EF-4950-9121-CEAC9A43B065}">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{B7B57802-5076-4FC6-8A32-980ECC902B0A}">
+    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{B7B57802-5076-4FC6-8A32-980ECC902B0A}">
       <text>
         <r>
           <rPr>
@@ -1760,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O42" authorId="0" shapeId="0" xr:uid="{EED9D04D-414E-4CA3-B731-1479A424EEFD}">
+    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{EED9D04D-414E-4CA3-B731-1479A424EEFD}">
       <text>
         <r>
           <rPr>
@@ -1784,7 +1783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O43" authorId="0" shapeId="0" xr:uid="{F8433C59-736F-4AD0-8CEA-15D2F7531FA0}">
+    <comment ref="O42" authorId="0" shapeId="0" xr:uid="{F8433C59-736F-4AD0-8CEA-15D2F7531FA0}">
       <text>
         <r>
           <rPr>
@@ -1809,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{9C336DF0-55FC-465D-8232-AE8641616671}">
+    <comment ref="O43" authorId="0" shapeId="0" xr:uid="{9C336DF0-55FC-465D-8232-AE8641616671}">
       <text>
         <r>
           <rPr>
@@ -1834,7 +1833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{344A9E8A-3EC5-485C-B867-78E5F0D8E793}">
+    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{344A9E8A-3EC5-485C-B867-78E5F0D8E793}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{0241E105-BAA3-4F64-8A8A-12E6C0B058FE}">
+    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{0241E105-BAA3-4F64-8A8A-12E6C0B058FE}">
       <text>
         <r>
           <rPr>
@@ -1862,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{BA8629B8-100E-4D52-B333-9D1CB8B8882B}">
+    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{BA8629B8-100E-4D52-B333-9D1CB8B8882B}">
       <text>
         <r>
           <rPr>
@@ -1907,7 +1906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{C8984193-FC96-4298-B0CE-385EFFEDEB42}">
+    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{C8984193-FC96-4298-B0CE-385EFFEDEB42}">
       <text>
         <r>
           <rPr>
@@ -1932,7 +1931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{68E5C61F-B8BF-4303-BC8C-7B0FC2FB3806}">
+    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{68E5C61F-B8BF-4303-BC8C-7B0FC2FB3806}">
       <text>
         <r>
           <rPr>
@@ -1957,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O50" authorId="0" shapeId="0" xr:uid="{1901F709-64B5-44F1-811A-A75B3D0C97E0}">
+    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{1901F709-64B5-44F1-811A-A75B3D0C97E0}">
       <text>
         <r>
           <rPr>
@@ -1987,7 +1986,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7826" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7807" uniqueCount="771">
   <si>
     <t>RUTA DE EJEMPLO DE EJECUCIÓN DE TIPO POST</t>
   </si>
@@ -5095,15 +5094,6 @@
   </si>
   <si>
     <t xml:space="preserve">02 PODs con 712 MiB </t>
-  </si>
-  <si>
-    <t>Programacion/Configuración en Jmeter</t>
-  </si>
-  <si>
-    <t>Ejecucion del Script</t>
-  </si>
-  <si>
-    <t>Documentar en IPS</t>
   </si>
   <si>
     <t>Minutos</t>
@@ -5815,7 +5805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -6155,43 +6145,6 @@
       </right>
       <top style="thick">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -6984,25 +6937,22 @@
     <xf numFmtId="0" fontId="59" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7014,10 +6964,10 @@
     <xf numFmtId="9" fontId="58" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7027,7 +6977,7 @@
     <xf numFmtId="165" fontId="58" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7040,7 +6990,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7132,7 +7082,7 @@
     <xf numFmtId="0" fontId="58" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7153,41 +7103,41 @@
     <xf numFmtId="0" fontId="58" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="8" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="58" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="58" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="58" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="58" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7242,15 +7192,6 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7266,6 +7207,18 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7770,13 +7723,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>156280</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>438855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1417180</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>206215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7814,13 +7767,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1435504</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>14320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12410,14 +12363,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="379" t="s">
+      <c r="I1" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
-      <c r="N1" s="379"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -15296,14 +15249,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="381" t="s">
+      <c r="I1" s="380" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="381"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
+      <c r="M1" s="380"/>
+      <c r="N1" s="380"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -18103,14 +18056,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="379" t="s">
+      <c r="I1" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
-      <c r="N1" s="379"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -21172,14 +21125,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="379" t="s">
+      <c r="I1" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
-      <c r="N1" s="379"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -24355,14 +24308,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="379" t="s">
+      <c r="I1" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
-      <c r="N1" s="379"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -27467,12 +27420,12 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E34" sqref="E24:E34"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.140625" defaultRowHeight="54" customHeight="1"/>
@@ -27504,71 +27457,80 @@
     <col min="26" max="16384" width="23.140625" style="269"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="259" customFormat="1" ht="36">
-      <c r="A1" s="291" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="291" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="291" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="291" t="s">
-        <v>547</v>
-      </c>
-      <c r="E1" s="291" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="291" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="291" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="291" t="s">
-        <v>548</v>
-      </c>
-      <c r="I1" s="382" t="s">
+    <row r="1" spans="1:25" s="260" customFormat="1" ht="36">
+      <c r="A1" s="261" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="262" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="263" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="264" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1" s="261" t="s">
+        <v>700</v>
+      </c>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265">
+        <v>60</v>
+      </c>
+      <c r="J1" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="265">
+        <v>60</v>
+      </c>
+      <c r="L1" s="261" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="265">
+        <v>10</v>
+      </c>
+      <c r="N1" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="288" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="288" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="265" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="303" t="s">
+        <v>735</v>
+      </c>
+      <c r="S1" s="267">
+        <v>0.95</v>
+      </c>
+      <c r="T1" s="267">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U1" s="300" t="s">
+        <v>734</v>
+      </c>
+      <c r="V1" s="287" t="s">
+        <v>726</v>
+      </c>
+      <c r="W1" s="260">
+        <v>10</v>
+      </c>
+      <c r="X1" s="260">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="260">
         <v>8</v>
       </c>
-      <c r="J1" s="383"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="383"/>
-      <c r="M1" s="383"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="291" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="291" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="292" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="291" t="s">
-        <v>549</v>
-      </c>
-      <c r="S1" s="291" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="291" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="291" t="s">
-        <v>578</v>
-      </c>
-      <c r="W1" s="291" t="s">
-        <v>746</v>
-      </c>
-      <c r="X1" s="291" t="s">
-        <v>747</v>
-      </c>
-      <c r="Y1" s="291" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="260" customFormat="1" ht="36">
+    </row>
+    <row r="2" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A2" s="261" t="s">
         <v>687</v>
       </c>
@@ -27580,13 +27542,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="263" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F2" s="264" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G2" s="261" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="H2" s="265"/>
       <c r="I2" s="265">
@@ -27608,15 +27570,15 @@
         <v>20</v>
       </c>
       <c r="O2" s="288" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="P2" s="288" t="s">
         <v>595</v>
       </c>
       <c r="Q2" s="265" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="304" t="s">
+        <v>691</v>
+      </c>
+      <c r="R2" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S2" s="267">
@@ -27625,11 +27587,8 @@
       <c r="T2" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U2" s="301" t="s">
+      <c r="U2" s="300" t="s">
         <v>734</v>
-      </c>
-      <c r="V2" s="287" t="s">
-        <v>726</v>
       </c>
       <c r="W2" s="260">
         <v>10</v>
@@ -27656,32 +27615,32 @@
         <v>90</v>
       </c>
       <c r="F3" s="264" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G3" s="261" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H3" s="265"/>
-      <c r="I3" s="265">
+      <c r="I3" s="387">
         <v>60</v>
       </c>
-      <c r="J3" s="261" t="s">
+      <c r="J3" s="388" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="265">
+      <c r="K3" s="387">
         <v>60</v>
       </c>
-      <c r="L3" s="261" t="s">
+      <c r="L3" s="388" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="265">
+      <c r="M3" s="387">
         <v>10</v>
       </c>
-      <c r="N3" s="266" t="s">
+      <c r="N3" s="389" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="288" t="s">
-        <v>39</v>
+        <v>691</v>
       </c>
       <c r="P3" s="288" t="s">
         <v>595</v>
@@ -27689,7 +27648,7 @@
       <c r="Q3" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S3" s="267">
@@ -27698,7 +27657,7 @@
       <c r="T3" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U3" s="301" t="s">
+      <c r="U3" s="300" t="s">
         <v>734</v>
       </c>
       <c r="W3" s="260">
@@ -27711,7 +27670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="4" spans="1:25" ht="36">
       <c r="A4" s="261" t="s">
         <v>687</v>
       </c>
@@ -27723,43 +27682,43 @@
         <v>78</v>
       </c>
       <c r="E4" s="263" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="264" t="s">
-        <v>754</v>
-      </c>
-      <c r="G4" s="261" t="s">
-        <v>693</v>
-      </c>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265">
+        <v>25</v>
+      </c>
+      <c r="F4" s="270" t="s">
+        <v>752</v>
+      </c>
+      <c r="G4" s="271" t="s">
+        <v>701</v>
+      </c>
+      <c r="H4" s="272"/>
+      <c r="I4" s="387">
         <v>60</v>
       </c>
-      <c r="J4" s="261" t="s">
+      <c r="J4" s="388" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="265">
+      <c r="K4" s="387">
         <v>60</v>
       </c>
-      <c r="L4" s="261" t="s">
+      <c r="L4" s="388" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="265">
+      <c r="M4" s="387">
         <v>10</v>
       </c>
-      <c r="N4" s="266" t="s">
+      <c r="N4" s="390" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="288" t="s">
-        <v>691</v>
+      <c r="O4" s="289" t="s">
+        <v>9</v>
       </c>
       <c r="P4" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q4" s="265" t="s">
-        <v>691</v>
-      </c>
-      <c r="R4" s="304" t="s">
+      <c r="Q4" s="272" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S4" s="267">
@@ -27768,9 +27727,10 @@
       <c r="T4" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U4" s="301" t="s">
+      <c r="U4" s="300" t="s">
         <v>734</v>
       </c>
+      <c r="V4" s="260"/>
       <c r="W4" s="260">
         <v>10</v>
       </c>
@@ -27781,7 +27741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="36">
+    <row r="5" spans="1:25" ht="24">
       <c r="A5" s="261" t="s">
         <v>687</v>
       </c>
@@ -27793,43 +27753,43 @@
         <v>78</v>
       </c>
       <c r="E5" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="270" t="s">
-        <v>755</v>
-      </c>
-      <c r="G5" s="271" t="s">
-        <v>701</v>
-      </c>
-      <c r="H5" s="272"/>
-      <c r="I5" s="265">
+        <v>90</v>
+      </c>
+      <c r="F5" s="264" t="s">
+        <v>753</v>
+      </c>
+      <c r="G5" s="268" t="s">
+        <v>718</v>
+      </c>
+      <c r="H5" s="265"/>
+      <c r="I5" s="387">
         <v>60</v>
       </c>
-      <c r="J5" s="261" t="s">
+      <c r="J5" s="388" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="265">
+      <c r="K5" s="387">
         <v>60</v>
       </c>
-      <c r="L5" s="261" t="s">
+      <c r="L5" s="388" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="265">
+      <c r="M5" s="387">
         <v>10</v>
       </c>
-      <c r="N5" s="274" t="s">
+      <c r="N5" s="390" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="289" t="s">
-        <v>9</v>
+      <c r="O5" s="288" t="s">
+        <v>711</v>
       </c>
       <c r="P5" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q5" s="272" t="s">
+      <c r="Q5" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="304" t="s">
+      <c r="R5" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S5" s="267">
@@ -27838,7 +27798,7 @@
       <c r="T5" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U5" s="301" t="s">
+      <c r="U5" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V5" s="260"/>
@@ -27867,10 +27827,10 @@
         <v>90</v>
       </c>
       <c r="F6" s="264" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G6" s="268" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H6" s="265"/>
       <c r="I6" s="265">
@@ -27900,7 +27860,7 @@
       <c r="Q6" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="304" t="s">
+      <c r="R6" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S6" s="267">
@@ -27909,7 +27869,7 @@
       <c r="T6" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U6" s="301" t="s">
+      <c r="U6" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V6" s="260"/>
@@ -27924,63 +27884,63 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="24">
-      <c r="A7" s="261" t="s">
+      <c r="A7" s="273" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="277" t="s">
         <v>688</v>
       </c>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262" t="s">
+      <c r="C7" s="277"/>
+      <c r="D7" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="263" t="s">
+      <c r="E7" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="264" t="s">
-        <v>757</v>
-      </c>
-      <c r="G7" s="268" t="s">
-        <v>717</v>
-      </c>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265">
+      <c r="F7" s="270" t="s">
+        <v>755</v>
+      </c>
+      <c r="G7" s="279" t="s">
+        <v>716</v>
+      </c>
+      <c r="H7" s="272"/>
+      <c r="I7" s="272">
         <v>60</v>
       </c>
-      <c r="J7" s="261" t="s">
+      <c r="J7" s="273" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="265">
+      <c r="K7" s="272">
         <v>60</v>
       </c>
-      <c r="L7" s="261" t="s">
+      <c r="L7" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="265">
+      <c r="M7" s="272">
         <v>10</v>
       </c>
       <c r="N7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="288" t="s">
+      <c r="O7" s="289" t="s">
         <v>711</v>
       </c>
-      <c r="P7" s="288" t="s">
+      <c r="P7" s="289" t="s">
         <v>595</v>
       </c>
-      <c r="Q7" s="265" t="s">
+      <c r="Q7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="304" t="s">
+      <c r="R7" s="307" t="s">
         <v>735</v>
       </c>
-      <c r="S7" s="267">
+      <c r="S7" s="308">
         <v>0.95</v>
       </c>
-      <c r="T7" s="267">
+      <c r="T7" s="308">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U7" s="301" t="s">
+      <c r="U7" s="309" t="s">
         <v>734</v>
       </c>
       <c r="V7" s="260"/>
@@ -27994,67 +27954,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24">
-      <c r="A8" s="273" t="s">
+    <row r="8" spans="1:25" s="275" customFormat="1" ht="24">
+      <c r="A8" s="261" t="s">
         <v>687</v>
       </c>
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="262" t="s">
         <v>688</v>
       </c>
-      <c r="C8" s="277"/>
-      <c r="D8" s="277" t="s">
+      <c r="C8" s="262"/>
+      <c r="D8" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="278" t="s">
+      <c r="E8" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="270" t="s">
-        <v>758</v>
-      </c>
-      <c r="G8" s="279" t="s">
-        <v>716</v>
-      </c>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272">
+      <c r="F8" s="264" t="s">
+        <v>756</v>
+      </c>
+      <c r="G8" s="268" t="s">
+        <v>715</v>
+      </c>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265">
         <v>60</v>
       </c>
-      <c r="J8" s="273" t="s">
+      <c r="J8" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="272">
+      <c r="K8" s="265">
         <v>60</v>
       </c>
-      <c r="L8" s="273" t="s">
+      <c r="L8" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="272">
+      <c r="M8" s="265">
         <v>10</v>
       </c>
-      <c r="N8" s="274" t="s">
+      <c r="N8" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="289" t="s">
+      <c r="O8" s="288" t="s">
         <v>711</v>
       </c>
-      <c r="P8" s="289" t="s">
+      <c r="P8" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q8" s="272" t="s">
+      <c r="Q8" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="308" t="s">
+      <c r="R8" s="303" t="s">
         <v>735</v>
       </c>
-      <c r="S8" s="309">
+      <c r="S8" s="267">
         <v>0.95</v>
       </c>
-      <c r="T8" s="309">
+      <c r="T8" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U8" s="310" t="s">
+      <c r="U8" s="300" t="s">
         <v>734</v>
       </c>
-      <c r="V8" s="260"/>
+      <c r="V8" s="310"/>
       <c r="W8" s="260">
         <v>10</v>
       </c>
@@ -28065,7 +28025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="275" customFormat="1" ht="24">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9" s="261" t="s">
         <v>687</v>
       </c>
@@ -28074,20 +28034,20 @@
       </c>
       <c r="C9" s="262"/>
       <c r="D9" s="262" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E9" s="263" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F9" s="264" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G9" s="268" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H9" s="265"/>
       <c r="I9" s="265">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J9" s="261" t="s">
         <v>18</v>
@@ -28099,13 +28059,13 @@
         <v>19</v>
       </c>
       <c r="M9" s="265">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N9" s="266" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="288" t="s">
-        <v>711</v>
+        <v>9</v>
       </c>
       <c r="P9" s="288" t="s">
         <v>595</v>
@@ -28113,7 +28073,7 @@
       <c r="Q9" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="304" t="s">
+      <c r="R9" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S9" s="267">
@@ -28122,15 +28082,15 @@
       <c r="T9" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U9" s="301" t="s">
-        <v>734</v>
-      </c>
-      <c r="V9" s="311"/>
+      <c r="U9" s="305" t="s">
+        <v>745</v>
+      </c>
+      <c r="V9" s="260"/>
       <c r="W9" s="260">
         <v>10</v>
       </c>
-      <c r="X9" s="260">
-        <v>13</v>
+      <c r="X9" s="269">
+        <v>6</v>
       </c>
       <c r="Y9" s="260">
         <v>8</v>
@@ -28151,12 +28111,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="264" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G10" s="268" t="s">
-        <v>710</v>
-      </c>
-      <c r="H10" s="265"/>
+        <v>730</v>
+      </c>
+      <c r="H10" s="275"/>
       <c r="I10" s="265">
         <v>1</v>
       </c>
@@ -28175,16 +28135,16 @@
       <c r="N10" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="288" t="s">
-        <v>9</v>
+      <c r="O10" s="276" t="s">
+        <v>39</v>
       </c>
       <c r="P10" s="288" t="s">
         <v>595</v>
       </c>
       <c r="Q10" s="265" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="304" t="s">
+        <v>691</v>
+      </c>
+      <c r="R10" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S10" s="267">
@@ -28193,10 +28153,9 @@
       <c r="T10" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U10" s="306" t="s">
-        <v>745</v>
-      </c>
-      <c r="V10" s="260"/>
+      <c r="U10" s="288" t="s">
+        <v>744</v>
+      </c>
       <c r="W10" s="260">
         <v>10</v>
       </c>
@@ -28207,55 +28166,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="24">
-      <c r="A11" s="261" t="s">
+    <row r="11" spans="1:25" s="302" customFormat="1" ht="108.75" thickBot="1">
+      <c r="A11" s="292" t="s">
         <v>687</v>
       </c>
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="293" t="s">
         <v>688</v>
       </c>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262" t="s">
+      <c r="C11" s="293"/>
+      <c r="D11" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="264" t="s">
-        <v>761</v>
-      </c>
-      <c r="G11" s="268" t="s">
-        <v>730</v>
-      </c>
-      <c r="H11" s="275"/>
-      <c r="I11" s="265">
+      <c r="F11" s="294" t="s">
+        <v>759</v>
+      </c>
+      <c r="G11" s="292" t="s">
+        <v>729</v>
+      </c>
+      <c r="H11" s="295"/>
+      <c r="I11" s="295">
         <v>1</v>
       </c>
-      <c r="J11" s="261" t="s">
+      <c r="J11" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="265">
+      <c r="K11" s="295">
         <v>60</v>
       </c>
-      <c r="L11" s="261" t="s">
+      <c r="L11" s="292" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="265">
+      <c r="M11" s="295">
         <v>1</v>
       </c>
-      <c r="N11" s="266" t="s">
+      <c r="N11" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="276" t="s">
+      <c r="O11" s="297" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="288" t="s">
+      <c r="P11" s="297" t="s">
         <v>595</v>
       </c>
-      <c r="Q11" s="265" t="s">
+      <c r="Q11" s="295" t="s">
         <v>691</v>
       </c>
-      <c r="R11" s="304" t="s">
+      <c r="R11" s="311" t="s">
         <v>735</v>
       </c>
       <c r="S11" s="267">
@@ -28264,720 +28223,721 @@
       <c r="T11" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U11" s="288" t="s">
+      <c r="U11" s="306" t="s">
         <v>744</v>
       </c>
       <c r="W11" s="260">
         <v>10</v>
       </c>
-      <c r="X11" s="269">
+      <c r="X11" s="302">
         <v>6</v>
       </c>
       <c r="Y11" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="303" customFormat="1" ht="108.75" thickBot="1">
-      <c r="A12" s="293" t="s">
+    <row r="12" spans="1:25" s="323" customFormat="1" ht="72.75" thickTop="1">
+      <c r="A12" s="312" t="s">
         <v>687</v>
       </c>
-      <c r="B12" s="294" t="s">
-        <v>688</v>
-      </c>
-      <c r="C12" s="294"/>
-      <c r="D12" s="294" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="302" t="s">
+      <c r="B12" s="313" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="313"/>
+      <c r="D12" s="313" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="295" t="s">
-        <v>762</v>
-      </c>
-      <c r="G12" s="293" t="s">
-        <v>729</v>
-      </c>
-      <c r="H12" s="296"/>
-      <c r="I12" s="296">
+      <c r="F12" s="315" t="s">
+        <v>749</v>
+      </c>
+      <c r="G12" s="312" t="s">
+        <v>700</v>
+      </c>
+      <c r="H12" s="316"/>
+      <c r="I12" s="316">
+        <v>60</v>
+      </c>
+      <c r="J12" s="312" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="316">
+        <v>60</v>
+      </c>
+      <c r="L12" s="312" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="316">
+        <v>10</v>
+      </c>
+      <c r="N12" s="317" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="316" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="318" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q12" s="316" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="319" t="s">
+        <v>736</v>
+      </c>
+      <c r="S12" s="320">
         <v>1</v>
       </c>
-      <c r="J12" s="293" t="s">
+      <c r="T12" s="320">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U12" s="321" t="s">
+        <v>734</v>
+      </c>
+      <c r="V12" s="322" t="s">
+        <v>725</v>
+      </c>
+      <c r="W12" s="323">
+        <v>10</v>
+      </c>
+      <c r="X12" s="323">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="334" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B13" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="325"/>
+      <c r="D13" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="327" t="s">
+        <v>750</v>
+      </c>
+      <c r="G13" s="324" t="s">
+        <v>692</v>
+      </c>
+      <c r="H13" s="328"/>
+      <c r="I13" s="328">
+        <v>60</v>
+      </c>
+      <c r="J13" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="296">
+      <c r="K13" s="328">
         <v>60</v>
       </c>
-      <c r="L12" s="293" t="s">
+      <c r="L13" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="296">
+      <c r="M13" s="328">
+        <v>10</v>
+      </c>
+      <c r="N13" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="330" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q13" s="328" t="s">
+        <v>691</v>
+      </c>
+      <c r="R13" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S13" s="332">
         <v>1</v>
       </c>
-      <c r="N12" s="297" t="s">
+      <c r="T13" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U13" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="W13" s="334">
+        <v>10</v>
+      </c>
+      <c r="X13" s="334">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="334" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B14" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="325"/>
+      <c r="D14" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="327" t="s">
+        <v>751</v>
+      </c>
+      <c r="G14" s="324" t="s">
+        <v>693</v>
+      </c>
+      <c r="H14" s="328"/>
+      <c r="I14" s="328">
+        <v>60</v>
+      </c>
+      <c r="J14" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="328">
+        <v>60</v>
+      </c>
+      <c r="L14" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="328">
+        <v>10</v>
+      </c>
+      <c r="N14" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="298" t="s">
+      <c r="O14" s="330" t="s">
+        <v>691</v>
+      </c>
+      <c r="P14" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q14" s="328" t="s">
+        <v>691</v>
+      </c>
+      <c r="R14" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S14" s="332">
+        <v>1</v>
+      </c>
+      <c r="T14" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U14" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="W14" s="334">
+        <v>10</v>
+      </c>
+      <c r="X14" s="334">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B15" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" s="325"/>
+      <c r="D15" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="326" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="335" t="s">
+        <v>752</v>
+      </c>
+      <c r="G15" s="336" t="s">
+        <v>701</v>
+      </c>
+      <c r="H15" s="337"/>
+      <c r="I15" s="328">
+        <v>60</v>
+      </c>
+      <c r="J15" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="328">
+        <v>60</v>
+      </c>
+      <c r="L15" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="328">
+        <v>10</v>
+      </c>
+      <c r="N15" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="339" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q15" s="337" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S15" s="332">
+        <v>1</v>
+      </c>
+      <c r="T15" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U15" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V15" s="334"/>
+      <c r="W15" s="340">
+        <v>10</v>
+      </c>
+      <c r="X15" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B16" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C16" s="325"/>
+      <c r="D16" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="327" t="s">
+        <v>753</v>
+      </c>
+      <c r="G16" s="341" t="s">
+        <v>718</v>
+      </c>
+      <c r="H16" s="328"/>
+      <c r="I16" s="328">
+        <v>60</v>
+      </c>
+      <c r="J16" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="328">
+        <v>60</v>
+      </c>
+      <c r="L16" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="328">
+        <v>10</v>
+      </c>
+      <c r="N16" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="330" t="s">
+        <v>711</v>
+      </c>
+      <c r="P16" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q16" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S16" s="332">
+        <v>1</v>
+      </c>
+      <c r="T16" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U16" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V16" s="334"/>
+      <c r="W16" s="340">
+        <v>10</v>
+      </c>
+      <c r="X16" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B17" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" s="325"/>
+      <c r="D17" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="327" t="s">
+        <v>754</v>
+      </c>
+      <c r="G17" s="341" t="s">
+        <v>717</v>
+      </c>
+      <c r="H17" s="328"/>
+      <c r="I17" s="328">
+        <v>60</v>
+      </c>
+      <c r="J17" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="328">
+        <v>60</v>
+      </c>
+      <c r="L17" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="328">
+        <v>10</v>
+      </c>
+      <c r="N17" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="330" t="s">
+        <v>711</v>
+      </c>
+      <c r="P17" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q17" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S17" s="332">
+        <v>1</v>
+      </c>
+      <c r="T17" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U17" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V17" s="334"/>
+      <c r="W17" s="340">
+        <v>10</v>
+      </c>
+      <c r="X17" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B18" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" s="325"/>
+      <c r="D18" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="327" t="s">
+        <v>755</v>
+      </c>
+      <c r="G18" s="341" t="s">
+        <v>716</v>
+      </c>
+      <c r="H18" s="328"/>
+      <c r="I18" s="328">
+        <v>60</v>
+      </c>
+      <c r="J18" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="328">
+        <v>60</v>
+      </c>
+      <c r="L18" s="342" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="337">
+        <v>10</v>
+      </c>
+      <c r="N18" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="330" t="s">
+        <v>711</v>
+      </c>
+      <c r="P18" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q18" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S18" s="332">
+        <v>1</v>
+      </c>
+      <c r="T18" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U18" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V18" s="334"/>
+      <c r="W18" s="340">
+        <v>10</v>
+      </c>
+      <c r="X18" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B19" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="325"/>
+      <c r="D19" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="327" t="s">
+        <v>756</v>
+      </c>
+      <c r="G19" s="341" t="s">
+        <v>715</v>
+      </c>
+      <c r="H19" s="328"/>
+      <c r="I19" s="328">
+        <v>60</v>
+      </c>
+      <c r="J19" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="328">
+        <v>60</v>
+      </c>
+      <c r="L19" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="328">
+        <v>10</v>
+      </c>
+      <c r="N19" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="343" t="s">
+        <v>711</v>
+      </c>
+      <c r="P19" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q19" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S19" s="332">
+        <v>1</v>
+      </c>
+      <c r="T19" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U19" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V19" s="334"/>
+      <c r="W19" s="340">
+        <v>10</v>
+      </c>
+      <c r="X19" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="72.75" thickTop="1">
+      <c r="A20" s="280" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" s="281" t="s">
+        <v>555</v>
+      </c>
+      <c r="C20" s="281"/>
+      <c r="D20" s="281" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="282" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="283" t="s">
+        <v>749</v>
+      </c>
+      <c r="G20" s="280" t="s">
+        <v>700</v>
+      </c>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284">
+        <v>75</v>
+      </c>
+      <c r="J20" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="284">
+        <v>40</v>
+      </c>
+      <c r="L20" s="280" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="284">
+        <v>10</v>
+      </c>
+      <c r="N20" s="285" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="290" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="290" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q20" s="284" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="298" t="s">
+        <v>732</v>
+      </c>
+      <c r="S20" s="286">
+        <v>0.95</v>
+      </c>
+      <c r="T20" s="286">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U20" s="299" t="s">
+        <v>734</v>
+      </c>
+      <c r="V20" s="287" t="s">
+        <v>737</v>
+      </c>
+      <c r="W20" s="269">
+        <v>10</v>
+      </c>
+      <c r="X20" s="269">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="269">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="24">
+      <c r="A21" s="261" t="s">
+        <v>687</v>
+      </c>
+      <c r="B21" s="262" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="263" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="264" t="s">
+        <v>750</v>
+      </c>
+      <c r="G21" s="261" t="s">
+        <v>692</v>
+      </c>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265">
+        <v>75</v>
+      </c>
+      <c r="J21" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="265">
+        <v>40</v>
+      </c>
+      <c r="L21" s="261" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="265">
+        <v>10</v>
+      </c>
+      <c r="N21" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="288" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="298" t="s">
+      <c r="P21" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q12" s="296" t="s">
+      <c r="Q21" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R12" s="312" t="s">
-        <v>735</v>
-      </c>
-      <c r="S12" s="267">
+      <c r="R21" s="303" t="s">
+        <v>732</v>
+      </c>
+      <c r="S21" s="267">
         <v>0.95</v>
       </c>
-      <c r="T12" s="267">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U12" s="307" t="s">
-        <v>744</v>
-      </c>
-      <c r="W12" s="260">
-        <v>10</v>
-      </c>
-      <c r="X12" s="303">
-        <v>6</v>
-      </c>
-      <c r="Y12" s="260">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="324" customFormat="1" ht="72.75" thickTop="1">
-      <c r="A13" s="313" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="314" t="s">
-        <v>724</v>
-      </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="315" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="316" t="s">
-        <v>752</v>
-      </c>
-      <c r="G13" s="313" t="s">
-        <v>700</v>
-      </c>
-      <c r="H13" s="317"/>
-      <c r="I13" s="317">
-        <v>60</v>
-      </c>
-      <c r="J13" s="313" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="317">
-        <v>60</v>
-      </c>
-      <c r="L13" s="313" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="317">
-        <v>10</v>
-      </c>
-      <c r="N13" s="318" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="317" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="319" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q13" s="317" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="320" t="s">
-        <v>736</v>
-      </c>
-      <c r="S13" s="321">
-        <v>1</v>
-      </c>
-      <c r="T13" s="321">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U13" s="322" t="s">
-        <v>734</v>
-      </c>
-      <c r="V13" s="323" t="s">
-        <v>725</v>
-      </c>
-      <c r="W13" s="324">
-        <v>10</v>
-      </c>
-      <c r="X13" s="324">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="324">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="335" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B14" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="C14" s="326"/>
-      <c r="D14" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="328" t="s">
-        <v>753</v>
-      </c>
-      <c r="G14" s="325" t="s">
-        <v>692</v>
-      </c>
-      <c r="H14" s="329"/>
-      <c r="I14" s="329">
-        <v>60</v>
-      </c>
-      <c r="J14" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="329">
-        <v>60</v>
-      </c>
-      <c r="L14" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="329">
-        <v>10</v>
-      </c>
-      <c r="N14" s="330" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="331" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q14" s="329" t="s">
-        <v>691</v>
-      </c>
-      <c r="R14" s="332" t="s">
-        <v>736</v>
-      </c>
-      <c r="S14" s="333">
-        <v>1</v>
-      </c>
-      <c r="T14" s="333">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U14" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="W14" s="335">
-        <v>10</v>
-      </c>
-      <c r="X14" s="335">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="335">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="335" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B15" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="C15" s="326"/>
-      <c r="D15" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="328" t="s">
-        <v>754</v>
-      </c>
-      <c r="G15" s="325" t="s">
-        <v>693</v>
-      </c>
-      <c r="H15" s="329"/>
-      <c r="I15" s="329">
-        <v>60</v>
-      </c>
-      <c r="J15" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="329">
-        <v>60</v>
-      </c>
-      <c r="L15" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="329">
-        <v>10</v>
-      </c>
-      <c r="N15" s="330" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="331" t="s">
-        <v>691</v>
-      </c>
-      <c r="P15" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q15" s="329" t="s">
-        <v>691</v>
-      </c>
-      <c r="R15" s="332" t="s">
-        <v>736</v>
-      </c>
-      <c r="S15" s="333">
-        <v>1</v>
-      </c>
-      <c r="T15" s="333">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U15" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="W15" s="335">
-        <v>10</v>
-      </c>
-      <c r="X15" s="335">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="335">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="341" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B16" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="C16" s="326"/>
-      <c r="D16" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="327" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="336" t="s">
-        <v>755</v>
-      </c>
-      <c r="G16" s="337" t="s">
-        <v>701</v>
-      </c>
-      <c r="H16" s="338"/>
-      <c r="I16" s="329">
-        <v>60</v>
-      </c>
-      <c r="J16" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="329">
-        <v>60</v>
-      </c>
-      <c r="L16" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="329">
-        <v>10</v>
-      </c>
-      <c r="N16" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="340" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q16" s="338" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="332" t="s">
-        <v>736</v>
-      </c>
-      <c r="S16" s="333">
-        <v>1</v>
-      </c>
-      <c r="T16" s="333">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U16" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V16" s="335"/>
-      <c r="W16" s="341">
-        <v>10</v>
-      </c>
-      <c r="X16" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="341" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B17" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="C17" s="326"/>
-      <c r="D17" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="328" t="s">
-        <v>756</v>
-      </c>
-      <c r="G17" s="342" t="s">
-        <v>718</v>
-      </c>
-      <c r="H17" s="329"/>
-      <c r="I17" s="329">
-        <v>60</v>
-      </c>
-      <c r="J17" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="329">
-        <v>60</v>
-      </c>
-      <c r="L17" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="329">
-        <v>10</v>
-      </c>
-      <c r="N17" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="331" t="s">
-        <v>711</v>
-      </c>
-      <c r="P17" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q17" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="332" t="s">
-        <v>736</v>
-      </c>
-      <c r="S17" s="333">
-        <v>1</v>
-      </c>
-      <c r="T17" s="333">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U17" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V17" s="335"/>
-      <c r="W17" s="341">
-        <v>10</v>
-      </c>
-      <c r="X17" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="341" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B18" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="C18" s="326"/>
-      <c r="D18" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="328" t="s">
-        <v>757</v>
-      </c>
-      <c r="G18" s="342" t="s">
-        <v>717</v>
-      </c>
-      <c r="H18" s="329"/>
-      <c r="I18" s="329">
-        <v>60</v>
-      </c>
-      <c r="J18" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="329">
-        <v>60</v>
-      </c>
-      <c r="L18" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="329">
-        <v>10</v>
-      </c>
-      <c r="N18" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="331" t="s">
-        <v>711</v>
-      </c>
-      <c r="P18" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q18" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="332" t="s">
-        <v>736</v>
-      </c>
-      <c r="S18" s="333">
-        <v>1</v>
-      </c>
-      <c r="T18" s="333">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U18" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V18" s="335"/>
-      <c r="W18" s="341">
-        <v>10</v>
-      </c>
-      <c r="X18" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y18" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="341" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B19" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="C19" s="326"/>
-      <c r="D19" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="328" t="s">
-        <v>758</v>
-      </c>
-      <c r="G19" s="342" t="s">
-        <v>716</v>
-      </c>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329">
-        <v>60</v>
-      </c>
-      <c r="J19" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="329">
-        <v>60</v>
-      </c>
-      <c r="L19" s="343" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="338">
-        <v>10</v>
-      </c>
-      <c r="N19" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="331" t="s">
-        <v>711</v>
-      </c>
-      <c r="P19" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q19" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="332" t="s">
-        <v>736</v>
-      </c>
-      <c r="S19" s="333">
-        <v>1</v>
-      </c>
-      <c r="T19" s="333">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U19" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V19" s="335"/>
-      <c r="W19" s="341">
-        <v>10</v>
-      </c>
-      <c r="X19" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y19" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="341" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B20" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="C20" s="326"/>
-      <c r="D20" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="328" t="s">
-        <v>759</v>
-      </c>
-      <c r="G20" s="342" t="s">
-        <v>715</v>
-      </c>
-      <c r="H20" s="329"/>
-      <c r="I20" s="329">
-        <v>60</v>
-      </c>
-      <c r="J20" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="329">
-        <v>60</v>
-      </c>
-      <c r="L20" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="329">
-        <v>10</v>
-      </c>
-      <c r="N20" s="330" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="344" t="s">
-        <v>711</v>
-      </c>
-      <c r="P20" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q20" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="332" t="s">
-        <v>736</v>
-      </c>
-      <c r="S20" s="333">
-        <v>1</v>
-      </c>
-      <c r="T20" s="333">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U20" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V20" s="335"/>
-      <c r="W20" s="341">
-        <v>10</v>
-      </c>
-      <c r="X20" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y20" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="72.75" thickTop="1">
-      <c r="A21" s="280" t="s">
-        <v>687</v>
-      </c>
-      <c r="B21" s="281" t="s">
-        <v>555</v>
-      </c>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="282" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="283" t="s">
-        <v>752</v>
-      </c>
-      <c r="G21" s="280" t="s">
-        <v>700</v>
-      </c>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284">
-        <v>75</v>
-      </c>
-      <c r="J21" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="284">
-        <v>40</v>
-      </c>
-      <c r="L21" s="280" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="284">
-        <v>10</v>
-      </c>
-      <c r="N21" s="285" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="290" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="290" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q21" s="284" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="299" t="s">
-        <v>732</v>
-      </c>
-      <c r="S21" s="286">
-        <v>0.95</v>
-      </c>
-      <c r="T21" s="286">
+      <c r="T21" s="267">
         <v>0.99980000000000002</v>
       </c>
       <c r="U21" s="300" t="s">
         <v>734</v>
       </c>
-      <c r="V21" s="287" t="s">
-        <v>737</v>
-      </c>
+      <c r="V21" s="260"/>
       <c r="W21" s="269">
         <v>10</v>
       </c>
@@ -29003,10 +28963,10 @@
         <v>90</v>
       </c>
       <c r="F22" s="264" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G22" s="261" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H22" s="265"/>
       <c r="I22" s="265">
@@ -29028,7 +28988,7 @@
         <v>20</v>
       </c>
       <c r="O22" s="288" t="s">
-        <v>39</v>
+        <v>691</v>
       </c>
       <c r="P22" s="288" t="s">
         <v>595</v>
@@ -29036,7 +28996,7 @@
       <c r="Q22" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R22" s="304" t="s">
+      <c r="R22" s="303" t="s">
         <v>732</v>
       </c>
       <c r="S22" s="267">
@@ -29045,7 +29005,7 @@
       <c r="T22" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U22" s="301" t="s">
+      <c r="U22" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V22" s="260"/>
@@ -29059,7 +29019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="24">
+    <row r="23" spans="1:25" ht="36">
       <c r="A23" s="261" t="s">
         <v>687</v>
       </c>
@@ -29071,15 +29031,15 @@
         <v>78</v>
       </c>
       <c r="E23" s="263" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="264" t="s">
-        <v>754</v>
-      </c>
-      <c r="G23" s="261" t="s">
-        <v>693</v>
-      </c>
-      <c r="H23" s="265"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="270" t="s">
+        <v>752</v>
+      </c>
+      <c r="G23" s="271" t="s">
+        <v>701</v>
+      </c>
+      <c r="H23" s="272"/>
       <c r="I23" s="265">
         <v>75</v>
       </c>
@@ -29095,19 +29055,19 @@
       <c r="M23" s="265">
         <v>10</v>
       </c>
-      <c r="N23" s="266" t="s">
+      <c r="N23" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="288" t="s">
-        <v>691</v>
+      <c r="O23" s="289" t="s">
+        <v>9</v>
       </c>
       <c r="P23" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q23" s="265" t="s">
-        <v>691</v>
-      </c>
-      <c r="R23" s="304" t="s">
+      <c r="Q23" s="272" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="303" t="s">
         <v>732</v>
       </c>
       <c r="S23" s="267">
@@ -29116,7 +29076,7 @@
       <c r="T23" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U23" s="301" t="s">
+      <c r="U23" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V23" s="260"/>
@@ -29130,7 +29090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="36">
+    <row r="24" spans="1:25" ht="24">
       <c r="A24" s="261" t="s">
         <v>687</v>
       </c>
@@ -29142,15 +29102,15 @@
         <v>78</v>
       </c>
       <c r="E24" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="270" t="s">
-        <v>755</v>
-      </c>
-      <c r="G24" s="271" t="s">
-        <v>701</v>
-      </c>
-      <c r="H24" s="272"/>
+        <v>90</v>
+      </c>
+      <c r="F24" s="264" t="s">
+        <v>753</v>
+      </c>
+      <c r="G24" s="268" t="s">
+        <v>718</v>
+      </c>
+      <c r="H24" s="265"/>
       <c r="I24" s="265">
         <v>75</v>
       </c>
@@ -29169,16 +29129,16 @@
       <c r="N24" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="289" t="s">
-        <v>9</v>
+      <c r="O24" s="368" t="s">
+        <v>711</v>
       </c>
       <c r="P24" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q24" s="272" t="s">
+      <c r="Q24" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="304" t="s">
+      <c r="R24" s="303" t="s">
         <v>732</v>
       </c>
       <c r="S24" s="267">
@@ -29187,7 +29147,7 @@
       <c r="T24" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U24" s="301" t="s">
+      <c r="U24" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V24" s="260"/>
@@ -29216,10 +29176,10 @@
         <v>90</v>
       </c>
       <c r="F25" s="264" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G25" s="268" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H25" s="265"/>
       <c r="I25" s="265">
@@ -29240,7 +29200,7 @@
       <c r="N25" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="369" t="s">
+      <c r="O25" s="288" t="s">
         <v>711</v>
       </c>
       <c r="P25" s="288" t="s">
@@ -29249,7 +29209,7 @@
       <c r="Q25" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="304" t="s">
+      <c r="R25" s="303" t="s">
         <v>732</v>
       </c>
       <c r="S25" s="267">
@@ -29258,7 +29218,7 @@
       <c r="T25" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U25" s="301" t="s">
+      <c r="U25" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V25" s="260"/>
@@ -29287,10 +29247,10 @@
         <v>90</v>
       </c>
       <c r="F26" s="264" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G26" s="268" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H26" s="265"/>
       <c r="I26" s="265">
@@ -29320,7 +29280,7 @@
       <c r="Q26" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="304" t="s">
+      <c r="R26" s="303" t="s">
         <v>732</v>
       </c>
       <c r="S26" s="267">
@@ -29329,7 +29289,7 @@
       <c r="T26" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U26" s="301" t="s">
+      <c r="U26" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V26" s="260"/>
@@ -29343,7 +29303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="24">
+    <row r="27" spans="1:25" ht="24.75" thickBot="1">
       <c r="A27" s="261" t="s">
         <v>687</v>
       </c>
@@ -29358,10 +29318,10 @@
         <v>90</v>
       </c>
       <c r="F27" s="264" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G27" s="268" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H27" s="265"/>
       <c r="I27" s="265">
@@ -29379,10 +29339,10 @@
       <c r="M27" s="265">
         <v>10</v>
       </c>
-      <c r="N27" s="274" t="s">
+      <c r="N27" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="288" t="s">
+      <c r="O27" s="297" t="s">
         <v>711</v>
       </c>
       <c r="P27" s="288" t="s">
@@ -29391,7 +29351,7 @@
       <c r="Q27" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="304" t="s">
+      <c r="R27" s="303" t="s">
         <v>732</v>
       </c>
       <c r="S27" s="267">
@@ -29400,7 +29360,7 @@
       <c r="T27" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U27" s="301" t="s">
+      <c r="U27" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V27" s="260"/>
@@ -29414,925 +29374,924 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="24.75" thickBot="1">
-      <c r="A28" s="261" t="s">
+    <row r="28" spans="1:25" s="323" customFormat="1" ht="60.75" thickTop="1">
+      <c r="A28" s="312" t="s">
         <v>687</v>
       </c>
-      <c r="B28" s="262" t="s">
-        <v>555</v>
-      </c>
-      <c r="C28" s="262"/>
-      <c r="D28" s="262" t="s">
+      <c r="B28" s="313" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="263" t="s">
+      <c r="E28" s="314" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="315" t="s">
+        <v>749</v>
+      </c>
+      <c r="G28" s="312" t="s">
+        <v>700</v>
+      </c>
+      <c r="H28" s="316"/>
+      <c r="I28" s="316">
+        <v>60</v>
+      </c>
+      <c r="J28" s="312" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="316">
+        <v>60</v>
+      </c>
+      <c r="L28" s="312" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="316">
+        <v>10</v>
+      </c>
+      <c r="N28" s="317" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="318" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="318" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q28" s="316" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="344" t="s">
+        <v>563</v>
+      </c>
+      <c r="S28" s="316" t="s">
+        <v>727</v>
+      </c>
+      <c r="T28" s="316" t="s">
+        <v>733</v>
+      </c>
+      <c r="U28" s="345" t="s">
+        <v>734</v>
+      </c>
+      <c r="V28" s="322" t="s">
+        <v>728</v>
+      </c>
+      <c r="W28" s="323">
+        <v>10</v>
+      </c>
+      <c r="X28" s="323">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="334" customFormat="1" ht="33.75">
+      <c r="A29" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B29" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="264" t="s">
+      <c r="F29" s="327" t="s">
+        <v>750</v>
+      </c>
+      <c r="G29" s="324" t="s">
+        <v>692</v>
+      </c>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328">
+        <v>60</v>
+      </c>
+      <c r="J29" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="328">
+        <v>60</v>
+      </c>
+      <c r="L29" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="328">
+        <v>10</v>
+      </c>
+      <c r="N29" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="330" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q29" s="328" t="s">
+        <v>691</v>
+      </c>
+      <c r="R29" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S29" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T29" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U29" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="W29" s="334">
+        <v>10</v>
+      </c>
+      <c r="X29" s="334">
+        <v>13</v>
+      </c>
+      <c r="Y29" s="334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="334" customFormat="1" ht="33.75">
+      <c r="A30" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B30" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="327" t="s">
+        <v>751</v>
+      </c>
+      <c r="G30" s="324" t="s">
+        <v>693</v>
+      </c>
+      <c r="H30" s="328"/>
+      <c r="I30" s="328">
+        <v>60</v>
+      </c>
+      <c r="J30" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="328">
+        <v>60</v>
+      </c>
+      <c r="L30" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="328">
+        <v>10</v>
+      </c>
+      <c r="N30" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="330" t="s">
+        <v>691</v>
+      </c>
+      <c r="P30" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q30" s="328" t="s">
+        <v>691</v>
+      </c>
+      <c r="R30" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S30" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T30" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U30" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="W30" s="334">
+        <v>10</v>
+      </c>
+      <c r="X30" s="334">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="340" customFormat="1" ht="36">
+      <c r="A31" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B31" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C31" s="325"/>
+      <c r="D31" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="326" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="335" t="s">
+        <v>752</v>
+      </c>
+      <c r="G31" s="336" t="s">
+        <v>701</v>
+      </c>
+      <c r="H31" s="337"/>
+      <c r="I31" s="328">
+        <v>60</v>
+      </c>
+      <c r="J31" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="328">
+        <v>60</v>
+      </c>
+      <c r="L31" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="328">
+        <v>10</v>
+      </c>
+      <c r="N31" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="339" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q31" s="337" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S31" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T31" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U31" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V31" s="334"/>
+      <c r="W31" s="340">
+        <v>10</v>
+      </c>
+      <c r="X31" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y31" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="340" customFormat="1" ht="33.75">
+      <c r="A32" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B32" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C32" s="325"/>
+      <c r="D32" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="327" t="s">
+        <v>753</v>
+      </c>
+      <c r="G32" s="341" t="s">
+        <v>718</v>
+      </c>
+      <c r="H32" s="328"/>
+      <c r="I32" s="328">
+        <v>60</v>
+      </c>
+      <c r="J32" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="328">
+        <v>60</v>
+      </c>
+      <c r="L32" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="328">
+        <v>10</v>
+      </c>
+      <c r="N32" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="330" t="s">
+        <v>711</v>
+      </c>
+      <c r="P32" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q32" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S32" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T32" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U32" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V32" s="334"/>
+      <c r="W32" s="334">
+        <v>10</v>
+      </c>
+      <c r="X32" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y32" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="340" customFormat="1" ht="33.75">
+      <c r="A33" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B33" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C33" s="325"/>
+      <c r="D33" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="327" t="s">
+        <v>754</v>
+      </c>
+      <c r="G33" s="341" t="s">
+        <v>717</v>
+      </c>
+      <c r="H33" s="328"/>
+      <c r="I33" s="328">
+        <v>60</v>
+      </c>
+      <c r="J33" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="328">
+        <v>60</v>
+      </c>
+      <c r="L33" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="328">
+        <v>10</v>
+      </c>
+      <c r="N33" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="330" t="s">
+        <v>711</v>
+      </c>
+      <c r="P33" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q33" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S33" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T33" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U33" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V33" s="334"/>
+      <c r="W33" s="340">
+        <v>10</v>
+      </c>
+      <c r="X33" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="340" customFormat="1" ht="33.75">
+      <c r="A34" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B34" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C34" s="325"/>
+      <c r="D34" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="327" t="s">
+        <v>755</v>
+      </c>
+      <c r="G34" s="341" t="s">
+        <v>716</v>
+      </c>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328">
+        <v>60</v>
+      </c>
+      <c r="J34" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="328">
+        <v>60</v>
+      </c>
+      <c r="L34" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="328">
+        <v>10</v>
+      </c>
+      <c r="N34" s="338" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="330" t="s">
+        <v>711</v>
+      </c>
+      <c r="P34" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q34" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S34" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T34" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U34" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V34" s="334"/>
+      <c r="W34" s="334">
+        <v>10</v>
+      </c>
+      <c r="X34" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y34" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="340" customFormat="1" ht="33.75">
+      <c r="A35" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B35" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="325"/>
+      <c r="D35" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="327" t="s">
+        <v>756</v>
+      </c>
+      <c r="G35" s="341" t="s">
+        <v>715</v>
+      </c>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328">
+        <v>60</v>
+      </c>
+      <c r="J35" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="328">
+        <v>60</v>
+      </c>
+      <c r="L35" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="328">
+        <v>10</v>
+      </c>
+      <c r="N35" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="330" t="s">
+        <v>711</v>
+      </c>
+      <c r="P35" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q35" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S35" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T35" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U35" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V35" s="334"/>
+      <c r="W35" s="340">
+        <v>10</v>
+      </c>
+      <c r="X35" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="340" customFormat="1" ht="33.75">
+      <c r="A36" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B36" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C36" s="325"/>
+      <c r="D36" s="325" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="326" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="327" t="s">
+        <v>757</v>
+      </c>
+      <c r="G36" s="341" t="s">
+        <v>710</v>
+      </c>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328">
+        <v>1</v>
+      </c>
+      <c r="J36" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="328">
+        <v>60</v>
+      </c>
+      <c r="L36" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="328">
+        <v>1</v>
+      </c>
+      <c r="N36" s="329"/>
+      <c r="O36" s="330" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q36" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S36" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T36" s="328" t="s">
+        <v>743</v>
+      </c>
+      <c r="U36" s="347" t="s">
+        <v>744</v>
+      </c>
+      <c r="V36" s="334"/>
+      <c r="W36" s="334">
+        <v>10</v>
+      </c>
+      <c r="X36" s="340">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="340" customFormat="1" ht="33.75">
+      <c r="A37" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B37" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C37" s="325"/>
+      <c r="D37" s="325" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="326" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="327" t="s">
+        <v>758</v>
+      </c>
+      <c r="G37" s="341" t="s">
+        <v>730</v>
+      </c>
+      <c r="H37" s="348"/>
+      <c r="I37" s="328">
+        <v>1</v>
+      </c>
+      <c r="J37" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="328">
+        <v>60</v>
+      </c>
+      <c r="L37" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="328">
+        <v>1</v>
+      </c>
+      <c r="N37" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="349" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q37" s="328" t="s">
+        <v>691</v>
+      </c>
+      <c r="R37" s="346" t="s">
+        <v>563</v>
+      </c>
+      <c r="S37" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T37" s="328" t="s">
+        <v>743</v>
+      </c>
+      <c r="U37" s="347" t="s">
+        <v>744</v>
+      </c>
+      <c r="W37" s="340">
+        <v>10</v>
+      </c>
+      <c r="X37" s="340">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="357" customFormat="1" ht="108.75" thickBot="1">
+      <c r="A38" s="350" t="s">
+        <v>687</v>
+      </c>
+      <c r="B38" s="351" t="s">
+        <v>562</v>
+      </c>
+      <c r="C38" s="351"/>
+      <c r="D38" s="351" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="352" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="353" t="s">
         <v>759</v>
       </c>
-      <c r="G28" s="268" t="s">
-        <v>715</v>
-      </c>
-      <c r="H28" s="265"/>
-      <c r="I28" s="265">
-        <v>75</v>
-      </c>
-      <c r="J28" s="261" t="s">
+      <c r="G38" s="350" t="s">
+        <v>729</v>
+      </c>
+      <c r="H38" s="354"/>
+      <c r="I38" s="354">
+        <v>1</v>
+      </c>
+      <c r="J38" s="350" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="265">
-        <v>40</v>
-      </c>
-      <c r="L28" s="261" t="s">
+      <c r="K38" s="354">
+        <v>60</v>
+      </c>
+      <c r="L38" s="350" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="265">
+      <c r="M38" s="354">
+        <v>1</v>
+      </c>
+      <c r="N38" s="355" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="343" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" s="343" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q38" s="354" t="s">
+        <v>691</v>
+      </c>
+      <c r="R38" s="365" t="s">
+        <v>563</v>
+      </c>
+      <c r="S38" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T38" s="328" t="s">
+        <v>743</v>
+      </c>
+      <c r="U38" s="356" t="s">
+        <v>744</v>
+      </c>
+      <c r="W38" s="357">
         <v>10</v>
       </c>
-      <c r="N28" s="266" t="s">
+      <c r="X38" s="357">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="364" customFormat="1" ht="36.75" thickTop="1">
+      <c r="A39" s="280" t="s">
+        <v>687</v>
+      </c>
+      <c r="B39" s="281" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="282" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="283" t="s">
+        <v>760</v>
+      </c>
+      <c r="G39" s="280" t="s">
+        <v>719</v>
+      </c>
+      <c r="H39" s="284"/>
+      <c r="I39" s="284">
         <v>20</v>
       </c>
-      <c r="O28" s="298" t="s">
-        <v>711</v>
-      </c>
-      <c r="P28" s="288" t="s">
+      <c r="J39" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="284">
+        <v>60</v>
+      </c>
+      <c r="L39" s="280" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="284">
+        <v>10</v>
+      </c>
+      <c r="N39" s="285" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="290" t="s">
+        <v>731</v>
+      </c>
+      <c r="P39" s="290" t="s">
         <v>595</v>
       </c>
-      <c r="Q28" s="265" t="s">
+      <c r="Q39" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="304" t="s">
-        <v>732</v>
-      </c>
-      <c r="S28" s="267">
-        <v>0.95</v>
-      </c>
-      <c r="T28" s="267">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U28" s="301" t="s">
-        <v>734</v>
-      </c>
-      <c r="V28" s="260"/>
-      <c r="W28" s="269">
+      <c r="R39" s="363" t="s">
+        <v>571</v>
+      </c>
+      <c r="S39" s="286" t="s">
+        <v>741</v>
+      </c>
+      <c r="T39" s="286" t="s">
+        <v>742</v>
+      </c>
+      <c r="U39" s="304" t="s">
+        <v>744</v>
+      </c>
+      <c r="W39" s="364">
         <v>10</v>
       </c>
-      <c r="X28" s="269">
+      <c r="X39" s="364">
         <v>13</v>
       </c>
-      <c r="Y28" s="269">
+      <c r="Y39" s="364">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="324" customFormat="1" ht="60.75" thickTop="1">
-      <c r="A29" s="313" t="s">
+    <row r="40" spans="1:25" s="260" customFormat="1" ht="36">
+      <c r="A40" s="261" t="s">
         <v>687</v>
       </c>
-      <c r="B29" s="314" t="s">
-        <v>562</v>
-      </c>
-      <c r="C29" s="314"/>
-      <c r="D29" s="314" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="315" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="316" t="s">
-        <v>752</v>
-      </c>
-      <c r="G29" s="313" t="s">
-        <v>700</v>
-      </c>
-      <c r="H29" s="317"/>
-      <c r="I29" s="317">
+      <c r="B40" s="262" t="s">
+        <v>570</v>
+      </c>
+      <c r="C40" s="262"/>
+      <c r="D40" s="262" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="263" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="264" t="s">
+        <v>761</v>
+      </c>
+      <c r="G40" s="261" t="s">
+        <v>708</v>
+      </c>
+      <c r="H40" s="265"/>
+      <c r="I40" s="265">
+        <v>20</v>
+      </c>
+      <c r="J40" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="265">
         <v>60</v>
       </c>
-      <c r="J29" s="313" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="317">
-        <v>60</v>
-      </c>
-      <c r="L29" s="313" t="s">
+      <c r="L40" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="317">
+      <c r="M40" s="265">
         <v>10</v>
       </c>
-      <c r="N29" s="318" t="s">
+      <c r="N40" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="319" t="s">
-        <v>9</v>
-      </c>
-      <c r="P29" s="319" t="s">
+      <c r="O40" s="288" t="s">
+        <v>696</v>
+      </c>
+      <c r="P40" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q29" s="317" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="345" t="s">
-        <v>563</v>
-      </c>
-      <c r="S29" s="317" t="s">
-        <v>727</v>
-      </c>
-      <c r="T29" s="317" t="s">
-        <v>733</v>
-      </c>
-      <c r="U29" s="346" t="s">
-        <v>734</v>
-      </c>
-      <c r="V29" s="323" t="s">
-        <v>728</v>
-      </c>
-      <c r="W29" s="324">
+      <c r="Q40" s="265" t="s">
+        <v>691</v>
+      </c>
+      <c r="R40" s="358" t="s">
+        <v>571</v>
+      </c>
+      <c r="S40" s="267" t="s">
+        <v>739</v>
+      </c>
+      <c r="T40" s="267" t="s">
+        <v>741</v>
+      </c>
+      <c r="U40" s="288" t="s">
+        <v>744</v>
+      </c>
+      <c r="W40" s="260">
         <v>10</v>
       </c>
-      <c r="X29" s="324">
+      <c r="X40" s="260">
         <v>13</v>
       </c>
-      <c r="Y29" s="324">
+      <c r="Y40" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="335" customFormat="1" ht="33.75">
-      <c r="A30" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B30" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C30" s="326"/>
-      <c r="D30" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="328" t="s">
-        <v>753</v>
-      </c>
-      <c r="G30" s="325" t="s">
-        <v>692</v>
-      </c>
-      <c r="H30" s="329"/>
-      <c r="I30" s="329">
-        <v>60</v>
-      </c>
-      <c r="J30" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="329">
-        <v>60</v>
-      </c>
-      <c r="L30" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="329">
-        <v>10</v>
-      </c>
-      <c r="N30" s="330" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="331" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q30" s="329" t="s">
-        <v>691</v>
-      </c>
-      <c r="R30" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S30" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T30" s="329" t="s">
-        <v>733</v>
-      </c>
-      <c r="U30" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="W30" s="335">
-        <v>10</v>
-      </c>
-      <c r="X30" s="335">
-        <v>13</v>
-      </c>
-      <c r="Y30" s="335">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" s="335" customFormat="1" ht="33.75">
-      <c r="A31" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B31" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C31" s="326"/>
-      <c r="D31" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="328" t="s">
-        <v>754</v>
-      </c>
-      <c r="G31" s="325" t="s">
-        <v>693</v>
-      </c>
-      <c r="H31" s="329"/>
-      <c r="I31" s="329">
-        <v>60</v>
-      </c>
-      <c r="J31" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="329">
-        <v>60</v>
-      </c>
-      <c r="L31" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="329">
-        <v>10</v>
-      </c>
-      <c r="N31" s="330" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="331" t="s">
-        <v>691</v>
-      </c>
-      <c r="P31" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q31" s="329" t="s">
-        <v>691</v>
-      </c>
-      <c r="R31" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S31" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T31" s="329" t="s">
-        <v>733</v>
-      </c>
-      <c r="U31" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="W31" s="335">
-        <v>10</v>
-      </c>
-      <c r="X31" s="335">
-        <v>13</v>
-      </c>
-      <c r="Y31" s="335">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" s="341" customFormat="1" ht="36">
-      <c r="A32" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B32" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C32" s="326"/>
-      <c r="D32" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="327" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="336" t="s">
-        <v>755</v>
-      </c>
-      <c r="G32" s="337" t="s">
-        <v>701</v>
-      </c>
-      <c r="H32" s="338"/>
-      <c r="I32" s="329">
-        <v>60</v>
-      </c>
-      <c r="J32" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="329">
-        <v>60</v>
-      </c>
-      <c r="L32" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="329">
-        <v>10</v>
-      </c>
-      <c r="N32" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="340" t="s">
-        <v>9</v>
-      </c>
-      <c r="P32" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q32" s="338" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S32" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T32" s="329" t="s">
-        <v>733</v>
-      </c>
-      <c r="U32" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V32" s="335"/>
-      <c r="W32" s="341">
-        <v>10</v>
-      </c>
-      <c r="X32" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y32" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" s="341" customFormat="1" ht="33.75">
-      <c r="A33" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B33" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C33" s="326"/>
-      <c r="D33" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="328" t="s">
-        <v>756</v>
-      </c>
-      <c r="G33" s="342" t="s">
-        <v>718</v>
-      </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
-        <v>60</v>
-      </c>
-      <c r="J33" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="329">
-        <v>60</v>
-      </c>
-      <c r="L33" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33" s="329">
-        <v>10</v>
-      </c>
-      <c r="N33" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="331" t="s">
-        <v>711</v>
-      </c>
-      <c r="P33" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q33" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S33" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T33" s="329" t="s">
-        <v>733</v>
-      </c>
-      <c r="U33" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V33" s="335"/>
-      <c r="W33" s="335">
-        <v>10</v>
-      </c>
-      <c r="X33" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y33" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" s="341" customFormat="1" ht="33.75">
-      <c r="A34" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B34" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C34" s="326"/>
-      <c r="D34" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="328" t="s">
-        <v>757</v>
-      </c>
-      <c r="G34" s="342" t="s">
-        <v>717</v>
-      </c>
-      <c r="H34" s="329"/>
-      <c r="I34" s="329">
-        <v>60</v>
-      </c>
-      <c r="J34" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="329">
-        <v>60</v>
-      </c>
-      <c r="L34" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" s="329">
-        <v>10</v>
-      </c>
-      <c r="N34" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="331" t="s">
-        <v>711</v>
-      </c>
-      <c r="P34" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q34" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S34" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T34" s="329" t="s">
-        <v>733</v>
-      </c>
-      <c r="U34" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V34" s="335"/>
-      <c r="W34" s="341">
-        <v>10</v>
-      </c>
-      <c r="X34" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y34" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" s="341" customFormat="1" ht="33.75">
-      <c r="A35" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B35" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C35" s="326"/>
-      <c r="D35" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="328" t="s">
-        <v>758</v>
-      </c>
-      <c r="G35" s="342" t="s">
-        <v>716</v>
-      </c>
-      <c r="H35" s="329"/>
-      <c r="I35" s="329">
-        <v>60</v>
-      </c>
-      <c r="J35" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="329">
-        <v>60</v>
-      </c>
-      <c r="L35" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="329">
-        <v>10</v>
-      </c>
-      <c r="N35" s="339" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="331" t="s">
-        <v>711</v>
-      </c>
-      <c r="P35" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q35" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S35" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T35" s="329" t="s">
-        <v>733</v>
-      </c>
-      <c r="U35" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V35" s="335"/>
-      <c r="W35" s="335">
-        <v>10</v>
-      </c>
-      <c r="X35" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y35" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" s="341" customFormat="1" ht="33.75">
-      <c r="A36" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B36" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C36" s="326"/>
-      <c r="D36" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="328" t="s">
-        <v>759</v>
-      </c>
-      <c r="G36" s="342" t="s">
-        <v>715</v>
-      </c>
-      <c r="H36" s="329"/>
-      <c r="I36" s="329">
-        <v>60</v>
-      </c>
-      <c r="J36" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="329">
-        <v>60</v>
-      </c>
-      <c r="L36" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="329">
-        <v>10</v>
-      </c>
-      <c r="N36" s="330" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="331" t="s">
-        <v>711</v>
-      </c>
-      <c r="P36" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q36" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S36" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T36" s="329" t="s">
-        <v>733</v>
-      </c>
-      <c r="U36" s="334" t="s">
-        <v>734</v>
-      </c>
-      <c r="V36" s="335"/>
-      <c r="W36" s="341">
-        <v>10</v>
-      </c>
-      <c r="X36" s="341">
-        <v>13</v>
-      </c>
-      <c r="Y36" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" s="341" customFormat="1" ht="33.75">
-      <c r="A37" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B37" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C37" s="326"/>
-      <c r="D37" s="326" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="327" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="328" t="s">
-        <v>760</v>
-      </c>
-      <c r="G37" s="342" t="s">
-        <v>710</v>
-      </c>
-      <c r="H37" s="329"/>
-      <c r="I37" s="329">
-        <v>1</v>
-      </c>
-      <c r="J37" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="329">
-        <v>60</v>
-      </c>
-      <c r="L37" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M37" s="329">
-        <v>1</v>
-      </c>
-      <c r="N37" s="330"/>
-      <c r="O37" s="331" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q37" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S37" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T37" s="329" t="s">
-        <v>743</v>
-      </c>
-      <c r="U37" s="348" t="s">
-        <v>744</v>
-      </c>
-      <c r="V37" s="335"/>
-      <c r="W37" s="335">
-        <v>10</v>
-      </c>
-      <c r="X37" s="341">
-        <v>6</v>
-      </c>
-      <c r="Y37" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" s="341" customFormat="1" ht="33.75">
-      <c r="A38" s="325" t="s">
-        <v>687</v>
-      </c>
-      <c r="B38" s="326" t="s">
-        <v>562</v>
-      </c>
-      <c r="C38" s="326"/>
-      <c r="D38" s="326" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="327" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="328" t="s">
-        <v>761</v>
-      </c>
-      <c r="G38" s="342" t="s">
-        <v>730</v>
-      </c>
-      <c r="H38" s="349"/>
-      <c r="I38" s="329">
-        <v>1</v>
-      </c>
-      <c r="J38" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="329">
-        <v>60</v>
-      </c>
-      <c r="L38" s="325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38" s="329">
-        <v>1</v>
-      </c>
-      <c r="N38" s="330" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="350" t="s">
-        <v>39</v>
-      </c>
-      <c r="P38" s="331" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q38" s="329" t="s">
-        <v>691</v>
-      </c>
-      <c r="R38" s="347" t="s">
-        <v>563</v>
-      </c>
-      <c r="S38" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T38" s="329" t="s">
-        <v>743</v>
-      </c>
-      <c r="U38" s="348" t="s">
-        <v>744</v>
-      </c>
-      <c r="W38" s="341">
-        <v>10</v>
-      </c>
-      <c r="X38" s="341">
-        <v>6</v>
-      </c>
-      <c r="Y38" s="341">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" s="358" customFormat="1" ht="108.75" thickBot="1">
-      <c r="A39" s="351" t="s">
-        <v>687</v>
-      </c>
-      <c r="B39" s="352" t="s">
-        <v>562</v>
-      </c>
-      <c r="C39" s="352"/>
-      <c r="D39" s="352" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="353" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="354" t="s">
-        <v>762</v>
-      </c>
-      <c r="G39" s="351" t="s">
-        <v>729</v>
-      </c>
-      <c r="H39" s="355"/>
-      <c r="I39" s="355">
-        <v>1</v>
-      </c>
-      <c r="J39" s="351" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="355">
-        <v>60</v>
-      </c>
-      <c r="L39" s="351" t="s">
-        <v>19</v>
-      </c>
-      <c r="M39" s="355">
-        <v>1</v>
-      </c>
-      <c r="N39" s="356" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="344" t="s">
-        <v>39</v>
-      </c>
-      <c r="P39" s="344" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q39" s="355" t="s">
-        <v>691</v>
-      </c>
-      <c r="R39" s="366" t="s">
-        <v>563</v>
-      </c>
-      <c r="S39" s="329" t="s">
-        <v>727</v>
-      </c>
-      <c r="T39" s="329" t="s">
-        <v>743</v>
-      </c>
-      <c r="U39" s="357" t="s">
-        <v>744</v>
-      </c>
-      <c r="W39" s="358">
-        <v>10</v>
-      </c>
-      <c r="X39" s="358">
-        <v>6</v>
-      </c>
-      <c r="Y39" s="358">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" s="365" customFormat="1" ht="36.75" thickTop="1">
-      <c r="A40" s="280" t="s">
-        <v>687</v>
-      </c>
-      <c r="B40" s="281" t="s">
-        <v>570</v>
-      </c>
-      <c r="C40" s="281"/>
-      <c r="D40" s="281" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="282" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="283" t="s">
-        <v>763</v>
-      </c>
-      <c r="G40" s="280" t="s">
-        <v>719</v>
-      </c>
-      <c r="H40" s="284"/>
-      <c r="I40" s="284">
-        <v>20</v>
-      </c>
-      <c r="J40" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="284">
-        <v>60</v>
-      </c>
-      <c r="L40" s="280" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="284">
-        <v>10</v>
-      </c>
-      <c r="N40" s="285" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="290" t="s">
-        <v>731</v>
-      </c>
-      <c r="P40" s="290" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q40" s="284" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="364" t="s">
-        <v>571</v>
-      </c>
-      <c r="S40" s="286" t="s">
-        <v>741</v>
-      </c>
-      <c r="T40" s="286" t="s">
-        <v>742</v>
-      </c>
-      <c r="U40" s="305" t="s">
-        <v>744</v>
-      </c>
-      <c r="W40" s="365">
-        <v>10</v>
-      </c>
-      <c r="X40" s="365">
-        <v>13</v>
-      </c>
-      <c r="Y40" s="365">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="260" customFormat="1" ht="36">
+    <row r="41" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A41" s="261" t="s">
         <v>687</v>
       </c>
@@ -30347,10 +30306,10 @@
         <v>32</v>
       </c>
       <c r="F41" s="264" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G41" s="261" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H41" s="265"/>
       <c r="I41" s="265">
@@ -30372,7 +30331,7 @@
         <v>20</v>
       </c>
       <c r="O41" s="288" t="s">
-        <v>696</v>
+        <v>39</v>
       </c>
       <c r="P41" s="288" t="s">
         <v>595</v>
@@ -30380,7 +30339,7 @@
       <c r="Q41" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R41" s="359" t="s">
+      <c r="R41" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S41" s="267" t="s">
@@ -30417,10 +30376,10 @@
         <v>32</v>
       </c>
       <c r="F42" s="264" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G42" s="261" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H42" s="265"/>
       <c r="I42" s="265">
@@ -30450,7 +30409,7 @@
       <c r="Q42" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R42" s="359" t="s">
+      <c r="R42" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S42" s="267" t="s">
@@ -30487,10 +30446,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="264" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G43" s="261" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H43" s="265"/>
       <c r="I43" s="265">
@@ -30512,7 +30471,7 @@
         <v>20</v>
       </c>
       <c r="O43" s="288" t="s">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="P43" s="288" t="s">
         <v>595</v>
@@ -30520,7 +30479,7 @@
       <c r="Q43" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R43" s="359" t="s">
+      <c r="R43" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S43" s="267" t="s">
@@ -30557,10 +30516,10 @@
         <v>32</v>
       </c>
       <c r="F44" s="264" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G44" s="261" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H44" s="265"/>
       <c r="I44" s="265">
@@ -30582,7 +30541,7 @@
         <v>20</v>
       </c>
       <c r="O44" s="288" t="s">
-        <v>696</v>
+        <v>39</v>
       </c>
       <c r="P44" s="288" t="s">
         <v>595</v>
@@ -30590,14 +30549,14 @@
       <c r="Q44" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R44" s="359" t="s">
+      <c r="R44" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S44" s="267" t="s">
         <v>739</v>
       </c>
       <c r="T44" s="267" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="U44" s="288" t="s">
         <v>744</v>
@@ -30612,7 +30571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="45" spans="1:25" ht="36">
       <c r="A45" s="261" t="s">
         <v>687</v>
       </c>
@@ -30627,12 +30586,12 @@
         <v>32</v>
       </c>
       <c r="F45" s="264" t="s">
-        <v>768</v>
-      </c>
-      <c r="G45" s="261" t="s">
-        <v>705</v>
-      </c>
-      <c r="H45" s="265"/>
+        <v>766</v>
+      </c>
+      <c r="G45" s="268" t="s">
+        <v>704</v>
+      </c>
+      <c r="H45" s="275"/>
       <c r="I45" s="265">
         <v>20</v>
       </c>
@@ -30654,13 +30613,13 @@
       <c r="O45" s="288" t="s">
         <v>39</v>
       </c>
-      <c r="P45" s="288" t="s">
+      <c r="P45" s="276" t="s">
         <v>595</v>
       </c>
-      <c r="Q45" s="265" t="s">
+      <c r="Q45" s="359" t="s">
         <v>691</v>
       </c>
-      <c r="R45" s="359" t="s">
+      <c r="R45" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S45" s="267" t="s">
@@ -30672,13 +30631,13 @@
       <c r="U45" s="288" t="s">
         <v>744</v>
       </c>
-      <c r="W45" s="260">
+      <c r="W45" s="269">
         <v>10</v>
       </c>
-      <c r="X45" s="260">
+      <c r="X45" s="269">
         <v>13</v>
       </c>
-      <c r="Y45" s="260">
+      <c r="Y45" s="269">
         <v>8</v>
       </c>
     </row>
@@ -30697,10 +30656,10 @@
         <v>32</v>
       </c>
       <c r="F46" s="264" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G46" s="268" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H46" s="275"/>
       <c r="I46" s="265">
@@ -30722,22 +30681,22 @@
         <v>20</v>
       </c>
       <c r="O46" s="288" t="s">
-        <v>39</v>
+        <v>703</v>
       </c>
       <c r="P46" s="276" t="s">
         <v>595</v>
       </c>
-      <c r="Q46" s="360" t="s">
+      <c r="Q46" s="359" t="s">
         <v>691</v>
       </c>
-      <c r="R46" s="359" t="s">
+      <c r="R46" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S46" s="267" t="s">
         <v>739</v>
       </c>
       <c r="T46" s="267" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="U46" s="288" t="s">
         <v>744</v>
@@ -30752,7 +30711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="36">
+    <row r="47" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A47" s="261" t="s">
         <v>687</v>
       </c>
@@ -30761,18 +30720,18 @@
       </c>
       <c r="C47" s="262"/>
       <c r="D47" s="262" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E47" s="263" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="264" t="s">
-        <v>770</v>
-      </c>
-      <c r="G47" s="268" t="s">
-        <v>702</v>
-      </c>
-      <c r="H47" s="275"/>
+        <v>768</v>
+      </c>
+      <c r="G47" s="261" t="s">
+        <v>694</v>
+      </c>
+      <c r="H47" s="265"/>
       <c r="I47" s="265">
         <v>20</v>
       </c>
@@ -30792,33 +30751,33 @@
         <v>20</v>
       </c>
       <c r="O47" s="288" t="s">
-        <v>703</v>
-      </c>
-      <c r="P47" s="276" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q47" s="360" t="s">
+      <c r="Q47" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R47" s="359" t="s">
+      <c r="R47" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S47" s="267" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T47" s="267" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="U47" s="288" t="s">
         <v>744</v>
       </c>
-      <c r="W47" s="269">
+      <c r="W47" s="260">
         <v>10</v>
       </c>
-      <c r="X47" s="269">
+      <c r="X47" s="260">
         <v>13</v>
       </c>
-      <c r="Y47" s="269">
+      <c r="Y47" s="260">
         <v>8</v>
       </c>
     </row>
@@ -30837,10 +30796,10 @@
         <v>32</v>
       </c>
       <c r="F48" s="264" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G48" s="261" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H48" s="265"/>
       <c r="I48" s="265">
@@ -30862,7 +30821,7 @@
         <v>20</v>
       </c>
       <c r="O48" s="288" t="s">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="P48" s="288" t="s">
         <v>595</v>
@@ -30870,14 +30829,14 @@
       <c r="Q48" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R48" s="359" t="s">
+      <c r="R48" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S48" s="267" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T48" s="267" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="U48" s="288" t="s">
         <v>744</v>
@@ -30892,197 +30851,117 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="260" customFormat="1" ht="24">
-      <c r="A49" s="261" t="s">
+    <row r="49" spans="1:26" s="302" customFormat="1" ht="24.75" thickBot="1">
+      <c r="A49" s="292" t="s">
         <v>687</v>
       </c>
-      <c r="B49" s="262" t="s">
+      <c r="B49" s="293" t="s">
         <v>570</v>
       </c>
-      <c r="C49" s="262"/>
-      <c r="D49" s="262" t="s">
+      <c r="C49" s="293"/>
+      <c r="D49" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="263" t="s">
+      <c r="E49" s="301" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="264" t="s">
-        <v>772</v>
-      </c>
-      <c r="G49" s="261" t="s">
-        <v>695</v>
-      </c>
-      <c r="H49" s="265"/>
-      <c r="I49" s="265">
+      <c r="F49" s="294" t="s">
+        <v>770</v>
+      </c>
+      <c r="G49" s="292" t="s">
+        <v>697</v>
+      </c>
+      <c r="H49" s="295"/>
+      <c r="I49" s="295">
         <v>20</v>
       </c>
-      <c r="J49" s="261" t="s">
+      <c r="J49" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="265">
+      <c r="K49" s="295">
         <v>60</v>
       </c>
-      <c r="L49" s="261" t="s">
+      <c r="L49" s="292" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="265">
+      <c r="M49" s="295">
         <v>10</v>
       </c>
-      <c r="N49" s="266" t="s">
+      <c r="N49" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="288" t="s">
-        <v>696</v>
-      </c>
-      <c r="P49" s="288" t="s">
+      <c r="O49" s="297" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" s="297" t="s">
         <v>595</v>
       </c>
-      <c r="Q49" s="265" t="s">
+      <c r="Q49" s="295" t="s">
         <v>691</v>
       </c>
-      <c r="R49" s="359" t="s">
+      <c r="R49" s="360" t="s">
         <v>571</v>
       </c>
-      <c r="S49" s="267" t="s">
+      <c r="S49" s="361" t="s">
         <v>739</v>
       </c>
-      <c r="T49" s="267" t="s">
+      <c r="T49" s="361" t="s">
         <v>741</v>
       </c>
-      <c r="U49" s="288" t="s">
+      <c r="U49" s="362" t="s">
         <v>744</v>
       </c>
-      <c r="W49" s="260">
+      <c r="W49" s="302">
         <v>10</v>
       </c>
-      <c r="X49" s="260">
+      <c r="X49" s="302">
         <v>13</v>
       </c>
-      <c r="Y49" s="260">
+      <c r="Y49" s="302">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="303" customFormat="1" ht="24.75" thickBot="1">
-      <c r="A50" s="293" t="s">
-        <v>687</v>
-      </c>
-      <c r="B50" s="294" t="s">
-        <v>570</v>
-      </c>
-      <c r="C50" s="294"/>
-      <c r="D50" s="294" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="302" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="295" t="s">
-        <v>773</v>
-      </c>
-      <c r="G50" s="293" t="s">
-        <v>697</v>
-      </c>
-      <c r="H50" s="296"/>
-      <c r="I50" s="296">
-        <v>20</v>
-      </c>
-      <c r="J50" s="293" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="296">
-        <v>60</v>
-      </c>
-      <c r="L50" s="293" t="s">
-        <v>19</v>
-      </c>
-      <c r="M50" s="296">
-        <v>10</v>
-      </c>
-      <c r="N50" s="297" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="298" t="s">
-        <v>39</v>
-      </c>
-      <c r="P50" s="298" t="s">
+    <row r="50" spans="1:26" ht="32.25" customHeight="1" thickTop="1">
+      <c r="V50" s="269" t="s">
+        <v>746</v>
+      </c>
+      <c r="W50" s="269">
+        <f>SUM(W1:W49)</f>
+        <v>490</v>
+      </c>
+      <c r="X50" s="269">
+        <f t="shared" ref="X50:Y50" si="0">SUM(X1:X49)</f>
         <v>595</v>
       </c>
-      <c r="Q50" s="296" t="s">
-        <v>691</v>
-      </c>
-      <c r="R50" s="361" t="s">
-        <v>571</v>
-      </c>
-      <c r="S50" s="362" t="s">
-        <v>739</v>
-      </c>
-      <c r="T50" s="362" t="s">
-        <v>741</v>
-      </c>
-      <c r="U50" s="363" t="s">
-        <v>744</v>
-      </c>
-      <c r="W50" s="303">
-        <v>10</v>
-      </c>
-      <c r="X50" s="303">
-        <v>13</v>
-      </c>
-      <c r="Y50" s="303">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="32.25" customHeight="1" thickTop="1">
-      <c r="V51" s="269" t="s">
-        <v>749</v>
-      </c>
-      <c r="W51" s="269">
-        <f>SUM(W2:W50)</f>
-        <v>490</v>
-      </c>
-      <c r="X51" s="269">
-        <f t="shared" ref="X51:Y51" si="0">SUM(X2:X50)</f>
-        <v>595</v>
-      </c>
-      <c r="Y51" s="269">
+      <c r="Y50" s="269">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="Z51" s="291" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="54" customHeight="1">
-      <c r="V52" s="368" t="s">
-        <v>750</v>
-      </c>
-      <c r="W52" s="367">
-        <f>W51/60</f>
+      <c r="Z50" s="291" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="54" customHeight="1">
+      <c r="V51" s="367" t="s">
+        <v>747</v>
+      </c>
+      <c r="W51" s="366">
+        <f>W50/60</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="X52" s="367">
-        <f>X51/60</f>
+      <c r="X51" s="366">
+        <f>X50/60</f>
         <v>9.9166666666666661</v>
       </c>
-      <c r="Y52" s="367">
-        <f>Y51/60</f>
+      <c r="Y51" s="366">
+        <f>Y50/60</f>
         <v>6.5333333333333332</v>
       </c>
-      <c r="Z52" s="367">
+      <c r="Z51" s="366">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="I1:N1"/>
-  </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31136,14 +31015,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="385" t="s">
+      <c r="F1" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -31823,19 +31702,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="383" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="387" t="s">
+      <c r="B6" s="383" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="387" t="s">
+      <c r="C6" s="383" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="389" t="s">
+      <c r="D6" s="385" t="s">
         <v>676</v>
       </c>
-      <c r="E6" s="390" t="s">
+      <c r="E6" s="386" t="s">
         <v>609</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -31847,11 +31726,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="388"/>
-      <c r="B7" s="388"/>
-      <c r="C7" s="388"/>
-      <c r="D7" s="388"/>
-      <c r="E7" s="388"/>
+      <c r="A7" s="384"/>
+      <c r="B7" s="384"/>
+      <c r="C7" s="384"/>
+      <c r="D7" s="384"/>
+      <c r="E7" s="384"/>
       <c r="F7" s="61" t="s">
         <v>678</v>
       </c>
@@ -31956,14 +31835,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="370" t="s">
+      <c r="F1" s="369" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="372"/>
+      <c r="G1" s="370"/>
+      <c r="H1" s="370"/>
+      <c r="I1" s="370"/>
+      <c r="J1" s="370"/>
+      <c r="K1" s="371"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -31981,7 +31860,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="373" t="s">
+      <c r="A2" s="372" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -32032,7 +31911,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="374"/>
+      <c r="A3" s="373"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -32080,7 +31959,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="375"/>
+      <c r="A4" s="374"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -37100,12 +36979,12 @@
       <c r="D1" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="376" t="s">
+      <c r="E1" s="375" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="377"/>
-      <c r="G1" s="377"/>
-      <c r="H1" s="378"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="377"/>
       <c r="I1" s="255"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -42740,14 +42619,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="379" t="s">
+      <c r="I1" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
+      <c r="N1" s="379"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -46229,15 +46108,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46502,21 +46378,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46541,9 +46417,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
+++ b/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D982E-052E-47C2-AF30-1867259A2EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155F981-1B03-40ED-9B0C-FFD87390208A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo de Tratamiento" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,6 +35,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distribución 02'!$A$5:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Endpoints a probar'!$D$1:$G$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'EndPoints AUTH - Probar (41)'!$A$1:$T$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Parámetros Auth'!$A$1:$U$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Parámetros Auth NUEVO (AT)'!$A$1:$U$43</definedName>
@@ -126,7 +127,7 @@
     <author>Hernán Alosilla</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0FBCD5D6-F57E-4E9F-A5B1-F2EDF9F0D03E}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{0FBCD5D6-F57E-4E9F-A5B1-F2EDF9F0D03E}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{7B066058-04B5-4F6C-826E-8C64A16D1B09}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{7B066058-04B5-4F6C-826E-8C64A16D1B09}">
       <text>
         <r>
           <rPr>
@@ -214,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{96C3E7B3-D59D-4083-BE5B-41ACBBE68CC7}">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{96C3E7B3-D59D-4083-BE5B-41ACBBE68CC7}">
       <text>
         <r>
           <rPr>
@@ -278,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{CCA6AD5B-055E-4DB0-BA4C-180E715827DA}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{CCA6AD5B-055E-4DB0-BA4C-180E715827DA}">
       <text>
         <r>
           <rPr>
@@ -327,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{A29E49AB-F2B0-4CB8-88A9-6CCC64F51AF1}">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{A29E49AB-F2B0-4CB8-88A9-6CCC64F51AF1}">
       <text>
         <r>
           <rPr>
@@ -378,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{C2880C0C-2520-4C42-9DD6-7A1396AC608C}">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{C2880C0C-2520-4C42-9DD6-7A1396AC608C}">
       <text>
         <r>
           <rPr>
@@ -427,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{01E0E142-2756-4DBE-A6E9-A842275ABB88}">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{01E0E142-2756-4DBE-A6E9-A842275ABB88}">
       <text>
         <r>
           <rPr>
@@ -478,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{D9494681-1B03-4D1A-9958-FEFC7FD36171}">
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{D9494681-1B03-4D1A-9958-FEFC7FD36171}">
       <text>
         <r>
           <rPr>
@@ -506,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{2332E401-C86F-47F8-BFAE-5CB2B9C2D9A3}">
+    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{2332E401-C86F-47F8-BFAE-5CB2B9C2D9A3}">
       <text>
         <r>
           <rPr>
@@ -530,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{8E1B5E9F-13DB-46A6-B35A-3CC9D60BD811}">
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{8E1B5E9F-13DB-46A6-B35A-3CC9D60BD811}">
       <text>
         <r>
           <rPr>
@@ -553,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{E0113A63-AB8F-4CAF-83B9-F3B6A900756D}">
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{E0113A63-AB8F-4CAF-83B9-F3B6A900756D}">
       <text>
         <r>
           <rPr>
@@ -617,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{EE5077F5-B330-4460-9107-F720AFEDF141}">
+    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{EE5077F5-B330-4460-9107-F720AFEDF141}">
       <text>
         <r>
           <rPr>
@@ -641,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{7B89B75B-EA0D-4F46-BC51-E15356127D48}">
+    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{7B89B75B-EA0D-4F46-BC51-E15356127D48}">
       <text>
         <r>
           <rPr>
@@ -705,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{060310F3-4CB1-42F7-94F9-682E0A3321ED}">
+    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{060310F3-4CB1-42F7-94F9-682E0A3321ED}">
       <text>
         <r>
           <rPr>
@@ -754,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{325DE853-3DC8-4901-989B-9305082D54DE}">
+    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{325DE853-3DC8-4901-989B-9305082D54DE}">
       <text>
         <r>
           <rPr>
@@ -805,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{0B86804A-F7BA-473F-B8F0-1CA15E7D1B55}">
+    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{0B86804A-F7BA-473F-B8F0-1CA15E7D1B55}">
       <text>
         <r>
           <rPr>
@@ -854,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{BBF45AA5-E098-4520-B821-466EBA0A269D}">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{BBF45AA5-E098-4520-B821-466EBA0A269D}">
       <text>
         <r>
           <rPr>
@@ -905,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{4A7E7F05-816B-4AE8-BB0E-AE8C5EC12353}">
+    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{4A7E7F05-816B-4AE8-BB0E-AE8C5EC12353}">
       <text>
         <r>
           <rPr>
@@ -969,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{04F239E6-2E35-4ADA-BE79-2D7BAB926241}">
+    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{04F239E6-2E35-4ADA-BE79-2D7BAB926241}">
       <text>
         <r>
           <rPr>
@@ -993,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{0FDE3903-B2D7-4EAB-AA79-F202112FA19B}">
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{0FDE3903-B2D7-4EAB-AA79-F202112FA19B}">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{D3399E9D-6781-4FC8-B15B-D5C6C6445DB2}">
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{D3399E9D-6781-4FC8-B15B-D5C6C6445DB2}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{744DE9DA-0C2C-4E6C-9A1C-3FF55075BECE}">
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{744DE9DA-0C2C-4E6C-9A1C-3FF55075BECE}">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{6A572813-79CF-4508-B28C-2D462BB03037}">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{6A572813-79CF-4508-B28C-2D462BB03037}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{8F41751B-3422-4E74-B682-E9E87609647B}">
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{8F41751B-3422-4E74-B682-E9E87609647B}">
       <text>
         <r>
           <rPr>
@@ -1257,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{E6ED3534-4A97-460E-B9A6-2695E361F74C}">
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{E6ED3534-4A97-460E-B9A6-2695E361F74C}">
       <text>
         <r>
           <rPr>
@@ -1321,7 +1322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{EB7C1DF4-0FF8-4B0A-A0DD-44ED6962525E}">
+    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{EB7C1DF4-0FF8-4B0A-A0DD-44ED6962525E}">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O31" authorId="0" shapeId="0" xr:uid="{89C1E71C-2F35-4F55-BF17-B188CFDDBFB4}">
+    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{89C1E71C-2F35-4F55-BF17-B188CFDDBFB4}">
       <text>
         <r>
           <rPr>
@@ -1409,7 +1410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{B56663B9-1C69-44DA-B835-BF4CB6768522}">
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{B56663B9-1C69-44DA-B835-BF4CB6768522}">
       <text>
         <r>
           <rPr>
@@ -1458,7 +1459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{0C51F02B-BA1A-4022-8CFE-9AE62973AD85}">
+    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{0C51F02B-BA1A-4022-8CFE-9AE62973AD85}">
       <text>
         <r>
           <rPr>
@@ -1509,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{5DD4357F-0290-42E7-8D0F-75D5F871572A}">
+    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{5DD4357F-0290-42E7-8D0F-75D5F871572A}">
       <text>
         <r>
           <rPr>
@@ -1558,7 +1559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{132080D9-E511-4FE2-95C6-0588A660E5A9}">
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{132080D9-E511-4FE2-95C6-0588A660E5A9}">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{0DAF0650-9FF3-460A-8311-179D95C82D98}">
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{0DAF0650-9FF3-460A-8311-179D95C82D98}">
       <text>
         <r>
           <rPr>
@@ -1637,7 +1638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{866E88DF-0771-43BB-B904-880D78B653B6}">
+    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{866E88DF-0771-43BB-B904-880D78B653B6}">
       <text>
         <r>
           <rPr>
@@ -1661,7 +1662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{7A9BDC12-5C80-4B64-A557-F36F72BB9B5F}">
+    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{7A9BDC12-5C80-4B64-A557-F36F72BB9B5F}">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{A1E12DF7-D6EF-4950-9121-CEAC9A43B065}">
+    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{A1E12DF7-D6EF-4950-9121-CEAC9A43B065}">
       <text>
         <r>
           <rPr>
@@ -1734,7 +1735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{B7B57802-5076-4FC6-8A32-980ECC902B0A}">
+    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{B7B57802-5076-4FC6-8A32-980ECC902B0A}">
       <text>
         <r>
           <rPr>
@@ -1759,7 +1760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{EED9D04D-414E-4CA3-B731-1479A424EEFD}">
+    <comment ref="O42" authorId="0" shapeId="0" xr:uid="{EED9D04D-414E-4CA3-B731-1479A424EEFD}">
       <text>
         <r>
           <rPr>
@@ -1783,7 +1784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O42" authorId="0" shapeId="0" xr:uid="{F8433C59-736F-4AD0-8CEA-15D2F7531FA0}">
+    <comment ref="O43" authorId="0" shapeId="0" xr:uid="{F8433C59-736F-4AD0-8CEA-15D2F7531FA0}">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O43" authorId="0" shapeId="0" xr:uid="{9C336DF0-55FC-465D-8232-AE8641616671}">
+    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{9C336DF0-55FC-465D-8232-AE8641616671}">
       <text>
         <r>
           <rPr>
@@ -1833,7 +1834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{344A9E8A-3EC5-485C-B867-78E5F0D8E793}">
+    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{344A9E8A-3EC5-485C-B867-78E5F0D8E793}">
       <text>
         <r>
           <rPr>
@@ -1847,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{0241E105-BAA3-4F64-8A8A-12E6C0B058FE}">
+    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{0241E105-BAA3-4F64-8A8A-12E6C0B058FE}">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{BA8629B8-100E-4D52-B333-9D1CB8B8882B}">
+    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{BA8629B8-100E-4D52-B333-9D1CB8B8882B}">
       <text>
         <r>
           <rPr>
@@ -1906,7 +1907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{C8984193-FC96-4298-B0CE-385EFFEDEB42}">
+    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{C8984193-FC96-4298-B0CE-385EFFEDEB42}">
       <text>
         <r>
           <rPr>
@@ -1931,7 +1932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{68E5C61F-B8BF-4303-BC8C-7B0FC2FB3806}">
+    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{68E5C61F-B8BF-4303-BC8C-7B0FC2FB3806}">
       <text>
         <r>
           <rPr>
@@ -1956,7 +1957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{1901F709-64B5-44F1-811A-A75B3D0C97E0}">
+    <comment ref="O50" authorId="0" shapeId="0" xr:uid="{1901F709-64B5-44F1-811A-A75B3D0C97E0}">
       <text>
         <r>
           <rPr>
@@ -5176,10 +5177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -6179,10 +6180,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6514,7 +6515,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6684,7 +6685,7 @@
     <xf numFmtId="9" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6740,7 +6741,7 @@
     <xf numFmtId="9" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6752,7 +6753,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6770,7 +6771,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6971,13 +6972,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7088,13 +7089,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7121,7 +7122,7 @@
     <xf numFmtId="0" fontId="58" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7147,7 +7148,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7155,6 +7156,18 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7208,17 +7221,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7723,14 +7730,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>156280</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>438855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1417180</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>206215</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>665432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7767,14 +7774,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1435504</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14320</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>212712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12363,14 +12370,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="378" t="s">
+      <c r="I1" s="382" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="378"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -15249,14 +15256,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="380" t="s">
+      <c r="I1" s="384" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -18056,14 +18063,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="378" t="s">
+      <c r="I1" s="382" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="378"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -21125,14 +21132,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="378" t="s">
+      <c r="I1" s="382" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="378"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -24308,14 +24315,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="378" t="s">
+      <c r="I1" s="382" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="378"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -27420,12 +27427,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-  <dimension ref="A1:Z51"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E34" sqref="E24:E34"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.140625" defaultRowHeight="54" customHeight="1"/>
@@ -27457,80 +27463,12 @@
     <col min="26" max="16384" width="23.140625" style="269"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="260" customFormat="1" ht="36">
-      <c r="A1" s="261" t="s">
-        <v>687</v>
-      </c>
-      <c r="B1" s="262" t="s">
-        <v>688</v>
-      </c>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="264" t="s">
-        <v>749</v>
-      </c>
-      <c r="G1" s="261" t="s">
-        <v>700</v>
-      </c>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265">
-        <v>60</v>
-      </c>
-      <c r="J1" s="261" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="265">
-        <v>60</v>
-      </c>
-      <c r="L1" s="261" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="265">
-        <v>10</v>
-      </c>
-      <c r="N1" s="266" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="288" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="288" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q1" s="265" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="303" t="s">
-        <v>735</v>
-      </c>
-      <c r="S1" s="267">
-        <v>0.95</v>
-      </c>
-      <c r="T1" s="267">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U1" s="300" t="s">
-        <v>734</v>
-      </c>
-      <c r="V1" s="287" t="s">
-        <v>726</v>
-      </c>
-      <c r="W1" s="260">
-        <v>10</v>
-      </c>
-      <c r="X1" s="260">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="260">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="1" spans="1:25" ht="54" customHeight="1">
+      <c r="F1" s="271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="260" customFormat="1" ht="36" hidden="1">
       <c r="A2" s="261" t="s">
         <v>687</v>
       </c>
@@ -27542,13 +27480,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="263" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F2" s="264" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G2" s="261" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="H2" s="265"/>
       <c r="I2" s="265">
@@ -27570,13 +27508,13 @@
         <v>20</v>
       </c>
       <c r="O2" s="288" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="P2" s="288" t="s">
         <v>595</v>
       </c>
       <c r="Q2" s="265" t="s">
-        <v>691</v>
+        <v>23</v>
       </c>
       <c r="R2" s="303" t="s">
         <v>735</v>
@@ -27589,6 +27527,9 @@
       </c>
       <c r="U2" s="300" t="s">
         <v>734</v>
+      </c>
+      <c r="V2" s="287" t="s">
+        <v>726</v>
       </c>
       <c r="W2" s="260">
         <v>10</v>
@@ -27615,32 +27556,32 @@
         <v>90</v>
       </c>
       <c r="F3" s="264" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G3" s="261" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H3" s="265"/>
-      <c r="I3" s="387">
+      <c r="I3" s="265">
         <v>60</v>
       </c>
-      <c r="J3" s="388" t="s">
+      <c r="J3" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="387">
+      <c r="K3" s="265">
         <v>60</v>
       </c>
-      <c r="L3" s="388" t="s">
+      <c r="L3" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="387">
+      <c r="M3" s="265">
         <v>10</v>
       </c>
-      <c r="N3" s="389" t="s">
+      <c r="N3" s="266" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="288" t="s">
-        <v>691</v>
+        <v>39</v>
       </c>
       <c r="P3" s="288" t="s">
         <v>595</v>
@@ -27648,7 +27589,7 @@
       <c r="Q3" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="391" t="s">
         <v>735</v>
       </c>
       <c r="S3" s="267">
@@ -27670,7 +27611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="36">
+    <row r="4" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
       <c r="A4" s="261" t="s">
         <v>687</v>
       </c>
@@ -27682,41 +27623,41 @@
         <v>78</v>
       </c>
       <c r="E4" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="270" t="s">
-        <v>752</v>
-      </c>
-      <c r="G4" s="271" t="s">
-        <v>701</v>
-      </c>
-      <c r="H4" s="272"/>
-      <c r="I4" s="387">
+        <v>90</v>
+      </c>
+      <c r="F4" s="264" t="s">
+        <v>751</v>
+      </c>
+      <c r="G4" s="261" t="s">
+        <v>693</v>
+      </c>
+      <c r="H4" s="265"/>
+      <c r="I4" s="369">
         <v>60</v>
       </c>
-      <c r="J4" s="388" t="s">
+      <c r="J4" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="387">
+      <c r="K4" s="369">
         <v>60</v>
       </c>
-      <c r="L4" s="388" t="s">
+      <c r="L4" s="370" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="387">
+      <c r="M4" s="369">
         <v>10</v>
       </c>
-      <c r="N4" s="390" t="s">
+      <c r="N4" s="371" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="289" t="s">
-        <v>9</v>
+      <c r="O4" s="288" t="s">
+        <v>691</v>
       </c>
       <c r="P4" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q4" s="272" t="s">
-        <v>23</v>
+      <c r="Q4" s="265" t="s">
+        <v>691</v>
       </c>
       <c r="R4" s="303" t="s">
         <v>735</v>
@@ -27730,7 +27671,6 @@
       <c r="U4" s="300" t="s">
         <v>734</v>
       </c>
-      <c r="V4" s="260"/>
       <c r="W4" s="260">
         <v>10</v>
       </c>
@@ -27741,7 +27681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="24">
+    <row r="5" spans="1:25" ht="36" hidden="1">
       <c r="A5" s="261" t="s">
         <v>687</v>
       </c>
@@ -27753,40 +27693,40 @@
         <v>78</v>
       </c>
       <c r="E5" s="263" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="264" t="s">
-        <v>753</v>
-      </c>
-      <c r="G5" s="268" t="s">
-        <v>718</v>
-      </c>
-      <c r="H5" s="265"/>
-      <c r="I5" s="387">
+        <v>25</v>
+      </c>
+      <c r="F5" s="270" t="s">
+        <v>752</v>
+      </c>
+      <c r="G5" s="271" t="s">
+        <v>701</v>
+      </c>
+      <c r="H5" s="272"/>
+      <c r="I5" s="369">
         <v>60</v>
       </c>
-      <c r="J5" s="388" t="s">
+      <c r="J5" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="387">
+      <c r="K5" s="369">
         <v>60</v>
       </c>
-      <c r="L5" s="388" t="s">
+      <c r="L5" s="370" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="387">
+      <c r="M5" s="369">
         <v>10</v>
       </c>
-      <c r="N5" s="390" t="s">
+      <c r="N5" s="372" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="288" t="s">
-        <v>711</v>
+      <c r="O5" s="289" t="s">
+        <v>9</v>
       </c>
       <c r="P5" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q5" s="265" t="s">
+      <c r="Q5" s="272" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="303" t="s">
@@ -27812,7 +27752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24">
+    <row r="6" spans="1:25" ht="24" hidden="1">
       <c r="A6" s="261" t="s">
         <v>687</v>
       </c>
@@ -27827,28 +27767,28 @@
         <v>90</v>
       </c>
       <c r="F6" s="264" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G6" s="268" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H6" s="265"/>
-      <c r="I6" s="265">
+      <c r="I6" s="369">
         <v>60</v>
       </c>
-      <c r="J6" s="261" t="s">
+      <c r="J6" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="265">
+      <c r="K6" s="369">
         <v>60</v>
       </c>
-      <c r="L6" s="261" t="s">
+      <c r="L6" s="370" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="265">
+      <c r="M6" s="369">
         <v>10</v>
       </c>
-      <c r="N6" s="274" t="s">
+      <c r="N6" s="372" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="288" t="s">
@@ -27883,64 +27823,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24">
-      <c r="A7" s="273" t="s">
+    <row r="7" spans="1:25" ht="24" hidden="1">
+      <c r="A7" s="261" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="262" t="s">
         <v>688</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277" t="s">
+      <c r="C7" s="262"/>
+      <c r="D7" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="278" t="s">
+      <c r="E7" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="270" t="s">
-        <v>755</v>
-      </c>
-      <c r="G7" s="279" t="s">
-        <v>716</v>
-      </c>
-      <c r="H7" s="272"/>
-      <c r="I7" s="272">
+      <c r="F7" s="264" t="s">
+        <v>754</v>
+      </c>
+      <c r="G7" s="268" t="s">
+        <v>717</v>
+      </c>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265">
         <v>60</v>
       </c>
-      <c r="J7" s="273" t="s">
+      <c r="J7" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="272">
+      <c r="K7" s="265">
         <v>60</v>
       </c>
-      <c r="L7" s="273" t="s">
+      <c r="L7" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="272">
+      <c r="M7" s="265">
         <v>10</v>
       </c>
       <c r="N7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="289" t="s">
+      <c r="O7" s="288" t="s">
         <v>711</v>
       </c>
-      <c r="P7" s="289" t="s">
+      <c r="P7" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q7" s="272" t="s">
+      <c r="Q7" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="307" t="s">
+      <c r="R7" s="303" t="s">
         <v>735</v>
       </c>
-      <c r="S7" s="308">
+      <c r="S7" s="267">
         <v>0.95</v>
       </c>
-      <c r="T7" s="308">
+      <c r="T7" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U7" s="309" t="s">
+      <c r="U7" s="300" t="s">
         <v>734</v>
       </c>
       <c r="V7" s="260"/>
@@ -27954,67 +27894,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="275" customFormat="1" ht="24">
-      <c r="A8" s="261" t="s">
+    <row r="8" spans="1:25" ht="24" hidden="1">
+      <c r="A8" s="273" t="s">
         <v>687</v>
       </c>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="277" t="s">
         <v>688</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262" t="s">
+      <c r="C8" s="277"/>
+      <c r="D8" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="263" t="s">
+      <c r="E8" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="264" t="s">
-        <v>756</v>
-      </c>
-      <c r="G8" s="268" t="s">
-        <v>715</v>
-      </c>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265">
+      <c r="F8" s="270" t="s">
+        <v>755</v>
+      </c>
+      <c r="G8" s="279" t="s">
+        <v>716</v>
+      </c>
+      <c r="H8" s="272"/>
+      <c r="I8" s="272">
         <v>60</v>
       </c>
-      <c r="J8" s="261" t="s">
+      <c r="J8" s="273" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="265">
+      <c r="K8" s="272">
         <v>60</v>
       </c>
-      <c r="L8" s="261" t="s">
+      <c r="L8" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="265">
+      <c r="M8" s="272">
         <v>10</v>
       </c>
-      <c r="N8" s="266" t="s">
+      <c r="N8" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="288" t="s">
+      <c r="O8" s="289" t="s">
         <v>711</v>
       </c>
-      <c r="P8" s="288" t="s">
+      <c r="P8" s="289" t="s">
         <v>595</v>
       </c>
-      <c r="Q8" s="265" t="s">
+      <c r="Q8" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="303" t="s">
+      <c r="R8" s="307" t="s">
         <v>735</v>
       </c>
-      <c r="S8" s="267">
+      <c r="S8" s="308">
         <v>0.95</v>
       </c>
-      <c r="T8" s="267">
+      <c r="T8" s="308">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U8" s="300" t="s">
+      <c r="U8" s="309" t="s">
         <v>734</v>
       </c>
-      <c r="V8" s="310"/>
+      <c r="V8" s="260"/>
       <c r="W8" s="260">
         <v>10</v>
       </c>
@@ -28025,7 +27965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24">
+    <row r="9" spans="1:25" s="275" customFormat="1" ht="24" hidden="1">
       <c r="A9" s="261" t="s">
         <v>687</v>
       </c>
@@ -28034,20 +27974,20 @@
       </c>
       <c r="C9" s="262"/>
       <c r="D9" s="262" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E9" s="263" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F9" s="264" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G9" s="268" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H9" s="265"/>
       <c r="I9" s="265">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J9" s="261" t="s">
         <v>18</v>
@@ -28059,13 +27999,13 @@
         <v>19</v>
       </c>
       <c r="M9" s="265">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N9" s="266" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="288" t="s">
-        <v>9</v>
+        <v>711</v>
       </c>
       <c r="P9" s="288" t="s">
         <v>595</v>
@@ -28082,21 +28022,21 @@
       <c r="T9" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U9" s="305" t="s">
-        <v>745</v>
-      </c>
-      <c r="V9" s="260"/>
+      <c r="U9" s="300" t="s">
+        <v>734</v>
+      </c>
+      <c r="V9" s="310"/>
       <c r="W9" s="260">
         <v>10</v>
       </c>
-      <c r="X9" s="269">
-        <v>6</v>
+      <c r="X9" s="260">
+        <v>13</v>
       </c>
       <c r="Y9" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="24">
+    <row r="10" spans="1:25" ht="24" hidden="1">
       <c r="A10" s="261" t="s">
         <v>687</v>
       </c>
@@ -28111,12 +28051,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="264" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G10" s="268" t="s">
-        <v>730</v>
-      </c>
-      <c r="H10" s="275"/>
+        <v>710</v>
+      </c>
+      <c r="H10" s="265"/>
       <c r="I10" s="265">
         <v>1</v>
       </c>
@@ -28135,14 +28075,14 @@
       <c r="N10" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="276" t="s">
-        <v>39</v>
+      <c r="O10" s="288" t="s">
+        <v>9</v>
       </c>
       <c r="P10" s="288" t="s">
         <v>595</v>
       </c>
       <c r="Q10" s="265" t="s">
-        <v>691</v>
+        <v>23</v>
       </c>
       <c r="R10" s="303" t="s">
         <v>735</v>
@@ -28153,9 +28093,10 @@
       <c r="T10" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U10" s="288" t="s">
-        <v>744</v>
-      </c>
+      <c r="U10" s="305" t="s">
+        <v>745</v>
+      </c>
+      <c r="V10" s="260"/>
       <c r="W10" s="260">
         <v>10</v>
       </c>
@@ -28166,55 +28107,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="302" customFormat="1" ht="108.75" thickBot="1">
-      <c r="A11" s="292" t="s">
+    <row r="11" spans="1:25" ht="24" hidden="1">
+      <c r="A11" s="261" t="s">
         <v>687</v>
       </c>
-      <c r="B11" s="293" t="s">
+      <c r="B11" s="262" t="s">
         <v>688</v>
       </c>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293" t="s">
+      <c r="C11" s="262"/>
+      <c r="D11" s="262" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="301" t="s">
+      <c r="E11" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="294" t="s">
-        <v>759</v>
-      </c>
-      <c r="G11" s="292" t="s">
-        <v>729</v>
-      </c>
-      <c r="H11" s="295"/>
-      <c r="I11" s="295">
+      <c r="F11" s="264" t="s">
+        <v>758</v>
+      </c>
+      <c r="G11" s="268" t="s">
+        <v>730</v>
+      </c>
+      <c r="H11" s="275"/>
+      <c r="I11" s="265">
         <v>1</v>
       </c>
-      <c r="J11" s="292" t="s">
+      <c r="J11" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="295">
+      <c r="K11" s="265">
         <v>60</v>
       </c>
-      <c r="L11" s="292" t="s">
+      <c r="L11" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="295">
+      <c r="M11" s="265">
         <v>1</v>
       </c>
-      <c r="N11" s="296" t="s">
+      <c r="N11" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="297" t="s">
+      <c r="O11" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="297" t="s">
+      <c r="P11" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q11" s="295" t="s">
+      <c r="Q11" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R11" s="311" t="s">
+      <c r="R11" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S11" s="267">
@@ -28223,159 +28164,159 @@
       <c r="T11" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U11" s="306" t="s">
+      <c r="U11" s="288" t="s">
         <v>744</v>
       </c>
       <c r="W11" s="260">
         <v>10</v>
       </c>
-      <c r="X11" s="302">
+      <c r="X11" s="269">
         <v>6</v>
       </c>
       <c r="Y11" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="323" customFormat="1" ht="72.75" thickTop="1">
-      <c r="A12" s="312" t="s">
+    <row r="12" spans="1:25" s="302" customFormat="1" ht="108.75" hidden="1" thickBot="1">
+      <c r="A12" s="292" t="s">
         <v>687</v>
       </c>
-      <c r="B12" s="313" t="s">
+      <c r="B12" s="293" t="s">
+        <v>688</v>
+      </c>
+      <c r="C12" s="293"/>
+      <c r="D12" s="293" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="301" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="294" t="s">
+        <v>759</v>
+      </c>
+      <c r="G12" s="292" t="s">
+        <v>729</v>
+      </c>
+      <c r="H12" s="295"/>
+      <c r="I12" s="295">
+        <v>1</v>
+      </c>
+      <c r="J12" s="292" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="295">
+        <v>60</v>
+      </c>
+      <c r="L12" s="292" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="295">
+        <v>1</v>
+      </c>
+      <c r="N12" s="296" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="297" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="297" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q12" s="295" t="s">
+        <v>691</v>
+      </c>
+      <c r="R12" s="311" t="s">
+        <v>735</v>
+      </c>
+      <c r="S12" s="267">
+        <v>0.95</v>
+      </c>
+      <c r="T12" s="267">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U12" s="306" t="s">
+        <v>744</v>
+      </c>
+      <c r="W12" s="260">
+        <v>10</v>
+      </c>
+      <c r="X12" s="302">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="323" customFormat="1" ht="72.75" hidden="1" thickTop="1">
+      <c r="A13" s="312" t="s">
+        <v>687</v>
+      </c>
+      <c r="B13" s="313" t="s">
         <v>724</v>
       </c>
-      <c r="C12" s="313"/>
-      <c r="D12" s="313" t="s">
+      <c r="C13" s="313"/>
+      <c r="D13" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="314" t="s">
+      <c r="E13" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="315" t="s">
+      <c r="F13" s="315" t="s">
         <v>749</v>
       </c>
-      <c r="G12" s="312" t="s">
+      <c r="G13" s="312" t="s">
         <v>700</v>
       </c>
-      <c r="H12" s="316"/>
-      <c r="I12" s="316">
+      <c r="H13" s="316"/>
+      <c r="I13" s="316">
         <v>60</v>
       </c>
-      <c r="J12" s="312" t="s">
+      <c r="J13" s="312" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="316">
+      <c r="K13" s="316">
         <v>60</v>
       </c>
-      <c r="L12" s="312" t="s">
+      <c r="L13" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="316">
+      <c r="M13" s="316">
         <v>10</v>
       </c>
-      <c r="N12" s="317" t="s">
+      <c r="N13" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="316" t="s">
+      <c r="O13" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="318" t="s">
+      <c r="P13" s="318" t="s">
         <v>595</v>
       </c>
-      <c r="Q12" s="316" t="s">
+      <c r="Q13" s="316" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="319" t="s">
+      <c r="R13" s="319" t="s">
         <v>736</v>
       </c>
-      <c r="S12" s="320">
+      <c r="S13" s="320">
         <v>1</v>
       </c>
-      <c r="T12" s="320">
+      <c r="T13" s="320">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U12" s="321" t="s">
+      <c r="U13" s="321" t="s">
         <v>734</v>
       </c>
-      <c r="V12" s="322" t="s">
+      <c r="V13" s="322" t="s">
         <v>725</v>
       </c>
-      <c r="W12" s="323">
+      <c r="W13" s="323">
         <v>10</v>
       </c>
-      <c r="X12" s="323">
+      <c r="X13" s="323">
         <v>13</v>
       </c>
-      <c r="Y12" s="323">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="334" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="324" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="325" t="s">
-        <v>724</v>
-      </c>
-      <c r="C13" s="325"/>
-      <c r="D13" s="325" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="327" t="s">
-        <v>750</v>
-      </c>
-      <c r="G13" s="324" t="s">
-        <v>692</v>
-      </c>
-      <c r="H13" s="328"/>
-      <c r="I13" s="328">
-        <v>60</v>
-      </c>
-      <c r="J13" s="324" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="328">
-        <v>60</v>
-      </c>
-      <c r="L13" s="324" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="328">
-        <v>10</v>
-      </c>
-      <c r="N13" s="329" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="330" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="330" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q13" s="328" t="s">
-        <v>691</v>
-      </c>
-      <c r="R13" s="331" t="s">
-        <v>736</v>
-      </c>
-      <c r="S13" s="332">
-        <v>1</v>
-      </c>
-      <c r="T13" s="332">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U13" s="333" t="s">
-        <v>734</v>
-      </c>
-      <c r="W13" s="334">
-        <v>10</v>
-      </c>
-      <c r="X13" s="334">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="334">
+      <c r="Y13" s="323">
         <v>8</v>
       </c>
     </row>
@@ -28394,10 +28335,10 @@
         <v>90</v>
       </c>
       <c r="F14" s="327" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G14" s="324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H14" s="328"/>
       <c r="I14" s="328">
@@ -28419,7 +28360,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="330" t="s">
-        <v>691</v>
+        <v>39</v>
       </c>
       <c r="P14" s="330" t="s">
         <v>595</v>
@@ -28427,7 +28368,7 @@
       <c r="Q14" s="328" t="s">
         <v>691</v>
       </c>
-      <c r="R14" s="331" t="s">
+      <c r="R14" s="391" t="s">
         <v>736</v>
       </c>
       <c r="S14" s="332">
@@ -28449,7 +28390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:25" s="334" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A15" s="324" t="s">
         <v>687</v>
       </c>
@@ -28461,15 +28402,15 @@
         <v>78</v>
       </c>
       <c r="E15" s="326" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="335" t="s">
-        <v>752</v>
-      </c>
-      <c r="G15" s="336" t="s">
-        <v>701</v>
-      </c>
-      <c r="H15" s="337"/>
+        <v>90</v>
+      </c>
+      <c r="F15" s="327" t="s">
+        <v>751</v>
+      </c>
+      <c r="G15" s="324" t="s">
+        <v>693</v>
+      </c>
+      <c r="H15" s="328"/>
       <c r="I15" s="328">
         <v>60</v>
       </c>
@@ -28485,17 +28426,17 @@
       <c r="M15" s="328">
         <v>10</v>
       </c>
-      <c r="N15" s="338" t="s">
+      <c r="N15" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="339" t="s">
-        <v>9</v>
+      <c r="O15" s="330" t="s">
+        <v>691</v>
       </c>
       <c r="P15" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q15" s="337" t="s">
-        <v>23</v>
+      <c r="Q15" s="328" t="s">
+        <v>691</v>
       </c>
       <c r="R15" s="331" t="s">
         <v>736</v>
@@ -28509,18 +28450,17 @@
       <c r="U15" s="333" t="s">
         <v>734</v>
       </c>
-      <c r="V15" s="334"/>
-      <c r="W15" s="340">
+      <c r="W15" s="334">
         <v>10</v>
       </c>
-      <c r="X15" s="340">
+      <c r="X15" s="334">
         <v>13</v>
       </c>
-      <c r="Y15" s="340">
+      <c r="Y15" s="334">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A16" s="324" t="s">
         <v>687</v>
       </c>
@@ -28532,15 +28472,15 @@
         <v>78</v>
       </c>
       <c r="E16" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="327" t="s">
-        <v>753</v>
-      </c>
-      <c r="G16" s="341" t="s">
-        <v>718</v>
-      </c>
-      <c r="H16" s="328"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="335" t="s">
+        <v>752</v>
+      </c>
+      <c r="G16" s="336" t="s">
+        <v>701</v>
+      </c>
+      <c r="H16" s="337"/>
       <c r="I16" s="328">
         <v>60</v>
       </c>
@@ -28559,13 +28499,13 @@
       <c r="N16" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="330" t="s">
-        <v>711</v>
+      <c r="O16" s="339" t="s">
+        <v>9</v>
       </c>
       <c r="P16" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q16" s="328" t="s">
+      <c r="Q16" s="337" t="s">
         <v>23</v>
       </c>
       <c r="R16" s="331" t="s">
@@ -28591,7 +28531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A17" s="324" t="s">
         <v>687</v>
       </c>
@@ -28606,10 +28546,10 @@
         <v>90</v>
       </c>
       <c r="F17" s="327" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G17" s="341" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H17" s="328"/>
       <c r="I17" s="328">
@@ -28662,7 +28602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A18" s="324" t="s">
         <v>687</v>
       </c>
@@ -28677,10 +28617,10 @@
         <v>90</v>
       </c>
       <c r="F18" s="327" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G18" s="341" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H18" s="328"/>
       <c r="I18" s="328">
@@ -28692,10 +28632,10 @@
       <c r="K18" s="328">
         <v>60</v>
       </c>
-      <c r="L18" s="342" t="s">
+      <c r="L18" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="337">
+      <c r="M18" s="328">
         <v>10</v>
       </c>
       <c r="N18" s="338" t="s">
@@ -28733,7 +28673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="324" t="s">
         <v>687</v>
       </c>
@@ -28748,10 +28688,10 @@
         <v>90</v>
       </c>
       <c r="F19" s="327" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G19" s="341" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H19" s="328"/>
       <c r="I19" s="328">
@@ -28763,16 +28703,16 @@
       <c r="K19" s="328">
         <v>60</v>
       </c>
-      <c r="L19" s="324" t="s">
+      <c r="L19" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="328">
+      <c r="M19" s="337">
         <v>10</v>
       </c>
-      <c r="N19" s="329" t="s">
+      <c r="N19" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="343" t="s">
+      <c r="O19" s="330" t="s">
         <v>711</v>
       </c>
       <c r="P19" s="330" t="s">
@@ -28804,140 +28744,140 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="72.75" thickTop="1">
-      <c r="A20" s="280" t="s">
+    <row r="20" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+      <c r="A20" s="324" t="s">
         <v>687</v>
       </c>
-      <c r="B20" s="281" t="s">
+      <c r="B20" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" s="325"/>
+      <c r="D20" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="327" t="s">
+        <v>756</v>
+      </c>
+      <c r="G20" s="341" t="s">
+        <v>715</v>
+      </c>
+      <c r="H20" s="328"/>
+      <c r="I20" s="328">
+        <v>60</v>
+      </c>
+      <c r="J20" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="328">
+        <v>60</v>
+      </c>
+      <c r="L20" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="328">
+        <v>10</v>
+      </c>
+      <c r="N20" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="343" t="s">
+        <v>711</v>
+      </c>
+      <c r="P20" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q20" s="328" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="331" t="s">
+        <v>736</v>
+      </c>
+      <c r="S20" s="332">
+        <v>1</v>
+      </c>
+      <c r="T20" s="332">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U20" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="V20" s="334"/>
+      <c r="W20" s="340">
+        <v>10</v>
+      </c>
+      <c r="X20" s="340">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="72.75" hidden="1" thickTop="1">
+      <c r="A21" s="280" t="s">
+        <v>687</v>
+      </c>
+      <c r="B21" s="281" t="s">
         <v>555</v>
       </c>
-      <c r="C20" s="281"/>
-      <c r="D20" s="281" t="s">
+      <c r="C21" s="281"/>
+      <c r="D21" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="282" t="s">
+      <c r="E21" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="283" t="s">
+      <c r="F21" s="283" t="s">
         <v>749</v>
       </c>
-      <c r="G20" s="280" t="s">
+      <c r="G21" s="280" t="s">
         <v>700</v>
       </c>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284">
+      <c r="H21" s="284"/>
+      <c r="I21" s="284">
         <v>75</v>
       </c>
-      <c r="J20" s="280" t="s">
+      <c r="J21" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="284">
+      <c r="K21" s="284">
         <v>40</v>
       </c>
-      <c r="L20" s="280" t="s">
+      <c r="L21" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="284">
+      <c r="M21" s="284">
         <v>10</v>
       </c>
-      <c r="N20" s="285" t="s">
+      <c r="N21" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="290" t="s">
+      <c r="O21" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="290" t="s">
+      <c r="P21" s="290" t="s">
         <v>595</v>
       </c>
-      <c r="Q20" s="284" t="s">
+      <c r="Q21" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="298" t="s">
+      <c r="R21" s="298" t="s">
         <v>732</v>
       </c>
-      <c r="S20" s="286">
+      <c r="S21" s="286">
         <v>0.95</v>
       </c>
-      <c r="T20" s="286">
+      <c r="T21" s="286">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U20" s="299" t="s">
+      <c r="U21" s="299" t="s">
         <v>734</v>
       </c>
-      <c r="V20" s="287" t="s">
+      <c r="V21" s="287" t="s">
         <v>737</v>
       </c>
-      <c r="W20" s="269">
-        <v>10</v>
-      </c>
-      <c r="X20" s="269">
-        <v>13</v>
-      </c>
-      <c r="Y20" s="269">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="24">
-      <c r="A21" s="261" t="s">
-        <v>687</v>
-      </c>
-      <c r="B21" s="262" t="s">
-        <v>555</v>
-      </c>
-      <c r="C21" s="262"/>
-      <c r="D21" s="262" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="263" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="264" t="s">
-        <v>750</v>
-      </c>
-      <c r="G21" s="261" t="s">
-        <v>692</v>
-      </c>
-      <c r="H21" s="265"/>
-      <c r="I21" s="265">
-        <v>75</v>
-      </c>
-      <c r="J21" s="261" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="265">
-        <v>40</v>
-      </c>
-      <c r="L21" s="261" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="265">
-        <v>10</v>
-      </c>
-      <c r="N21" s="266" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="288" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="288" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q21" s="265" t="s">
-        <v>691</v>
-      </c>
-      <c r="R21" s="303" t="s">
-        <v>732</v>
-      </c>
-      <c r="S21" s="267">
-        <v>0.95</v>
-      </c>
-      <c r="T21" s="267">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U21" s="300" t="s">
-        <v>734</v>
-      </c>
-      <c r="V21" s="260"/>
       <c r="W21" s="269">
         <v>10</v>
       </c>
@@ -28963,10 +28903,10 @@
         <v>90</v>
       </c>
       <c r="F22" s="264" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G22" s="261" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H22" s="265"/>
       <c r="I22" s="265">
@@ -28988,7 +28928,7 @@
         <v>20</v>
       </c>
       <c r="O22" s="288" t="s">
-        <v>691</v>
+        <v>39</v>
       </c>
       <c r="P22" s="288" t="s">
         <v>595</v>
@@ -29019,7 +28959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="36">
+    <row r="23" spans="1:25" ht="24" hidden="1">
       <c r="A23" s="261" t="s">
         <v>687</v>
       </c>
@@ -29031,15 +28971,15 @@
         <v>78</v>
       </c>
       <c r="E23" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="270" t="s">
-        <v>752</v>
-      </c>
-      <c r="G23" s="271" t="s">
-        <v>701</v>
-      </c>
-      <c r="H23" s="272"/>
+        <v>90</v>
+      </c>
+      <c r="F23" s="264" t="s">
+        <v>751</v>
+      </c>
+      <c r="G23" s="261" t="s">
+        <v>693</v>
+      </c>
+      <c r="H23" s="265"/>
       <c r="I23" s="265">
         <v>75</v>
       </c>
@@ -29055,17 +28995,17 @@
       <c r="M23" s="265">
         <v>10</v>
       </c>
-      <c r="N23" s="274" t="s">
+      <c r="N23" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="289" t="s">
-        <v>9</v>
+      <c r="O23" s="288" t="s">
+        <v>691</v>
       </c>
       <c r="P23" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q23" s="272" t="s">
-        <v>23</v>
+      <c r="Q23" s="265" t="s">
+        <v>691</v>
       </c>
       <c r="R23" s="303" t="s">
         <v>732</v>
@@ -29090,7 +29030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="24">
+    <row r="24" spans="1:25" ht="36" hidden="1">
       <c r="A24" s="261" t="s">
         <v>687</v>
       </c>
@@ -29102,15 +29042,15 @@
         <v>78</v>
       </c>
       <c r="E24" s="263" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="264" t="s">
-        <v>753</v>
-      </c>
-      <c r="G24" s="268" t="s">
-        <v>718</v>
-      </c>
-      <c r="H24" s="265"/>
+        <v>25</v>
+      </c>
+      <c r="F24" s="270" t="s">
+        <v>752</v>
+      </c>
+      <c r="G24" s="271" t="s">
+        <v>701</v>
+      </c>
+      <c r="H24" s="272"/>
       <c r="I24" s="265">
         <v>75</v>
       </c>
@@ -29129,13 +29069,13 @@
       <c r="N24" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="368" t="s">
-        <v>711</v>
+      <c r="O24" s="289" t="s">
+        <v>9</v>
       </c>
       <c r="P24" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q24" s="265" t="s">
+      <c r="Q24" s="272" t="s">
         <v>23</v>
       </c>
       <c r="R24" s="303" t="s">
@@ -29161,7 +29101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="24">
+    <row r="25" spans="1:25" ht="24" hidden="1">
       <c r="A25" s="261" t="s">
         <v>687</v>
       </c>
@@ -29176,10 +29116,10 @@
         <v>90</v>
       </c>
       <c r="F25" s="264" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G25" s="268" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H25" s="265"/>
       <c r="I25" s="265">
@@ -29200,7 +29140,7 @@
       <c r="N25" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="288" t="s">
+      <c r="O25" s="368" t="s">
         <v>711</v>
       </c>
       <c r="P25" s="288" t="s">
@@ -29232,7 +29172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="24">
+    <row r="26" spans="1:25" ht="24" hidden="1">
       <c r="A26" s="261" t="s">
         <v>687</v>
       </c>
@@ -29247,10 +29187,10 @@
         <v>90</v>
       </c>
       <c r="F26" s="264" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G26" s="268" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H26" s="265"/>
       <c r="I26" s="265">
@@ -29303,7 +29243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="24.75" thickBot="1">
+    <row r="27" spans="1:25" ht="24" hidden="1">
       <c r="A27" s="261" t="s">
         <v>687</v>
       </c>
@@ -29318,10 +29258,10 @@
         <v>90</v>
       </c>
       <c r="F27" s="264" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G27" s="268" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H27" s="265"/>
       <c r="I27" s="265">
@@ -29339,10 +29279,10 @@
       <c r="M27" s="265">
         <v>10</v>
       </c>
-      <c r="N27" s="266" t="s">
+      <c r="N27" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="297" t="s">
+      <c r="O27" s="288" t="s">
         <v>711</v>
       </c>
       <c r="P27" s="288" t="s">
@@ -29374,146 +29314,147 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="323" customFormat="1" ht="60.75" thickTop="1">
-      <c r="A28" s="312" t="s">
+    <row r="28" spans="1:25" ht="24.75" hidden="1" thickBot="1">
+      <c r="A28" s="261" t="s">
         <v>687</v>
       </c>
-      <c r="B28" s="313" t="s">
+      <c r="B28" s="262" t="s">
+        <v>555</v>
+      </c>
+      <c r="C28" s="262"/>
+      <c r="D28" s="262" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="263" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="264" t="s">
+        <v>756</v>
+      </c>
+      <c r="G28" s="268" t="s">
+        <v>715</v>
+      </c>
+      <c r="H28" s="265"/>
+      <c r="I28" s="265">
+        <v>75</v>
+      </c>
+      <c r="J28" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="265">
+        <v>40</v>
+      </c>
+      <c r="L28" s="261" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="265">
+        <v>10</v>
+      </c>
+      <c r="N28" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="297" t="s">
+        <v>711</v>
+      </c>
+      <c r="P28" s="288" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q28" s="265" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="303" t="s">
+        <v>732</v>
+      </c>
+      <c r="S28" s="267">
+        <v>0.95</v>
+      </c>
+      <c r="T28" s="267">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U28" s="300" t="s">
+        <v>734</v>
+      </c>
+      <c r="V28" s="260"/>
+      <c r="W28" s="269">
+        <v>10</v>
+      </c>
+      <c r="X28" s="269">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="269">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="323" customFormat="1" ht="60.75" hidden="1" thickTop="1">
+      <c r="A29" s="312" t="s">
+        <v>687</v>
+      </c>
+      <c r="B29" s="313" t="s">
         <v>562</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313" t="s">
+      <c r="C29" s="313"/>
+      <c r="D29" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="314" t="s">
+      <c r="E29" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="315" t="s">
+      <c r="F29" s="315" t="s">
         <v>749</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G29" s="312" t="s">
         <v>700</v>
       </c>
-      <c r="H28" s="316"/>
-      <c r="I28" s="316">
+      <c r="H29" s="316"/>
+      <c r="I29" s="316">
         <v>60</v>
       </c>
-      <c r="J28" s="312" t="s">
+      <c r="J29" s="312" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="316">
+      <c r="K29" s="316">
         <v>60</v>
       </c>
-      <c r="L28" s="312" t="s">
+      <c r="L29" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="316">
+      <c r="M29" s="316">
         <v>10</v>
       </c>
-      <c r="N28" s="317" t="s">
+      <c r="N29" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="318" t="s">
+      <c r="O29" s="318" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="318" t="s">
+      <c r="P29" s="318" t="s">
         <v>595</v>
       </c>
-      <c r="Q28" s="316" t="s">
+      <c r="Q29" s="316" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="344" t="s">
+      <c r="R29" s="344" t="s">
         <v>563</v>
       </c>
-      <c r="S28" s="316" t="s">
+      <c r="S29" s="316" t="s">
         <v>727</v>
       </c>
-      <c r="T28" s="316" t="s">
+      <c r="T29" s="316" t="s">
         <v>733</v>
       </c>
-      <c r="U28" s="345" t="s">
+      <c r="U29" s="345" t="s">
         <v>734</v>
       </c>
-      <c r="V28" s="322" t="s">
+      <c r="V29" s="322" t="s">
         <v>728</v>
       </c>
-      <c r="W28" s="323">
+      <c r="W29" s="323">
         <v>10</v>
       </c>
-      <c r="X28" s="323">
+      <c r="X29" s="323">
         <v>13</v>
       </c>
-      <c r="Y28" s="323">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" s="334" customFormat="1" ht="33.75">
-      <c r="A29" s="324" t="s">
-        <v>687</v>
-      </c>
-      <c r="B29" s="325" t="s">
-        <v>562</v>
-      </c>
-      <c r="C29" s="325"/>
-      <c r="D29" s="325" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="327" t="s">
-        <v>750</v>
-      </c>
-      <c r="G29" s="324" t="s">
-        <v>692</v>
-      </c>
-      <c r="H29" s="328"/>
-      <c r="I29" s="328">
-        <v>60</v>
-      </c>
-      <c r="J29" s="324" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="328">
-        <v>60</v>
-      </c>
-      <c r="L29" s="324" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" s="328">
-        <v>10</v>
-      </c>
-      <c r="N29" s="329" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="330" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="330" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q29" s="328" t="s">
-        <v>691</v>
-      </c>
-      <c r="R29" s="346" t="s">
-        <v>563</v>
-      </c>
-      <c r="S29" s="328" t="s">
-        <v>727</v>
-      </c>
-      <c r="T29" s="328" t="s">
-        <v>733</v>
-      </c>
-      <c r="U29" s="333" t="s">
-        <v>734</v>
-      </c>
-      <c r="W29" s="334">
-        <v>10</v>
-      </c>
-      <c r="X29" s="334">
-        <v>13</v>
-      </c>
-      <c r="Y29" s="334">
+      <c r="Y29" s="323">
         <v>8</v>
       </c>
     </row>
@@ -29532,10 +29473,10 @@
         <v>90</v>
       </c>
       <c r="F30" s="327" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G30" s="324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H30" s="328"/>
       <c r="I30" s="328">
@@ -29557,7 +29498,7 @@
         <v>20</v>
       </c>
       <c r="O30" s="330" t="s">
-        <v>691</v>
+        <v>39</v>
       </c>
       <c r="P30" s="330" t="s">
         <v>595</v>
@@ -29565,7 +29506,7 @@
       <c r="Q30" s="328" t="s">
         <v>691</v>
       </c>
-      <c r="R30" s="346" t="s">
+      <c r="R30" s="392" t="s">
         <v>563</v>
       </c>
       <c r="S30" s="328" t="s">
@@ -29587,7 +29528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="340" customFormat="1" ht="36">
+    <row r="31" spans="1:25" s="334" customFormat="1" ht="33.75" hidden="1">
       <c r="A31" s="324" t="s">
         <v>687</v>
       </c>
@@ -29599,15 +29540,15 @@
         <v>78</v>
       </c>
       <c r="E31" s="326" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="335" t="s">
-        <v>752</v>
-      </c>
-      <c r="G31" s="336" t="s">
-        <v>701</v>
-      </c>
-      <c r="H31" s="337"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="327" t="s">
+        <v>751</v>
+      </c>
+      <c r="G31" s="324" t="s">
+        <v>693</v>
+      </c>
+      <c r="H31" s="328"/>
       <c r="I31" s="328">
         <v>60</v>
       </c>
@@ -29623,17 +29564,17 @@
       <c r="M31" s="328">
         <v>10</v>
       </c>
-      <c r="N31" s="338" t="s">
+      <c r="N31" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="339" t="s">
-        <v>9</v>
+      <c r="O31" s="330" t="s">
+        <v>691</v>
       </c>
       <c r="P31" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q31" s="337" t="s">
-        <v>23</v>
+      <c r="Q31" s="328" t="s">
+        <v>691</v>
       </c>
       <c r="R31" s="346" t="s">
         <v>563</v>
@@ -29647,18 +29588,17 @@
       <c r="U31" s="333" t="s">
         <v>734</v>
       </c>
-      <c r="V31" s="334"/>
-      <c r="W31" s="340">
+      <c r="W31" s="334">
         <v>10</v>
       </c>
-      <c r="X31" s="340">
+      <c r="X31" s="334">
         <v>13</v>
       </c>
-      <c r="Y31" s="340">
+      <c r="Y31" s="334">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="340" customFormat="1" ht="33.75">
+    <row r="32" spans="1:25" s="340" customFormat="1" ht="36" hidden="1">
       <c r="A32" s="324" t="s">
         <v>687</v>
       </c>
@@ -29670,15 +29610,15 @@
         <v>78</v>
       </c>
       <c r="E32" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="327" t="s">
-        <v>753</v>
-      </c>
-      <c r="G32" s="341" t="s">
-        <v>718</v>
-      </c>
-      <c r="H32" s="328"/>
+        <v>25</v>
+      </c>
+      <c r="F32" s="335" t="s">
+        <v>752</v>
+      </c>
+      <c r="G32" s="336" t="s">
+        <v>701</v>
+      </c>
+      <c r="H32" s="337"/>
       <c r="I32" s="328">
         <v>60</v>
       </c>
@@ -29697,13 +29637,13 @@
       <c r="N32" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="330" t="s">
-        <v>711</v>
+      <c r="O32" s="339" t="s">
+        <v>9</v>
       </c>
       <c r="P32" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q32" s="328" t="s">
+      <c r="Q32" s="337" t="s">
         <v>23</v>
       </c>
       <c r="R32" s="346" t="s">
@@ -29719,7 +29659,7 @@
         <v>734</v>
       </c>
       <c r="V32" s="334"/>
-      <c r="W32" s="334">
+      <c r="W32" s="340">
         <v>10</v>
       </c>
       <c r="X32" s="340">
@@ -29729,7 +29669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="340" customFormat="1" ht="33.75">
+    <row r="33" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
       <c r="A33" s="324" t="s">
         <v>687</v>
       </c>
@@ -29744,10 +29684,10 @@
         <v>90</v>
       </c>
       <c r="F33" s="327" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G33" s="341" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H33" s="328"/>
       <c r="I33" s="328">
@@ -29790,7 +29730,7 @@
         <v>734</v>
       </c>
       <c r="V33" s="334"/>
-      <c r="W33" s="340">
+      <c r="W33" s="334">
         <v>10</v>
       </c>
       <c r="X33" s="340">
@@ -29800,7 +29740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="340" customFormat="1" ht="33.75">
+    <row r="34" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
       <c r="A34" s="324" t="s">
         <v>687</v>
       </c>
@@ -29815,10 +29755,10 @@
         <v>90</v>
       </c>
       <c r="F34" s="327" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G34" s="341" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H34" s="328"/>
       <c r="I34" s="328">
@@ -29861,7 +29801,7 @@
         <v>734</v>
       </c>
       <c r="V34" s="334"/>
-      <c r="W34" s="334">
+      <c r="W34" s="340">
         <v>10</v>
       </c>
       <c r="X34" s="340">
@@ -29871,7 +29811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="340" customFormat="1" ht="33.75">
+    <row r="35" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
       <c r="A35" s="324" t="s">
         <v>687</v>
       </c>
@@ -29886,10 +29826,10 @@
         <v>90</v>
       </c>
       <c r="F35" s="327" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G35" s="341" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H35" s="328"/>
       <c r="I35" s="328">
@@ -29907,7 +29847,7 @@
       <c r="M35" s="328">
         <v>10</v>
       </c>
-      <c r="N35" s="329" t="s">
+      <c r="N35" s="338" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="330" t="s">
@@ -29932,7 +29872,7 @@
         <v>734</v>
       </c>
       <c r="V35" s="334"/>
-      <c r="W35" s="340">
+      <c r="W35" s="334">
         <v>10</v>
       </c>
       <c r="X35" s="340">
@@ -29942,7 +29882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="340" customFormat="1" ht="33.75">
+    <row r="36" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
       <c r="A36" s="324" t="s">
         <v>687</v>
       </c>
@@ -29951,20 +29891,20 @@
       </c>
       <c r="C36" s="325"/>
       <c r="D36" s="325" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E36" s="326" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F36" s="327" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G36" s="341" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H36" s="328"/>
       <c r="I36" s="328">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J36" s="324" t="s">
         <v>18</v>
@@ -29976,11 +29916,13 @@
         <v>19</v>
       </c>
       <c r="M36" s="328">
-        <v>1</v>
-      </c>
-      <c r="N36" s="329"/>
+        <v>10</v>
+      </c>
+      <c r="N36" s="329" t="s">
+        <v>20</v>
+      </c>
       <c r="O36" s="330" t="s">
-        <v>9</v>
+        <v>711</v>
       </c>
       <c r="P36" s="330" t="s">
         <v>595</v>
@@ -29995,23 +29937,23 @@
         <v>727</v>
       </c>
       <c r="T36" s="328" t="s">
-        <v>743</v>
-      </c>
-      <c r="U36" s="347" t="s">
-        <v>744</v>
+        <v>733</v>
+      </c>
+      <c r="U36" s="333" t="s">
+        <v>734</v>
       </c>
       <c r="V36" s="334"/>
-      <c r="W36" s="334">
+      <c r="W36" s="340">
         <v>10</v>
       </c>
       <c r="X36" s="340">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y36" s="340">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="340" customFormat="1" ht="33.75">
+    <row r="37" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
       <c r="A37" s="324" t="s">
         <v>687</v>
       </c>
@@ -30026,12 +29968,12 @@
         <v>25</v>
       </c>
       <c r="F37" s="327" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G37" s="341" t="s">
-        <v>730</v>
-      </c>
-      <c r="H37" s="348"/>
+        <v>710</v>
+      </c>
+      <c r="H37" s="328"/>
       <c r="I37" s="328">
         <v>1</v>
       </c>
@@ -30047,17 +29989,15 @@
       <c r="M37" s="328">
         <v>1</v>
       </c>
-      <c r="N37" s="329" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="349" t="s">
-        <v>39</v>
+      <c r="N37" s="329"/>
+      <c r="O37" s="330" t="s">
+        <v>9</v>
       </c>
       <c r="P37" s="330" t="s">
         <v>595</v>
       </c>
       <c r="Q37" s="328" t="s">
-        <v>691</v>
+        <v>23</v>
       </c>
       <c r="R37" s="346" t="s">
         <v>563</v>
@@ -30071,7 +30011,8 @@
       <c r="U37" s="347" t="s">
         <v>744</v>
       </c>
-      <c r="W37" s="340">
+      <c r="V37" s="334"/>
+      <c r="W37" s="334">
         <v>10</v>
       </c>
       <c r="X37" s="340">
@@ -30081,55 +30022,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="357" customFormat="1" ht="108.75" thickBot="1">
-      <c r="A38" s="350" t="s">
+    <row r="38" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
+      <c r="A38" s="324" t="s">
         <v>687</v>
       </c>
-      <c r="B38" s="351" t="s">
+      <c r="B38" s="325" t="s">
         <v>562</v>
       </c>
-      <c r="C38" s="351"/>
-      <c r="D38" s="351" t="s">
+      <c r="C38" s="325"/>
+      <c r="D38" s="325" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="352" t="s">
+      <c r="E38" s="326" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="353" t="s">
-        <v>759</v>
-      </c>
-      <c r="G38" s="350" t="s">
-        <v>729</v>
-      </c>
-      <c r="H38" s="354"/>
-      <c r="I38" s="354">
+      <c r="F38" s="327" t="s">
+        <v>758</v>
+      </c>
+      <c r="G38" s="341" t="s">
+        <v>730</v>
+      </c>
+      <c r="H38" s="348"/>
+      <c r="I38" s="328">
         <v>1</v>
       </c>
-      <c r="J38" s="350" t="s">
+      <c r="J38" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="354">
+      <c r="K38" s="328">
         <v>60</v>
       </c>
-      <c r="L38" s="350" t="s">
+      <c r="L38" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="354">
+      <c r="M38" s="328">
         <v>1</v>
       </c>
-      <c r="N38" s="355" t="s">
+      <c r="N38" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="343" t="s">
+      <c r="O38" s="349" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="343" t="s">
+      <c r="P38" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q38" s="354" t="s">
+      <c r="Q38" s="328" t="s">
         <v>691</v>
       </c>
-      <c r="R38" s="365" t="s">
+      <c r="R38" s="346" t="s">
         <v>563</v>
       </c>
       <c r="S38" s="328" t="s">
@@ -30138,160 +30079,160 @@
       <c r="T38" s="328" t="s">
         <v>743</v>
       </c>
-      <c r="U38" s="356" t="s">
+      <c r="U38" s="347" t="s">
         <v>744</v>
       </c>
-      <c r="W38" s="357">
+      <c r="W38" s="340">
         <v>10</v>
       </c>
-      <c r="X38" s="357">
+      <c r="X38" s="340">
         <v>6</v>
       </c>
-      <c r="Y38" s="357">
+      <c r="Y38" s="340">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="364" customFormat="1" ht="36.75" thickTop="1">
-      <c r="A39" s="280" t="s">
+    <row r="39" spans="1:25" s="357" customFormat="1" ht="108.75" hidden="1" thickBot="1">
+      <c r="A39" s="350" t="s">
         <v>687</v>
       </c>
-      <c r="B39" s="281" t="s">
+      <c r="B39" s="351" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" s="351"/>
+      <c r="D39" s="351" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="352" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="353" t="s">
+        <v>759</v>
+      </c>
+      <c r="G39" s="350" t="s">
+        <v>729</v>
+      </c>
+      <c r="H39" s="354"/>
+      <c r="I39" s="354">
+        <v>1</v>
+      </c>
+      <c r="J39" s="350" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="354">
+        <v>60</v>
+      </c>
+      <c r="L39" s="350" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="354">
+        <v>1</v>
+      </c>
+      <c r="N39" s="355" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="343" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" s="343" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q39" s="354" t="s">
+        <v>691</v>
+      </c>
+      <c r="R39" s="365" t="s">
+        <v>563</v>
+      </c>
+      <c r="S39" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T39" s="328" t="s">
+        <v>743</v>
+      </c>
+      <c r="U39" s="356" t="s">
+        <v>744</v>
+      </c>
+      <c r="W39" s="357">
+        <v>10</v>
+      </c>
+      <c r="X39" s="357">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="364" customFormat="1" ht="36.75" hidden="1" thickTop="1">
+      <c r="A40" s="280" t="s">
+        <v>687</v>
+      </c>
+      <c r="B40" s="281" t="s">
         <v>570</v>
       </c>
-      <c r="C39" s="281"/>
-      <c r="D39" s="281" t="s">
+      <c r="C40" s="281"/>
+      <c r="D40" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="282" t="s">
+      <c r="E40" s="282" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="283" t="s">
+      <c r="F40" s="283" t="s">
         <v>760</v>
       </c>
-      <c r="G39" s="280" t="s">
+      <c r="G40" s="280" t="s">
         <v>719</v>
       </c>
-      <c r="H39" s="284"/>
-      <c r="I39" s="284">
+      <c r="H40" s="284"/>
+      <c r="I40" s="284">
         <v>20</v>
       </c>
-      <c r="J39" s="280" t="s">
+      <c r="J40" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="284">
+      <c r="K40" s="284">
         <v>60</v>
       </c>
-      <c r="L39" s="280" t="s">
+      <c r="L40" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="284">
+      <c r="M40" s="284">
         <v>10</v>
       </c>
-      <c r="N39" s="285" t="s">
+      <c r="N40" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="290" t="s">
+      <c r="O40" s="290" t="s">
         <v>731</v>
       </c>
-      <c r="P39" s="290" t="s">
+      <c r="P40" s="290" t="s">
         <v>595</v>
       </c>
-      <c r="Q39" s="284" t="s">
+      <c r="Q40" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="R39" s="363" t="s">
+      <c r="R40" s="363" t="s">
         <v>571</v>
       </c>
-      <c r="S39" s="286" t="s">
+      <c r="S40" s="286" t="s">
         <v>741</v>
       </c>
-      <c r="T39" s="286" t="s">
+      <c r="T40" s="286" t="s">
         <v>742</v>
       </c>
-      <c r="U39" s="304" t="s">
+      <c r="U40" s="304" t="s">
         <v>744</v>
       </c>
-      <c r="W39" s="364">
+      <c r="W40" s="364">
         <v>10</v>
       </c>
-      <c r="X39" s="364">
+      <c r="X40" s="364">
         <v>13</v>
       </c>
-      <c r="Y39" s="364">
+      <c r="Y40" s="364">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="260" customFormat="1" ht="36">
-      <c r="A40" s="261" t="s">
-        <v>687</v>
-      </c>
-      <c r="B40" s="262" t="s">
-        <v>570</v>
-      </c>
-      <c r="C40" s="262"/>
-      <c r="D40" s="262" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="263" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="264" t="s">
-        <v>761</v>
-      </c>
-      <c r="G40" s="261" t="s">
-        <v>708</v>
-      </c>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265">
-        <v>20</v>
-      </c>
-      <c r="J40" s="261" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="265">
-        <v>60</v>
-      </c>
-      <c r="L40" s="261" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="265">
-        <v>10</v>
-      </c>
-      <c r="N40" s="266" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="288" t="s">
-        <v>696</v>
-      </c>
-      <c r="P40" s="288" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q40" s="265" t="s">
-        <v>691</v>
-      </c>
-      <c r="R40" s="358" t="s">
-        <v>571</v>
-      </c>
-      <c r="S40" s="267" t="s">
-        <v>739</v>
-      </c>
-      <c r="T40" s="267" t="s">
-        <v>741</v>
-      </c>
-      <c r="U40" s="288" t="s">
-        <v>744</v>
-      </c>
-      <c r="W40" s="260">
-        <v>10</v>
-      </c>
-      <c r="X40" s="260">
-        <v>13</v>
-      </c>
-      <c r="Y40" s="260">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="41" spans="1:25" s="260" customFormat="1" ht="36" hidden="1">
       <c r="A41" s="261" t="s">
         <v>687</v>
       </c>
@@ -30306,10 +30247,10 @@
         <v>32</v>
       </c>
       <c r="F41" s="264" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G41" s="261" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H41" s="265"/>
       <c r="I41" s="265">
@@ -30331,7 +30272,7 @@
         <v>20</v>
       </c>
       <c r="O41" s="288" t="s">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="P41" s="288" t="s">
         <v>595</v>
@@ -30361,7 +30302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="42" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
       <c r="A42" s="261" t="s">
         <v>687</v>
       </c>
@@ -30376,10 +30317,10 @@
         <v>32</v>
       </c>
       <c r="F42" s="264" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G42" s="261" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H42" s="265"/>
       <c r="I42" s="265">
@@ -30431,7 +30372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="43" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
       <c r="A43" s="261" t="s">
         <v>687</v>
       </c>
@@ -30446,10 +30387,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="264" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G43" s="261" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H43" s="265"/>
       <c r="I43" s="265">
@@ -30471,7 +30412,7 @@
         <v>20</v>
       </c>
       <c r="O43" s="288" t="s">
-        <v>696</v>
+        <v>39</v>
       </c>
       <c r="P43" s="288" t="s">
         <v>595</v>
@@ -30501,7 +30442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="44" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
       <c r="A44" s="261" t="s">
         <v>687</v>
       </c>
@@ -30516,10 +30457,10 @@
         <v>32</v>
       </c>
       <c r="F44" s="264" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G44" s="261" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H44" s="265"/>
       <c r="I44" s="265">
@@ -30541,7 +30482,7 @@
         <v>20</v>
       </c>
       <c r="O44" s="288" t="s">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="P44" s="288" t="s">
         <v>595</v>
@@ -30556,7 +30497,7 @@
         <v>739</v>
       </c>
       <c r="T44" s="267" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="U44" s="288" t="s">
         <v>744</v>
@@ -30571,7 +30512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="36">
+    <row r="45" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
       <c r="A45" s="261" t="s">
         <v>687</v>
       </c>
@@ -30586,12 +30527,12 @@
         <v>32</v>
       </c>
       <c r="F45" s="264" t="s">
-        <v>766</v>
-      </c>
-      <c r="G45" s="268" t="s">
-        <v>704</v>
-      </c>
-      <c r="H45" s="275"/>
+        <v>765</v>
+      </c>
+      <c r="G45" s="261" t="s">
+        <v>705</v>
+      </c>
+      <c r="H45" s="265"/>
       <c r="I45" s="265">
         <v>20</v>
       </c>
@@ -30613,10 +30554,10 @@
       <c r="O45" s="288" t="s">
         <v>39</v>
       </c>
-      <c r="P45" s="276" t="s">
+      <c r="P45" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q45" s="359" t="s">
+      <c r="Q45" s="265" t="s">
         <v>691</v>
       </c>
       <c r="R45" s="358" t="s">
@@ -30631,17 +30572,17 @@
       <c r="U45" s="288" t="s">
         <v>744</v>
       </c>
-      <c r="W45" s="269">
+      <c r="W45" s="260">
         <v>10</v>
       </c>
-      <c r="X45" s="269">
+      <c r="X45" s="260">
         <v>13</v>
       </c>
-      <c r="Y45" s="269">
+      <c r="Y45" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="36">
+    <row r="46" spans="1:25" ht="36" hidden="1">
       <c r="A46" s="261" t="s">
         <v>687</v>
       </c>
@@ -30656,10 +30597,10 @@
         <v>32</v>
       </c>
       <c r="F46" s="264" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G46" s="268" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H46" s="275"/>
       <c r="I46" s="265">
@@ -30681,7 +30622,7 @@
         <v>20</v>
       </c>
       <c r="O46" s="288" t="s">
-        <v>703</v>
+        <v>39</v>
       </c>
       <c r="P46" s="276" t="s">
         <v>595</v>
@@ -30696,7 +30637,7 @@
         <v>739</v>
       </c>
       <c r="T46" s="267" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="U46" s="288" t="s">
         <v>744</v>
@@ -30711,7 +30652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="47" spans="1:25" ht="36" hidden="1">
       <c r="A47" s="261" t="s">
         <v>687</v>
       </c>
@@ -30720,18 +30661,18 @@
       </c>
       <c r="C47" s="262"/>
       <c r="D47" s="262" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E47" s="263" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="264" t="s">
-        <v>768</v>
-      </c>
-      <c r="G47" s="261" t="s">
-        <v>694</v>
-      </c>
-      <c r="H47" s="265"/>
+        <v>767</v>
+      </c>
+      <c r="G47" s="268" t="s">
+        <v>702</v>
+      </c>
+      <c r="H47" s="275"/>
       <c r="I47" s="265">
         <v>20</v>
       </c>
@@ -30751,37 +30692,37 @@
         <v>20</v>
       </c>
       <c r="O47" s="288" t="s">
-        <v>39</v>
-      </c>
-      <c r="P47" s="288" t="s">
+        <v>703</v>
+      </c>
+      <c r="P47" s="276" t="s">
         <v>595</v>
       </c>
-      <c r="Q47" s="265" t="s">
+      <c r="Q47" s="359" t="s">
         <v>691</v>
       </c>
       <c r="R47" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S47" s="267" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T47" s="267" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="U47" s="288" t="s">
         <v>744</v>
       </c>
-      <c r="W47" s="260">
+      <c r="W47" s="269">
         <v>10</v>
       </c>
-      <c r="X47" s="260">
+      <c r="X47" s="269">
         <v>13</v>
       </c>
-      <c r="Y47" s="260">
+      <c r="Y47" s="269">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="260" customFormat="1" ht="24">
+    <row r="48" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
       <c r="A48" s="261" t="s">
         <v>687</v>
       </c>
@@ -30796,10 +30737,10 @@
         <v>32</v>
       </c>
       <c r="F48" s="264" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G48" s="261" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H48" s="265"/>
       <c r="I48" s="265">
@@ -30821,7 +30762,7 @@
         <v>20</v>
       </c>
       <c r="O48" s="288" t="s">
-        <v>696</v>
+        <v>39</v>
       </c>
       <c r="P48" s="288" t="s">
         <v>595</v>
@@ -30833,10 +30774,10 @@
         <v>571</v>
       </c>
       <c r="S48" s="267" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T48" s="267" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="U48" s="288" t="s">
         <v>744</v>
@@ -30851,117 +30792,194 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="302" customFormat="1" ht="24.75" thickBot="1">
-      <c r="A49" s="292" t="s">
+    <row r="49" spans="1:26" s="260" customFormat="1" ht="24" hidden="1">
+      <c r="A49" s="261" t="s">
         <v>687</v>
       </c>
-      <c r="B49" s="293" t="s">
+      <c r="B49" s="262" t="s">
         <v>570</v>
       </c>
-      <c r="C49" s="293"/>
-      <c r="D49" s="293" t="s">
+      <c r="C49" s="262"/>
+      <c r="D49" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="301" t="s">
+      <c r="E49" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="294" t="s">
+      <c r="F49" s="264" t="s">
+        <v>769</v>
+      </c>
+      <c r="G49" s="261" t="s">
+        <v>695</v>
+      </c>
+      <c r="H49" s="265"/>
+      <c r="I49" s="265">
+        <v>20</v>
+      </c>
+      <c r="J49" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="265">
+        <v>60</v>
+      </c>
+      <c r="L49" s="261" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="265">
+        <v>10</v>
+      </c>
+      <c r="N49" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="288" t="s">
+        <v>696</v>
+      </c>
+      <c r="P49" s="288" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q49" s="265" t="s">
+        <v>691</v>
+      </c>
+      <c r="R49" s="358" t="s">
+        <v>571</v>
+      </c>
+      <c r="S49" s="267" t="s">
+        <v>739</v>
+      </c>
+      <c r="T49" s="267" t="s">
+        <v>741</v>
+      </c>
+      <c r="U49" s="288" t="s">
+        <v>744</v>
+      </c>
+      <c r="W49" s="260">
+        <v>10</v>
+      </c>
+      <c r="X49" s="260">
+        <v>13</v>
+      </c>
+      <c r="Y49" s="260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" s="302" customFormat="1" ht="24.75" hidden="1" thickBot="1">
+      <c r="A50" s="292" t="s">
+        <v>687</v>
+      </c>
+      <c r="B50" s="293" t="s">
+        <v>570</v>
+      </c>
+      <c r="C50" s="293"/>
+      <c r="D50" s="293" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="301" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="294" t="s">
         <v>770</v>
       </c>
-      <c r="G49" s="292" t="s">
+      <c r="G50" s="292" t="s">
         <v>697</v>
       </c>
-      <c r="H49" s="295"/>
-      <c r="I49" s="295">
+      <c r="H50" s="295"/>
+      <c r="I50" s="295">
         <v>20</v>
       </c>
-      <c r="J49" s="292" t="s">
+      <c r="J50" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="295">
+      <c r="K50" s="295">
         <v>60</v>
       </c>
-      <c r="L49" s="292" t="s">
+      <c r="L50" s="292" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="295">
+      <c r="M50" s="295">
         <v>10</v>
       </c>
-      <c r="N49" s="296" t="s">
+      <c r="N50" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="297" t="s">
+      <c r="O50" s="297" t="s">
         <v>39</v>
       </c>
-      <c r="P49" s="297" t="s">
+      <c r="P50" s="297" t="s">
         <v>595</v>
       </c>
-      <c r="Q49" s="295" t="s">
+      <c r="Q50" s="295" t="s">
         <v>691</v>
       </c>
-      <c r="R49" s="360" t="s">
+      <c r="R50" s="360" t="s">
         <v>571</v>
       </c>
-      <c r="S49" s="361" t="s">
+      <c r="S50" s="361" t="s">
         <v>739</v>
       </c>
-      <c r="T49" s="361" t="s">
+      <c r="T50" s="361" t="s">
         <v>741</v>
       </c>
-      <c r="U49" s="362" t="s">
+      <c r="U50" s="362" t="s">
         <v>744</v>
       </c>
-      <c r="W49" s="302">
+      <c r="W50" s="302">
         <v>10</v>
       </c>
-      <c r="X49" s="302">
+      <c r="X50" s="302">
         <v>13</v>
       </c>
-      <c r="Y49" s="302">
+      <c r="Y50" s="302">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="32.25" customHeight="1" thickTop="1">
-      <c r="V50" s="269" t="s">
+    <row r="51" spans="1:26" ht="32.25" customHeight="1">
+      <c r="V51" s="269" t="s">
         <v>746</v>
       </c>
-      <c r="W50" s="269">
-        <f>SUM(W1:W49)</f>
+      <c r="W51" s="269">
+        <f>SUM(W2:W50)</f>
         <v>490</v>
       </c>
-      <c r="X50" s="269">
-        <f t="shared" ref="X50:Y50" si="0">SUM(X1:X49)</f>
+      <c r="X51" s="269">
+        <f t="shared" ref="X51:Y51" si="0">SUM(X2:X50)</f>
         <v>595</v>
       </c>
-      <c r="Y50" s="269">
+      <c r="Y51" s="269">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="Z50" s="291" t="s">
+      <c r="Z51" s="291" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="54" customHeight="1">
-      <c r="V51" s="367" t="s">
+    <row r="52" spans="1:26" ht="54" customHeight="1">
+      <c r="V52" s="367" t="s">
         <v>747</v>
       </c>
-      <c r="W51" s="366">
-        <f>W50/60</f>
+      <c r="W52" s="366">
+        <f>W51/60</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="X51" s="366">
-        <f>X50/60</f>
+      <c r="X52" s="366">
+        <f>X51/60</f>
         <v>9.9166666666666661</v>
       </c>
-      <c r="Y51" s="366">
-        <f>Y50/60</f>
+      <c r="Y52" s="366">
+        <f>Y51/60</f>
         <v>6.5333333333333332</v>
       </c>
-      <c r="Z51" s="366">
+      <c r="Z52" s="366">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:G50" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31015,14 +31033,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="381" t="s">
+      <c r="F1" s="385" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -31702,19 +31720,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="383" t="s">
+      <c r="A6" s="387" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="383" t="s">
+      <c r="B6" s="387" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="383" t="s">
+      <c r="C6" s="387" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="389" t="s">
         <v>676</v>
       </c>
-      <c r="E6" s="386" t="s">
+      <c r="E6" s="390" t="s">
         <v>609</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -31726,11 +31744,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="384"/>
-      <c r="B7" s="384"/>
-      <c r="C7" s="384"/>
-      <c r="D7" s="384"/>
-      <c r="E7" s="384"/>
+      <c r="A7" s="388"/>
+      <c r="B7" s="388"/>
+      <c r="C7" s="388"/>
+      <c r="D7" s="388"/>
+      <c r="E7" s="388"/>
       <c r="F7" s="61" t="s">
         <v>678</v>
       </c>
@@ -31835,14 +31853,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="369" t="s">
+      <c r="F1" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
-      <c r="I1" s="370"/>
-      <c r="J1" s="370"/>
-      <c r="K1" s="371"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="375"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -31860,7 +31878,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="372" t="s">
+      <c r="A2" s="376" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -31911,7 +31929,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="373"/>
+      <c r="A3" s="377"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -31959,7 +31977,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="374"/>
+      <c r="A4" s="378"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -36979,12 +36997,12 @@
       <c r="D1" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="375" t="s">
+      <c r="E1" s="379" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="377"/>
+      <c r="F1" s="380"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="381"/>
       <c r="I1" s="255"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -42619,14 +42637,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="378" t="s">
+      <c r="I1" s="382" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
-      <c r="N1" s="379"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
+      <c r="N1" s="383"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -46108,12 +46126,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46378,21 +46399,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46417,12 +46438,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
+++ b/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155F981-1B03-40ED-9B0C-FFD87390208A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB479E0-AB36-443E-AEC8-7E0C52AE17A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7290" yWindow="5955" windowWidth="15090" windowHeight="9135" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo de Tratamiento" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distribución 02'!$A$5:$H$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Endpoints a probar'!$D$1:$G$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'EndPoints AUTH - Probar (41)'!$A$1:$T$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Parámetros Auth'!$A$1:$U$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Parámetros Auth NUEVO (AT)'!$A$1:$U$43</definedName>
@@ -127,7 +126,7 @@
     <author>Hernán Alosilla</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{0FBCD5D6-F57E-4E9F-A5B1-F2EDF9F0D03E}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0FBCD5D6-F57E-4E9F-A5B1-F2EDF9F0D03E}">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{7B066058-04B5-4F6C-826E-8C64A16D1B09}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{7B066058-04B5-4F6C-826E-8C64A16D1B09}">
       <text>
         <r>
           <rPr>
@@ -215,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{96C3E7B3-D59D-4083-BE5B-41ACBBE68CC7}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{96C3E7B3-D59D-4083-BE5B-41ACBBE68CC7}">
       <text>
         <r>
           <rPr>
@@ -279,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{CCA6AD5B-055E-4DB0-BA4C-180E715827DA}">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{CCA6AD5B-055E-4DB0-BA4C-180E715827DA}">
       <text>
         <r>
           <rPr>
@@ -328,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{A29E49AB-F2B0-4CB8-88A9-6CCC64F51AF1}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{A29E49AB-F2B0-4CB8-88A9-6CCC64F51AF1}">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{C2880C0C-2520-4C42-9DD6-7A1396AC608C}">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{C2880C0C-2520-4C42-9DD6-7A1396AC608C}">
       <text>
         <r>
           <rPr>
@@ -428,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{01E0E142-2756-4DBE-A6E9-A842275ABB88}">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{01E0E142-2756-4DBE-A6E9-A842275ABB88}">
       <text>
         <r>
           <rPr>
@@ -479,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{D9494681-1B03-4D1A-9958-FEFC7FD36171}">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{D9494681-1B03-4D1A-9958-FEFC7FD36171}">
       <text>
         <r>
           <rPr>
@@ -507,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{2332E401-C86F-47F8-BFAE-5CB2B9C2D9A3}">
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{2332E401-C86F-47F8-BFAE-5CB2B9C2D9A3}">
       <text>
         <r>
           <rPr>
@@ -531,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{8E1B5E9F-13DB-46A6-B35A-3CC9D60BD811}">
+    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{8E1B5E9F-13DB-46A6-B35A-3CC9D60BD811}">
       <text>
         <r>
           <rPr>
@@ -554,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{E0113A63-AB8F-4CAF-83B9-F3B6A900756D}">
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{E0113A63-AB8F-4CAF-83B9-F3B6A900756D}">
       <text>
         <r>
           <rPr>
@@ -618,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{EE5077F5-B330-4460-9107-F720AFEDF141}">
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{EE5077F5-B330-4460-9107-F720AFEDF141}">
       <text>
         <r>
           <rPr>
@@ -642,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{7B89B75B-EA0D-4F46-BC51-E15356127D48}">
+    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{7B89B75B-EA0D-4F46-BC51-E15356127D48}">
       <text>
         <r>
           <rPr>
@@ -706,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{060310F3-4CB1-42F7-94F9-682E0A3321ED}">
+    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{060310F3-4CB1-42F7-94F9-682E0A3321ED}">
       <text>
         <r>
           <rPr>
@@ -755,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{325DE853-3DC8-4901-989B-9305082D54DE}">
+    <comment ref="O17" authorId="0" shapeId="0" xr:uid="{325DE853-3DC8-4901-989B-9305082D54DE}">
       <text>
         <r>
           <rPr>
@@ -806,7 +805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{0B86804A-F7BA-473F-B8F0-1CA15E7D1B55}">
+    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{0B86804A-F7BA-473F-B8F0-1CA15E7D1B55}">
       <text>
         <r>
           <rPr>
@@ -855,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{BBF45AA5-E098-4520-B821-466EBA0A269D}">
+    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{BBF45AA5-E098-4520-B821-466EBA0A269D}">
       <text>
         <r>
           <rPr>
@@ -906,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{4A7E7F05-816B-4AE8-BB0E-AE8C5EC12353}">
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{4A7E7F05-816B-4AE8-BB0E-AE8C5EC12353}">
       <text>
         <r>
           <rPr>
@@ -970,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{04F239E6-2E35-4ADA-BE79-2D7BAB926241}">
+    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{04F239E6-2E35-4ADA-BE79-2D7BAB926241}">
       <text>
         <r>
           <rPr>
@@ -994,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{0FDE3903-B2D7-4EAB-AA79-F202112FA19B}">
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{0FDE3903-B2D7-4EAB-AA79-F202112FA19B}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{D3399E9D-6781-4FC8-B15B-D5C6C6445DB2}">
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{D3399E9D-6781-4FC8-B15B-D5C6C6445DB2}">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{744DE9DA-0C2C-4E6C-9A1C-3FF55075BECE}">
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{744DE9DA-0C2C-4E6C-9A1C-3FF55075BECE}">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{6A572813-79CF-4508-B28C-2D462BB03037}">
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{6A572813-79CF-4508-B28C-2D462BB03037}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{8F41751B-3422-4E74-B682-E9E87609647B}">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{8F41751B-3422-4E74-B682-E9E87609647B}">
       <text>
         <r>
           <rPr>
@@ -1258,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{E6ED3534-4A97-460E-B9A6-2695E361F74C}">
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{E6ED3534-4A97-460E-B9A6-2695E361F74C}">
       <text>
         <r>
           <rPr>
@@ -1322,7 +1321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{EB7C1DF4-0FF8-4B0A-A0DD-44ED6962525E}">
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{EB7C1DF4-0FF8-4B0A-A0DD-44ED6962525E}">
       <text>
         <r>
           <rPr>
@@ -1346,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{89C1E71C-2F35-4F55-BF17-B188CFDDBFB4}">
+    <comment ref="O31" authorId="0" shapeId="0" xr:uid="{89C1E71C-2F35-4F55-BF17-B188CFDDBFB4}">
       <text>
         <r>
           <rPr>
@@ -1410,7 +1409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{B56663B9-1C69-44DA-B835-BF4CB6768522}">
+    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{B56663B9-1C69-44DA-B835-BF4CB6768522}">
       <text>
         <r>
           <rPr>
@@ -1459,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{0C51F02B-BA1A-4022-8CFE-9AE62973AD85}">
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{0C51F02B-BA1A-4022-8CFE-9AE62973AD85}">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{5DD4357F-0290-42E7-8D0F-75D5F871572A}">
+    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{5DD4357F-0290-42E7-8D0F-75D5F871572A}">
       <text>
         <r>
           <rPr>
@@ -1559,7 +1558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{132080D9-E511-4FE2-95C6-0588A660E5A9}">
+    <comment ref="O35" authorId="0" shapeId="0" xr:uid="{132080D9-E511-4FE2-95C6-0588A660E5A9}">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{0DAF0650-9FF3-460A-8311-179D95C82D98}">
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{0DAF0650-9FF3-460A-8311-179D95C82D98}">
       <text>
         <r>
           <rPr>
@@ -1638,7 +1637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{866E88DF-0771-43BB-B904-880D78B653B6}">
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{866E88DF-0771-43BB-B904-880D78B653B6}">
       <text>
         <r>
           <rPr>
@@ -1662,7 +1661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{7A9BDC12-5C80-4B64-A557-F36F72BB9B5F}">
+    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{7A9BDC12-5C80-4B64-A557-F36F72BB9B5F}">
       <text>
         <r>
           <rPr>
@@ -1685,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{A1E12DF7-D6EF-4950-9121-CEAC9A43B065}">
+    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{A1E12DF7-D6EF-4950-9121-CEAC9A43B065}">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{B7B57802-5076-4FC6-8A32-980ECC902B0A}">
+    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{B7B57802-5076-4FC6-8A32-980ECC902B0A}">
       <text>
         <r>
           <rPr>
@@ -1760,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O42" authorId="0" shapeId="0" xr:uid="{EED9D04D-414E-4CA3-B731-1479A424EEFD}">
+    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{EED9D04D-414E-4CA3-B731-1479A424EEFD}">
       <text>
         <r>
           <rPr>
@@ -1784,7 +1783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O43" authorId="0" shapeId="0" xr:uid="{F8433C59-736F-4AD0-8CEA-15D2F7531FA0}">
+    <comment ref="O42" authorId="0" shapeId="0" xr:uid="{F8433C59-736F-4AD0-8CEA-15D2F7531FA0}">
       <text>
         <r>
           <rPr>
@@ -1809,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{9C336DF0-55FC-465D-8232-AE8641616671}">
+    <comment ref="O43" authorId="0" shapeId="0" xr:uid="{9C336DF0-55FC-465D-8232-AE8641616671}">
       <text>
         <r>
           <rPr>
@@ -1834,7 +1833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{344A9E8A-3EC5-485C-B867-78E5F0D8E793}">
+    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{344A9E8A-3EC5-485C-B867-78E5F0D8E793}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{0241E105-BAA3-4F64-8A8A-12E6C0B058FE}">
+    <comment ref="O45" authorId="0" shapeId="0" xr:uid="{0241E105-BAA3-4F64-8A8A-12E6C0B058FE}">
       <text>
         <r>
           <rPr>
@@ -1862,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{BA8629B8-100E-4D52-B333-9D1CB8B8882B}">
+    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{BA8629B8-100E-4D52-B333-9D1CB8B8882B}">
       <text>
         <r>
           <rPr>
@@ -1907,7 +1906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{C8984193-FC96-4298-B0CE-385EFFEDEB42}">
+    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{C8984193-FC96-4298-B0CE-385EFFEDEB42}">
       <text>
         <r>
           <rPr>
@@ -1932,7 +1931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{68E5C61F-B8BF-4303-BC8C-7B0FC2FB3806}">
+    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{68E5C61F-B8BF-4303-BC8C-7B0FC2FB3806}">
       <text>
         <r>
           <rPr>
@@ -1957,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O50" authorId="0" shapeId="0" xr:uid="{1901F709-64B5-44F1-811A-A75B3D0C97E0}">
+    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{1901F709-64B5-44F1-811A-A75B3D0C97E0}">
       <text>
         <r>
           <rPr>
@@ -6183,7 +6182,7 @@
     <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7169,6 +7168,12 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7221,11 +7226,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="61" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7730,14 +7738,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>156280</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>438855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1417180</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>665432</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7774,14 +7782,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1435504</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>212712</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12370,14 +12378,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="382" t="s">
+      <c r="I1" s="384" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -15256,14 +15264,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="384" t="s">
+      <c r="I1" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="386"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -18063,14 +18071,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="382" t="s">
+      <c r="I1" s="384" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -21132,14 +21140,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="382" t="s">
+      <c r="I1" s="384" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -24315,14 +24323,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="382" t="s">
+      <c r="I1" s="384" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -27427,11 +27435,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.140625" defaultRowHeight="54" customHeight="1"/>
@@ -27463,12 +27470,80 @@
     <col min="26" max="16384" width="23.140625" style="269"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="54" customHeight="1">
-      <c r="F1" s="271">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="260" customFormat="1" ht="36" hidden="1">
+    <row r="1" spans="1:25" s="260" customFormat="1" ht="36">
+      <c r="A1" s="261" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="262" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="263" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="264" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1" s="261" t="s">
+        <v>700</v>
+      </c>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265">
+        <v>60</v>
+      </c>
+      <c r="J1" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="265">
+        <v>60</v>
+      </c>
+      <c r="L1" s="261" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="265">
+        <v>10</v>
+      </c>
+      <c r="N1" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="288" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="288" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="265" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="303" t="s">
+        <v>735</v>
+      </c>
+      <c r="S1" s="267">
+        <v>0.95</v>
+      </c>
+      <c r="T1" s="267">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U1" s="300" t="s">
+        <v>734</v>
+      </c>
+      <c r="V1" s="287" t="s">
+        <v>726</v>
+      </c>
+      <c r="W1" s="260">
+        <v>10</v>
+      </c>
+      <c r="X1" s="260">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A2" s="261" t="s">
         <v>687</v>
       </c>
@@ -27480,13 +27555,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="263" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F2" s="264" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G2" s="261" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="H2" s="265"/>
       <c r="I2" s="265">
@@ -27508,15 +27583,15 @@
         <v>20</v>
       </c>
       <c r="O2" s="288" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="P2" s="288" t="s">
         <v>595</v>
       </c>
       <c r="Q2" s="265" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="303" t="s">
+        <v>691</v>
+      </c>
+      <c r="R2" s="373" t="s">
         <v>735</v>
       </c>
       <c r="S2" s="267">
@@ -27527,9 +27602,6 @@
       </c>
       <c r="U2" s="300" t="s">
         <v>734</v>
-      </c>
-      <c r="V2" s="287" t="s">
-        <v>726</v>
       </c>
       <c r="W2" s="260">
         <v>10</v>
@@ -27556,32 +27628,32 @@
         <v>90</v>
       </c>
       <c r="F3" s="264" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G3" s="261" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H3" s="265"/>
-      <c r="I3" s="265">
+      <c r="I3" s="369">
         <v>60</v>
       </c>
-      <c r="J3" s="261" t="s">
+      <c r="J3" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="265">
+      <c r="K3" s="369">
         <v>60</v>
       </c>
-      <c r="L3" s="261" t="s">
+      <c r="L3" s="370" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="265">
+      <c r="M3" s="369">
         <v>10</v>
       </c>
-      <c r="N3" s="266" t="s">
+      <c r="N3" s="371" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="288" t="s">
-        <v>39</v>
+        <v>691</v>
       </c>
       <c r="P3" s="288" t="s">
         <v>595</v>
@@ -27589,7 +27661,7 @@
       <c r="Q3" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R3" s="391" t="s">
+      <c r="R3" s="303" t="s">
         <v>735</v>
       </c>
       <c r="S3" s="267">
@@ -27611,7 +27683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
+    <row r="4" spans="1:25" ht="36">
       <c r="A4" s="261" t="s">
         <v>687</v>
       </c>
@@ -27623,15 +27695,15 @@
         <v>78</v>
       </c>
       <c r="E4" s="263" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="264" t="s">
-        <v>751</v>
-      </c>
-      <c r="G4" s="261" t="s">
-        <v>693</v>
-      </c>
-      <c r="H4" s="265"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="270" t="s">
+        <v>752</v>
+      </c>
+      <c r="G4" s="271" t="s">
+        <v>701</v>
+      </c>
+      <c r="H4" s="272"/>
       <c r="I4" s="369">
         <v>60</v>
       </c>
@@ -27647,17 +27719,17 @@
       <c r="M4" s="369">
         <v>10</v>
       </c>
-      <c r="N4" s="371" t="s">
+      <c r="N4" s="372" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="288" t="s">
-        <v>691</v>
+      <c r="O4" s="289" t="s">
+        <v>9</v>
       </c>
       <c r="P4" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q4" s="265" t="s">
-        <v>691</v>
+      <c r="Q4" s="272" t="s">
+        <v>23</v>
       </c>
       <c r="R4" s="303" t="s">
         <v>735</v>
@@ -27671,6 +27743,7 @@
       <c r="U4" s="300" t="s">
         <v>734</v>
       </c>
+      <c r="V4" s="260"/>
       <c r="W4" s="260">
         <v>10</v>
       </c>
@@ -27681,7 +27754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="36" hidden="1">
+    <row r="5" spans="1:25" ht="24">
       <c r="A5" s="261" t="s">
         <v>687</v>
       </c>
@@ -27693,15 +27766,15 @@
         <v>78</v>
       </c>
       <c r="E5" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="270" t="s">
-        <v>752</v>
-      </c>
-      <c r="G5" s="271" t="s">
-        <v>701</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>90</v>
+      </c>
+      <c r="F5" s="264" t="s">
+        <v>753</v>
+      </c>
+      <c r="G5" s="268" t="s">
+        <v>718</v>
+      </c>
+      <c r="H5" s="265"/>
       <c r="I5" s="369">
         <v>60</v>
       </c>
@@ -27720,13 +27793,13 @@
       <c r="N5" s="372" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="289" t="s">
-        <v>9</v>
+      <c r="O5" s="288" t="s">
+        <v>711</v>
       </c>
       <c r="P5" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q5" s="272" t="s">
+      <c r="Q5" s="265" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="303" t="s">
@@ -27752,7 +27825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24" hidden="1">
+    <row r="6" spans="1:25" ht="24">
       <c r="A6" s="261" t="s">
         <v>687</v>
       </c>
@@ -27766,29 +27839,29 @@
       <c r="E6" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="264" t="s">
-        <v>753</v>
+      <c r="F6" s="394" t="s">
+        <v>754</v>
       </c>
       <c r="G6" s="268" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H6" s="265"/>
-      <c r="I6" s="369">
+      <c r="I6" s="265">
         <v>60</v>
       </c>
-      <c r="J6" s="370" t="s">
+      <c r="J6" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="369">
+      <c r="K6" s="265">
         <v>60</v>
       </c>
-      <c r="L6" s="370" t="s">
+      <c r="L6" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="369">
+      <c r="M6" s="265">
         <v>10</v>
       </c>
-      <c r="N6" s="372" t="s">
+      <c r="N6" s="274" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="288" t="s">
@@ -27823,64 +27896,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24" hidden="1">
-      <c r="A7" s="261" t="s">
+    <row r="7" spans="1:25" ht="24">
+      <c r="A7" s="273" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="277" t="s">
         <v>688</v>
       </c>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262" t="s">
+      <c r="C7" s="277"/>
+      <c r="D7" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="263" t="s">
+      <c r="E7" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="264" t="s">
-        <v>754</v>
-      </c>
-      <c r="G7" s="268" t="s">
-        <v>717</v>
-      </c>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265">
+      <c r="F7" s="395" t="s">
+        <v>755</v>
+      </c>
+      <c r="G7" s="279" t="s">
+        <v>716</v>
+      </c>
+      <c r="H7" s="272"/>
+      <c r="I7" s="272">
         <v>60</v>
       </c>
-      <c r="J7" s="261" t="s">
+      <c r="J7" s="273" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="265">
+      <c r="K7" s="272">
         <v>60</v>
       </c>
-      <c r="L7" s="261" t="s">
+      <c r="L7" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="265">
+      <c r="M7" s="272">
         <v>10</v>
       </c>
       <c r="N7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="288" t="s">
+      <c r="O7" s="289" t="s">
         <v>711</v>
       </c>
-      <c r="P7" s="288" t="s">
+      <c r="P7" s="289" t="s">
         <v>595</v>
       </c>
-      <c r="Q7" s="265" t="s">
+      <c r="Q7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="303" t="s">
+      <c r="R7" s="307" t="s">
         <v>735</v>
       </c>
-      <c r="S7" s="267">
+      <c r="S7" s="308">
         <v>0.95</v>
       </c>
-      <c r="T7" s="267">
+      <c r="T7" s="308">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U7" s="300" t="s">
+      <c r="U7" s="309" t="s">
         <v>734</v>
       </c>
       <c r="V7" s="260"/>
@@ -27894,67 +27967,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24" hidden="1">
-      <c r="A8" s="273" t="s">
+    <row r="8" spans="1:25" s="275" customFormat="1" ht="24">
+      <c r="A8" s="261" t="s">
         <v>687</v>
       </c>
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="262" t="s">
         <v>688</v>
       </c>
-      <c r="C8" s="277"/>
-      <c r="D8" s="277" t="s">
+      <c r="C8" s="262"/>
+      <c r="D8" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="278" t="s">
+      <c r="E8" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="270" t="s">
-        <v>755</v>
-      </c>
-      <c r="G8" s="279" t="s">
-        <v>716</v>
-      </c>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272">
+      <c r="F8" s="393" t="s">
+        <v>756</v>
+      </c>
+      <c r="G8" s="268" t="s">
+        <v>715</v>
+      </c>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265">
         <v>60</v>
       </c>
-      <c r="J8" s="273" t="s">
+      <c r="J8" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="272">
+      <c r="K8" s="265">
         <v>60</v>
       </c>
-      <c r="L8" s="273" t="s">
+      <c r="L8" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="272">
+      <c r="M8" s="265">
         <v>10</v>
       </c>
-      <c r="N8" s="274" t="s">
+      <c r="N8" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="289" t="s">
+      <c r="O8" s="288" t="s">
         <v>711</v>
       </c>
-      <c r="P8" s="289" t="s">
+      <c r="P8" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q8" s="272" t="s">
+      <c r="Q8" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="307" t="s">
+      <c r="R8" s="303" t="s">
         <v>735</v>
       </c>
-      <c r="S8" s="308">
+      <c r="S8" s="267">
         <v>0.95</v>
       </c>
-      <c r="T8" s="308">
+      <c r="T8" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U8" s="309" t="s">
+      <c r="U8" s="300" t="s">
         <v>734</v>
       </c>
-      <c r="V8" s="260"/>
+      <c r="V8" s="310"/>
       <c r="W8" s="260">
         <v>10</v>
       </c>
@@ -27965,7 +28038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="275" customFormat="1" ht="24" hidden="1">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9" s="261" t="s">
         <v>687</v>
       </c>
@@ -27974,20 +28047,20 @@
       </c>
       <c r="C9" s="262"/>
       <c r="D9" s="262" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E9" s="263" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F9" s="264" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G9" s="268" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H9" s="265"/>
       <c r="I9" s="265">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J9" s="261" t="s">
         <v>18</v>
@@ -27999,13 +28072,13 @@
         <v>19</v>
       </c>
       <c r="M9" s="265">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N9" s="266" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="288" t="s">
-        <v>711</v>
+        <v>9</v>
       </c>
       <c r="P9" s="288" t="s">
         <v>595</v>
@@ -28022,21 +28095,21 @@
       <c r="T9" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U9" s="300" t="s">
-        <v>734</v>
-      </c>
-      <c r="V9" s="310"/>
+      <c r="U9" s="305" t="s">
+        <v>745</v>
+      </c>
+      <c r="V9" s="260"/>
       <c r="W9" s="260">
         <v>10</v>
       </c>
-      <c r="X9" s="260">
-        <v>13</v>
+      <c r="X9" s="269">
+        <v>6</v>
       </c>
       <c r="Y9" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="24" hidden="1">
+    <row r="10" spans="1:25" ht="24">
       <c r="A10" s="261" t="s">
         <v>687</v>
       </c>
@@ -28051,12 +28124,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="264" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G10" s="268" t="s">
-        <v>710</v>
-      </c>
-      <c r="H10" s="265"/>
+        <v>730</v>
+      </c>
+      <c r="H10" s="275"/>
       <c r="I10" s="265">
         <v>1</v>
       </c>
@@ -28075,14 +28148,14 @@
       <c r="N10" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="288" t="s">
-        <v>9</v>
+      <c r="O10" s="276" t="s">
+        <v>39</v>
       </c>
       <c r="P10" s="288" t="s">
         <v>595</v>
       </c>
       <c r="Q10" s="265" t="s">
-        <v>23</v>
+        <v>691</v>
       </c>
       <c r="R10" s="303" t="s">
         <v>735</v>
@@ -28093,10 +28166,9 @@
       <c r="T10" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U10" s="305" t="s">
-        <v>745</v>
-      </c>
-      <c r="V10" s="260"/>
+      <c r="U10" s="288" t="s">
+        <v>744</v>
+      </c>
       <c r="W10" s="260">
         <v>10</v>
       </c>
@@ -28107,55 +28179,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="24" hidden="1">
-      <c r="A11" s="261" t="s">
+    <row r="11" spans="1:25" s="302" customFormat="1" ht="108.75" thickBot="1">
+      <c r="A11" s="292" t="s">
         <v>687</v>
       </c>
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="293" t="s">
         <v>688</v>
       </c>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262" t="s">
+      <c r="C11" s="293"/>
+      <c r="D11" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="264" t="s">
-        <v>758</v>
-      </c>
-      <c r="G11" s="268" t="s">
-        <v>730</v>
-      </c>
-      <c r="H11" s="275"/>
-      <c r="I11" s="265">
+      <c r="F11" s="294" t="s">
+        <v>759</v>
+      </c>
+      <c r="G11" s="292" t="s">
+        <v>729</v>
+      </c>
+      <c r="H11" s="295"/>
+      <c r="I11" s="295">
         <v>1</v>
       </c>
-      <c r="J11" s="261" t="s">
+      <c r="J11" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="265">
+      <c r="K11" s="295">
         <v>60</v>
       </c>
-      <c r="L11" s="261" t="s">
+      <c r="L11" s="292" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="265">
+      <c r="M11" s="295">
         <v>1</v>
       </c>
-      <c r="N11" s="266" t="s">
+      <c r="N11" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="276" t="s">
+      <c r="O11" s="297" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="288" t="s">
+      <c r="P11" s="297" t="s">
         <v>595</v>
       </c>
-      <c r="Q11" s="265" t="s">
+      <c r="Q11" s="295" t="s">
         <v>691</v>
       </c>
-      <c r="R11" s="303" t="s">
+      <c r="R11" s="311" t="s">
         <v>735</v>
       </c>
       <c r="S11" s="267">
@@ -28164,159 +28236,159 @@
       <c r="T11" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U11" s="288" t="s">
+      <c r="U11" s="306" t="s">
         <v>744</v>
       </c>
       <c r="W11" s="260">
         <v>10</v>
       </c>
-      <c r="X11" s="269">
+      <c r="X11" s="302">
         <v>6</v>
       </c>
       <c r="Y11" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="302" customFormat="1" ht="108.75" hidden="1" thickBot="1">
-      <c r="A12" s="292" t="s">
+    <row r="12" spans="1:25" s="323" customFormat="1" ht="72.75" thickTop="1">
+      <c r="A12" s="312" t="s">
         <v>687</v>
       </c>
-      <c r="B12" s="293" t="s">
-        <v>688</v>
-      </c>
-      <c r="C12" s="293"/>
-      <c r="D12" s="293" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="301" t="s">
+      <c r="B12" s="313" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="313"/>
+      <c r="D12" s="313" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="294" t="s">
-        <v>759</v>
-      </c>
-      <c r="G12" s="292" t="s">
-        <v>729</v>
-      </c>
-      <c r="H12" s="295"/>
-      <c r="I12" s="295">
+      <c r="F12" s="315" t="s">
+        <v>749</v>
+      </c>
+      <c r="G12" s="312" t="s">
+        <v>700</v>
+      </c>
+      <c r="H12" s="316"/>
+      <c r="I12" s="316">
+        <v>60</v>
+      </c>
+      <c r="J12" s="312" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="316">
+        <v>60</v>
+      </c>
+      <c r="L12" s="312" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="316">
+        <v>10</v>
+      </c>
+      <c r="N12" s="317" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="316" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="318" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q12" s="316" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="319" t="s">
+        <v>736</v>
+      </c>
+      <c r="S12" s="320">
         <v>1</v>
       </c>
-      <c r="J12" s="292" t="s">
+      <c r="T12" s="320">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U12" s="321" t="s">
+        <v>734</v>
+      </c>
+      <c r="V12" s="322" t="s">
+        <v>725</v>
+      </c>
+      <c r="W12" s="323">
+        <v>10</v>
+      </c>
+      <c r="X12" s="323">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="334" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B13" s="325" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="325"/>
+      <c r="D13" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="326" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="327" t="s">
+        <v>750</v>
+      </c>
+      <c r="G13" s="324" t="s">
+        <v>692</v>
+      </c>
+      <c r="H13" s="328"/>
+      <c r="I13" s="328">
+        <v>60</v>
+      </c>
+      <c r="J13" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="295">
+      <c r="K13" s="328">
         <v>60</v>
       </c>
-      <c r="L12" s="292" t="s">
+      <c r="L13" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="295">
+      <c r="M13" s="328">
+        <v>10</v>
+      </c>
+      <c r="N13" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="330" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="330" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q13" s="328" t="s">
+        <v>691</v>
+      </c>
+      <c r="R13" s="373" t="s">
+        <v>736</v>
+      </c>
+      <c r="S13" s="332">
         <v>1</v>
       </c>
-      <c r="N12" s="296" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="297" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="297" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q12" s="295" t="s">
-        <v>691</v>
-      </c>
-      <c r="R12" s="311" t="s">
-        <v>735</v>
-      </c>
-      <c r="S12" s="267">
-        <v>0.95</v>
-      </c>
-      <c r="T12" s="267">
+      <c r="T13" s="332">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U12" s="306" t="s">
-        <v>744</v>
-      </c>
-      <c r="W12" s="260">
+      <c r="U13" s="333" t="s">
+        <v>734</v>
+      </c>
+      <c r="W13" s="334">
         <v>10</v>
       </c>
-      <c r="X12" s="302">
-        <v>6</v>
-      </c>
-      <c r="Y12" s="260">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="323" customFormat="1" ht="72.75" hidden="1" thickTop="1">
-      <c r="A13" s="312" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="313" t="s">
-        <v>724</v>
-      </c>
-      <c r="C13" s="313"/>
-      <c r="D13" s="313" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="314" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="315" t="s">
-        <v>749</v>
-      </c>
-      <c r="G13" s="312" t="s">
-        <v>700</v>
-      </c>
-      <c r="H13" s="316"/>
-      <c r="I13" s="316">
-        <v>60</v>
-      </c>
-      <c r="J13" s="312" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="316">
-        <v>60</v>
-      </c>
-      <c r="L13" s="312" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="316">
-        <v>10</v>
-      </c>
-      <c r="N13" s="317" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="316" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="318" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q13" s="316" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="319" t="s">
-        <v>736</v>
-      </c>
-      <c r="S13" s="320">
-        <v>1</v>
-      </c>
-      <c r="T13" s="320">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U13" s="321" t="s">
-        <v>734</v>
-      </c>
-      <c r="V13" s="322" t="s">
-        <v>725</v>
-      </c>
-      <c r="W13" s="323">
-        <v>10</v>
-      </c>
-      <c r="X13" s="323">
+      <c r="X13" s="334">
         <v>13</v>
       </c>
-      <c r="Y13" s="323">
+      <c r="Y13" s="334">
         <v>8</v>
       </c>
     </row>
@@ -28335,10 +28407,10 @@
         <v>90</v>
       </c>
       <c r="F14" s="327" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G14" s="324" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H14" s="328"/>
       <c r="I14" s="328">
@@ -28360,7 +28432,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="330" t="s">
-        <v>39</v>
+        <v>691</v>
       </c>
       <c r="P14" s="330" t="s">
         <v>595</v>
@@ -28368,7 +28440,7 @@
       <c r="Q14" s="328" t="s">
         <v>691</v>
       </c>
-      <c r="R14" s="391" t="s">
+      <c r="R14" s="331" t="s">
         <v>736</v>
       </c>
       <c r="S14" s="332">
@@ -28390,7 +28462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="334" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="15" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="324" t="s">
         <v>687</v>
       </c>
@@ -28402,15 +28474,15 @@
         <v>78</v>
       </c>
       <c r="E15" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="327" t="s">
-        <v>751</v>
-      </c>
-      <c r="G15" s="324" t="s">
-        <v>693</v>
-      </c>
-      <c r="H15" s="328"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="335" t="s">
+        <v>752</v>
+      </c>
+      <c r="G15" s="336" t="s">
+        <v>701</v>
+      </c>
+      <c r="H15" s="337"/>
       <c r="I15" s="328">
         <v>60</v>
       </c>
@@ -28426,17 +28498,17 @@
       <c r="M15" s="328">
         <v>10</v>
       </c>
-      <c r="N15" s="329" t="s">
+      <c r="N15" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="330" t="s">
-        <v>691</v>
+      <c r="O15" s="339" t="s">
+        <v>9</v>
       </c>
       <c r="P15" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q15" s="328" t="s">
-        <v>691</v>
+      <c r="Q15" s="337" t="s">
+        <v>23</v>
       </c>
       <c r="R15" s="331" t="s">
         <v>736</v>
@@ -28450,17 +28522,18 @@
       <c r="U15" s="333" t="s">
         <v>734</v>
       </c>
-      <c r="W15" s="334">
+      <c r="V15" s="334"/>
+      <c r="W15" s="340">
         <v>10</v>
       </c>
-      <c r="X15" s="334">
+      <c r="X15" s="340">
         <v>13</v>
       </c>
-      <c r="Y15" s="334">
+      <c r="Y15" s="340">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="16" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="324" t="s">
         <v>687</v>
       </c>
@@ -28472,15 +28545,15 @@
         <v>78</v>
       </c>
       <c r="E16" s="326" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="335" t="s">
-        <v>752</v>
-      </c>
-      <c r="G16" s="336" t="s">
-        <v>701</v>
-      </c>
-      <c r="H16" s="337"/>
+        <v>90</v>
+      </c>
+      <c r="F16" s="327" t="s">
+        <v>753</v>
+      </c>
+      <c r="G16" s="341" t="s">
+        <v>718</v>
+      </c>
+      <c r="H16" s="328"/>
       <c r="I16" s="328">
         <v>60</v>
       </c>
@@ -28499,13 +28572,13 @@
       <c r="N16" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="339" t="s">
-        <v>9</v>
+      <c r="O16" s="330" t="s">
+        <v>711</v>
       </c>
       <c r="P16" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q16" s="337" t="s">
+      <c r="Q16" s="328" t="s">
         <v>23</v>
       </c>
       <c r="R16" s="331" t="s">
@@ -28531,7 +28604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="17" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="324" t="s">
         <v>687</v>
       </c>
@@ -28546,10 +28619,10 @@
         <v>90</v>
       </c>
       <c r="F17" s="327" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G17" s="341" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H17" s="328"/>
       <c r="I17" s="328">
@@ -28602,7 +28675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="18" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="324" t="s">
         <v>687</v>
       </c>
@@ -28617,10 +28690,10 @@
         <v>90</v>
       </c>
       <c r="F18" s="327" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G18" s="341" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H18" s="328"/>
       <c r="I18" s="328">
@@ -28632,10 +28705,10 @@
       <c r="K18" s="328">
         <v>60</v>
       </c>
-      <c r="L18" s="324" t="s">
+      <c r="L18" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="328">
+      <c r="M18" s="337">
         <v>10</v>
       </c>
       <c r="N18" s="338" t="s">
@@ -28673,7 +28746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="19" spans="1:25" s="340" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="324" t="s">
         <v>687</v>
       </c>
@@ -28688,10 +28761,10 @@
         <v>90</v>
       </c>
       <c r="F19" s="327" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G19" s="341" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H19" s="328"/>
       <c r="I19" s="328">
@@ -28703,16 +28776,16 @@
       <c r="K19" s="328">
         <v>60</v>
       </c>
-      <c r="L19" s="342" t="s">
+      <c r="L19" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="337">
+      <c r="M19" s="328">
         <v>10</v>
       </c>
-      <c r="N19" s="338" t="s">
+      <c r="N19" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="330" t="s">
+      <c r="O19" s="343" t="s">
         <v>711</v>
       </c>
       <c r="P19" s="330" t="s">
@@ -28744,140 +28817,140 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="340" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
-      <c r="A20" s="324" t="s">
+    <row r="20" spans="1:25" ht="72.75" thickTop="1">
+      <c r="A20" s="280" t="s">
         <v>687</v>
       </c>
-      <c r="B20" s="325" t="s">
-        <v>724</v>
-      </c>
-      <c r="C20" s="325"/>
-      <c r="D20" s="325" t="s">
+      <c r="B20" s="281" t="s">
+        <v>555</v>
+      </c>
+      <c r="C20" s="281"/>
+      <c r="D20" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="326" t="s">
+      <c r="E20" s="282" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="283" t="s">
+        <v>749</v>
+      </c>
+      <c r="G20" s="280" t="s">
+        <v>700</v>
+      </c>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284">
+        <v>75</v>
+      </c>
+      <c r="J20" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="284">
+        <v>40</v>
+      </c>
+      <c r="L20" s="280" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="284">
+        <v>10</v>
+      </c>
+      <c r="N20" s="285" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="290" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="290" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q20" s="284" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="298" t="s">
+        <v>732</v>
+      </c>
+      <c r="S20" s="286">
+        <v>0.95</v>
+      </c>
+      <c r="T20" s="286">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="U20" s="299" t="s">
+        <v>734</v>
+      </c>
+      <c r="V20" s="287" t="s">
+        <v>737</v>
+      </c>
+      <c r="W20" s="269">
+        <v>10</v>
+      </c>
+      <c r="X20" s="269">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="269">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="24">
+      <c r="A21" s="261" t="s">
+        <v>687</v>
+      </c>
+      <c r="B21" s="262" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="327" t="s">
-        <v>756</v>
-      </c>
-      <c r="G20" s="341" t="s">
-        <v>715</v>
-      </c>
-      <c r="H20" s="328"/>
-      <c r="I20" s="328">
-        <v>60</v>
-      </c>
-      <c r="J20" s="324" t="s">
+      <c r="F21" s="264" t="s">
+        <v>750</v>
+      </c>
+      <c r="G21" s="261" t="s">
+        <v>692</v>
+      </c>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265">
+        <v>75</v>
+      </c>
+      <c r="J21" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="328">
-        <v>60</v>
-      </c>
-      <c r="L20" s="324" t="s">
+      <c r="K21" s="265">
+        <v>40</v>
+      </c>
+      <c r="L21" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="328">
+      <c r="M21" s="265">
         <v>10</v>
       </c>
-      <c r="N20" s="329" t="s">
+      <c r="N21" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="343" t="s">
-        <v>711</v>
-      </c>
-      <c r="P20" s="330" t="s">
+      <c r="O21" s="288" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q20" s="328" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="331" t="s">
-        <v>736</v>
-      </c>
-      <c r="S20" s="332">
-        <v>1</v>
-      </c>
-      <c r="T20" s="332">
+      <c r="Q21" s="265" t="s">
+        <v>691</v>
+      </c>
+      <c r="R21" s="303" t="s">
+        <v>732</v>
+      </c>
+      <c r="S21" s="267">
+        <v>0.95</v>
+      </c>
+      <c r="T21" s="267">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U20" s="333" t="s">
+      <c r="U21" s="300" t="s">
         <v>734</v>
       </c>
-      <c r="V20" s="334"/>
-      <c r="W20" s="340">
-        <v>10</v>
-      </c>
-      <c r="X20" s="340">
-        <v>13</v>
-      </c>
-      <c r="Y20" s="340">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="72.75" hidden="1" thickTop="1">
-      <c r="A21" s="280" t="s">
-        <v>687</v>
-      </c>
-      <c r="B21" s="281" t="s">
-        <v>555</v>
-      </c>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="282" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="283" t="s">
-        <v>749</v>
-      </c>
-      <c r="G21" s="280" t="s">
-        <v>700</v>
-      </c>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284">
-        <v>75</v>
-      </c>
-      <c r="J21" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="284">
-        <v>40</v>
-      </c>
-      <c r="L21" s="280" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="284">
-        <v>10</v>
-      </c>
-      <c r="N21" s="285" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="290" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="290" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q21" s="284" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="298" t="s">
-        <v>732</v>
-      </c>
-      <c r="S21" s="286">
-        <v>0.95</v>
-      </c>
-      <c r="T21" s="286">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U21" s="299" t="s">
-        <v>734</v>
-      </c>
-      <c r="V21" s="287" t="s">
-        <v>737</v>
-      </c>
+      <c r="V21" s="260"/>
       <c r="W21" s="269">
         <v>10</v>
       </c>
@@ -28903,10 +28976,10 @@
         <v>90</v>
       </c>
       <c r="F22" s="264" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G22" s="261" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H22" s="265"/>
       <c r="I22" s="265">
@@ -28928,7 +29001,7 @@
         <v>20</v>
       </c>
       <c r="O22" s="288" t="s">
-        <v>39</v>
+        <v>691</v>
       </c>
       <c r="P22" s="288" t="s">
         <v>595</v>
@@ -28959,7 +29032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="24" hidden="1">
+    <row r="23" spans="1:25" ht="36">
       <c r="A23" s="261" t="s">
         <v>687</v>
       </c>
@@ -28971,15 +29044,15 @@
         <v>78</v>
       </c>
       <c r="E23" s="263" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="264" t="s">
-        <v>751</v>
-      </c>
-      <c r="G23" s="261" t="s">
-        <v>693</v>
-      </c>
-      <c r="H23" s="265"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="270" t="s">
+        <v>752</v>
+      </c>
+      <c r="G23" s="271" t="s">
+        <v>701</v>
+      </c>
+      <c r="H23" s="272"/>
       <c r="I23" s="265">
         <v>75</v>
       </c>
@@ -28995,17 +29068,17 @@
       <c r="M23" s="265">
         <v>10</v>
       </c>
-      <c r="N23" s="266" t="s">
+      <c r="N23" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="288" t="s">
-        <v>691</v>
+      <c r="O23" s="289" t="s">
+        <v>9</v>
       </c>
       <c r="P23" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q23" s="265" t="s">
-        <v>691</v>
+      <c r="Q23" s="272" t="s">
+        <v>23</v>
       </c>
       <c r="R23" s="303" t="s">
         <v>732</v>
@@ -29030,7 +29103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="36" hidden="1">
+    <row r="24" spans="1:25" ht="24">
       <c r="A24" s="261" t="s">
         <v>687</v>
       </c>
@@ -29042,15 +29115,15 @@
         <v>78</v>
       </c>
       <c r="E24" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="270" t="s">
-        <v>752</v>
-      </c>
-      <c r="G24" s="271" t="s">
-        <v>701</v>
-      </c>
-      <c r="H24" s="272"/>
+        <v>90</v>
+      </c>
+      <c r="F24" s="264" t="s">
+        <v>753</v>
+      </c>
+      <c r="G24" s="268" t="s">
+        <v>718</v>
+      </c>
+      <c r="H24" s="265"/>
       <c r="I24" s="265">
         <v>75</v>
       </c>
@@ -29069,13 +29142,13 @@
       <c r="N24" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="289" t="s">
-        <v>9</v>
+      <c r="O24" s="368" t="s">
+        <v>711</v>
       </c>
       <c r="P24" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q24" s="272" t="s">
+      <c r="Q24" s="265" t="s">
         <v>23</v>
       </c>
       <c r="R24" s="303" t="s">
@@ -29101,7 +29174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="24" hidden="1">
+    <row r="25" spans="1:25" ht="24">
       <c r="A25" s="261" t="s">
         <v>687</v>
       </c>
@@ -29116,10 +29189,10 @@
         <v>90</v>
       </c>
       <c r="F25" s="264" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G25" s="268" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H25" s="265"/>
       <c r="I25" s="265">
@@ -29140,7 +29213,7 @@
       <c r="N25" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="368" t="s">
+      <c r="O25" s="288" t="s">
         <v>711</v>
       </c>
       <c r="P25" s="288" t="s">
@@ -29172,7 +29245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="24" hidden="1">
+    <row r="26" spans="1:25" ht="24">
       <c r="A26" s="261" t="s">
         <v>687</v>
       </c>
@@ -29187,10 +29260,10 @@
         <v>90</v>
       </c>
       <c r="F26" s="264" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G26" s="268" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H26" s="265"/>
       <c r="I26" s="265">
@@ -29243,7 +29316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="24" hidden="1">
+    <row r="27" spans="1:25" ht="24.75" thickBot="1">
       <c r="A27" s="261" t="s">
         <v>687</v>
       </c>
@@ -29258,10 +29331,10 @@
         <v>90</v>
       </c>
       <c r="F27" s="264" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G27" s="268" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H27" s="265"/>
       <c r="I27" s="265">
@@ -29279,10 +29352,10 @@
       <c r="M27" s="265">
         <v>10</v>
       </c>
-      <c r="N27" s="274" t="s">
+      <c r="N27" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="288" t="s">
+      <c r="O27" s="297" t="s">
         <v>711</v>
       </c>
       <c r="P27" s="288" t="s">
@@ -29314,147 +29387,146 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="24.75" hidden="1" thickBot="1">
-      <c r="A28" s="261" t="s">
+    <row r="28" spans="1:25" s="323" customFormat="1" ht="60.75" thickTop="1">
+      <c r="A28" s="312" t="s">
         <v>687</v>
       </c>
-      <c r="B28" s="262" t="s">
-        <v>555</v>
-      </c>
-      <c r="C28" s="262"/>
-      <c r="D28" s="262" t="s">
+      <c r="B28" s="313" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="263" t="s">
+      <c r="E28" s="314" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="315" t="s">
+        <v>749</v>
+      </c>
+      <c r="G28" s="312" t="s">
+        <v>700</v>
+      </c>
+      <c r="H28" s="316"/>
+      <c r="I28" s="316">
+        <v>60</v>
+      </c>
+      <c r="J28" s="312" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="316">
+        <v>60</v>
+      </c>
+      <c r="L28" s="312" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="316">
+        <v>10</v>
+      </c>
+      <c r="N28" s="317" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="318" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="318" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q28" s="316" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="344" t="s">
+        <v>563</v>
+      </c>
+      <c r="S28" s="316" t="s">
+        <v>727</v>
+      </c>
+      <c r="T28" s="316" t="s">
+        <v>733</v>
+      </c>
+      <c r="U28" s="345" t="s">
+        <v>734</v>
+      </c>
+      <c r="V28" s="322" t="s">
+        <v>728</v>
+      </c>
+      <c r="W28" s="323">
+        <v>10</v>
+      </c>
+      <c r="X28" s="323">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="334" customFormat="1" ht="33.75">
+      <c r="A29" s="324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B29" s="325" t="s">
+        <v>562</v>
+      </c>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="264" t="s">
-        <v>756</v>
-      </c>
-      <c r="G28" s="268" t="s">
-        <v>715</v>
-      </c>
-      <c r="H28" s="265"/>
-      <c r="I28" s="265">
-        <v>75</v>
-      </c>
-      <c r="J28" s="261" t="s">
+      <c r="F29" s="327" t="s">
+        <v>750</v>
+      </c>
+      <c r="G29" s="324" t="s">
+        <v>692</v>
+      </c>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328">
+        <v>60</v>
+      </c>
+      <c r="J29" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="265">
-        <v>40</v>
-      </c>
-      <c r="L28" s="261" t="s">
+      <c r="K29" s="328">
+        <v>60</v>
+      </c>
+      <c r="L29" s="324" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="265">
+      <c r="M29" s="328">
         <v>10</v>
       </c>
-      <c r="N28" s="266" t="s">
+      <c r="N29" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="297" t="s">
-        <v>711</v>
-      </c>
-      <c r="P28" s="288" t="s">
+      <c r="O29" s="330" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q28" s="265" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="303" t="s">
-        <v>732</v>
-      </c>
-      <c r="S28" s="267">
-        <v>0.95</v>
-      </c>
-      <c r="T28" s="267">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="U28" s="300" t="s">
+      <c r="Q29" s="328" t="s">
+        <v>691</v>
+      </c>
+      <c r="R29" s="374" t="s">
+        <v>563</v>
+      </c>
+      <c r="S29" s="328" t="s">
+        <v>727</v>
+      </c>
+      <c r="T29" s="328" t="s">
+        <v>733</v>
+      </c>
+      <c r="U29" s="333" t="s">
         <v>734</v>
       </c>
-      <c r="V28" s="260"/>
-      <c r="W28" s="269">
+      <c r="W29" s="334">
         <v>10</v>
       </c>
-      <c r="X28" s="269">
+      <c r="X29" s="334">
         <v>13</v>
       </c>
-      <c r="Y28" s="269">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" s="323" customFormat="1" ht="60.75" hidden="1" thickTop="1">
-      <c r="A29" s="312" t="s">
-        <v>687</v>
-      </c>
-      <c r="B29" s="313" t="s">
-        <v>562</v>
-      </c>
-      <c r="C29" s="313"/>
-      <c r="D29" s="313" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="314" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="315" t="s">
-        <v>749</v>
-      </c>
-      <c r="G29" s="312" t="s">
-        <v>700</v>
-      </c>
-      <c r="H29" s="316"/>
-      <c r="I29" s="316">
-        <v>60</v>
-      </c>
-      <c r="J29" s="312" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="316">
-        <v>60</v>
-      </c>
-      <c r="L29" s="312" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" s="316">
-        <v>10</v>
-      </c>
-      <c r="N29" s="317" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="318" t="s">
-        <v>9</v>
-      </c>
-      <c r="P29" s="318" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q29" s="316" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="344" t="s">
-        <v>563</v>
-      </c>
-      <c r="S29" s="316" t="s">
-        <v>727</v>
-      </c>
-      <c r="T29" s="316" t="s">
-        <v>733</v>
-      </c>
-      <c r="U29" s="345" t="s">
-        <v>734</v>
-      </c>
-      <c r="V29" s="322" t="s">
-        <v>728</v>
-      </c>
-      <c r="W29" s="323">
-        <v>10</v>
-      </c>
-      <c r="X29" s="323">
-        <v>13</v>
-      </c>
-      <c r="Y29" s="323">
+      <c r="Y29" s="334">
         <v>8</v>
       </c>
     </row>
@@ -29473,10 +29545,10 @@
         <v>90</v>
       </c>
       <c r="F30" s="327" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G30" s="324" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H30" s="328"/>
       <c r="I30" s="328">
@@ -29498,7 +29570,7 @@
         <v>20</v>
       </c>
       <c r="O30" s="330" t="s">
-        <v>39</v>
+        <v>691</v>
       </c>
       <c r="P30" s="330" t="s">
         <v>595</v>
@@ -29506,7 +29578,7 @@
       <c r="Q30" s="328" t="s">
         <v>691</v>
       </c>
-      <c r="R30" s="392" t="s">
+      <c r="R30" s="346" t="s">
         <v>563</v>
       </c>
       <c r="S30" s="328" t="s">
@@ -29528,7 +29600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="334" customFormat="1" ht="33.75" hidden="1">
+    <row r="31" spans="1:25" s="340" customFormat="1" ht="36">
       <c r="A31" s="324" t="s">
         <v>687</v>
       </c>
@@ -29540,15 +29612,15 @@
         <v>78</v>
       </c>
       <c r="E31" s="326" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="327" t="s">
-        <v>751</v>
-      </c>
-      <c r="G31" s="324" t="s">
-        <v>693</v>
-      </c>
-      <c r="H31" s="328"/>
+        <v>25</v>
+      </c>
+      <c r="F31" s="335" t="s">
+        <v>752</v>
+      </c>
+      <c r="G31" s="336" t="s">
+        <v>701</v>
+      </c>
+      <c r="H31" s="337"/>
       <c r="I31" s="328">
         <v>60</v>
       </c>
@@ -29564,17 +29636,17 @@
       <c r="M31" s="328">
         <v>10</v>
       </c>
-      <c r="N31" s="329" t="s">
+      <c r="N31" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="330" t="s">
-        <v>691</v>
+      <c r="O31" s="339" t="s">
+        <v>9</v>
       </c>
       <c r="P31" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q31" s="328" t="s">
-        <v>691</v>
+      <c r="Q31" s="337" t="s">
+        <v>23</v>
       </c>
       <c r="R31" s="346" t="s">
         <v>563</v>
@@ -29588,17 +29660,18 @@
       <c r="U31" s="333" t="s">
         <v>734</v>
       </c>
-      <c r="W31" s="334">
+      <c r="V31" s="334"/>
+      <c r="W31" s="340">
         <v>10</v>
       </c>
-      <c r="X31" s="334">
+      <c r="X31" s="340">
         <v>13</v>
       </c>
-      <c r="Y31" s="334">
+      <c r="Y31" s="340">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="340" customFormat="1" ht="36" hidden="1">
+    <row r="32" spans="1:25" s="340" customFormat="1" ht="33.75">
       <c r="A32" s="324" t="s">
         <v>687</v>
       </c>
@@ -29610,15 +29683,15 @@
         <v>78</v>
       </c>
       <c r="E32" s="326" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="335" t="s">
-        <v>752</v>
-      </c>
-      <c r="G32" s="336" t="s">
-        <v>701</v>
-      </c>
-      <c r="H32" s="337"/>
+        <v>90</v>
+      </c>
+      <c r="F32" s="327" t="s">
+        <v>753</v>
+      </c>
+      <c r="G32" s="341" t="s">
+        <v>718</v>
+      </c>
+      <c r="H32" s="328"/>
       <c r="I32" s="328">
         <v>60</v>
       </c>
@@ -29637,13 +29710,13 @@
       <c r="N32" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="339" t="s">
-        <v>9</v>
+      <c r="O32" s="330" t="s">
+        <v>711</v>
       </c>
       <c r="P32" s="330" t="s">
         <v>595</v>
       </c>
-      <c r="Q32" s="337" t="s">
+      <c r="Q32" s="328" t="s">
         <v>23</v>
       </c>
       <c r="R32" s="346" t="s">
@@ -29659,7 +29732,7 @@
         <v>734</v>
       </c>
       <c r="V32" s="334"/>
-      <c r="W32" s="340">
+      <c r="W32" s="334">
         <v>10</v>
       </c>
       <c r="X32" s="340">
@@ -29669,7 +29742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
+    <row r="33" spans="1:25" s="340" customFormat="1" ht="33.75">
       <c r="A33" s="324" t="s">
         <v>687</v>
       </c>
@@ -29684,10 +29757,10 @@
         <v>90</v>
       </c>
       <c r="F33" s="327" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G33" s="341" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H33" s="328"/>
       <c r="I33" s="328">
@@ -29730,7 +29803,7 @@
         <v>734</v>
       </c>
       <c r="V33" s="334"/>
-      <c r="W33" s="334">
+      <c r="W33" s="340">
         <v>10</v>
       </c>
       <c r="X33" s="340">
@@ -29740,7 +29813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
+    <row r="34" spans="1:25" s="340" customFormat="1" ht="33.75">
       <c r="A34" s="324" t="s">
         <v>687</v>
       </c>
@@ -29755,10 +29828,10 @@
         <v>90</v>
       </c>
       <c r="F34" s="327" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G34" s="341" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H34" s="328"/>
       <c r="I34" s="328">
@@ -29801,7 +29874,7 @@
         <v>734</v>
       </c>
       <c r="V34" s="334"/>
-      <c r="W34" s="340">
+      <c r="W34" s="334">
         <v>10</v>
       </c>
       <c r="X34" s="340">
@@ -29811,7 +29884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
+    <row r="35" spans="1:25" s="340" customFormat="1" ht="33.75">
       <c r="A35" s="324" t="s">
         <v>687</v>
       </c>
@@ -29826,10 +29899,10 @@
         <v>90</v>
       </c>
       <c r="F35" s="327" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G35" s="341" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H35" s="328"/>
       <c r="I35" s="328">
@@ -29847,7 +29920,7 @@
       <c r="M35" s="328">
         <v>10</v>
       </c>
-      <c r="N35" s="338" t="s">
+      <c r="N35" s="329" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="330" t="s">
@@ -29872,7 +29945,7 @@
         <v>734</v>
       </c>
       <c r="V35" s="334"/>
-      <c r="W35" s="334">
+      <c r="W35" s="340">
         <v>10</v>
       </c>
       <c r="X35" s="340">
@@ -29882,7 +29955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
+    <row r="36" spans="1:25" s="340" customFormat="1" ht="33.75">
       <c r="A36" s="324" t="s">
         <v>687</v>
       </c>
@@ -29891,20 +29964,20 @@
       </c>
       <c r="C36" s="325"/>
       <c r="D36" s="325" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E36" s="326" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F36" s="327" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G36" s="341" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H36" s="328"/>
       <c r="I36" s="328">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J36" s="324" t="s">
         <v>18</v>
@@ -29916,13 +29989,11 @@
         <v>19</v>
       </c>
       <c r="M36" s="328">
-        <v>10</v>
-      </c>
-      <c r="N36" s="329" t="s">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" s="329"/>
       <c r="O36" s="330" t="s">
-        <v>711</v>
+        <v>9</v>
       </c>
       <c r="P36" s="330" t="s">
         <v>595</v>
@@ -29937,23 +30008,23 @@
         <v>727</v>
       </c>
       <c r="T36" s="328" t="s">
-        <v>733</v>
-      </c>
-      <c r="U36" s="333" t="s">
-        <v>734</v>
+        <v>743</v>
+      </c>
+      <c r="U36" s="347" t="s">
+        <v>744</v>
       </c>
       <c r="V36" s="334"/>
-      <c r="W36" s="340">
+      <c r="W36" s="334">
         <v>10</v>
       </c>
       <c r="X36" s="340">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Y36" s="340">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
+    <row r="37" spans="1:25" s="340" customFormat="1" ht="33.75">
       <c r="A37" s="324" t="s">
         <v>687</v>
       </c>
@@ -29968,12 +30039,12 @@
         <v>25</v>
       </c>
       <c r="F37" s="327" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G37" s="341" t="s">
-        <v>710</v>
-      </c>
-      <c r="H37" s="328"/>
+        <v>730</v>
+      </c>
+      <c r="H37" s="348"/>
       <c r="I37" s="328">
         <v>1</v>
       </c>
@@ -29989,15 +30060,17 @@
       <c r="M37" s="328">
         <v>1</v>
       </c>
-      <c r="N37" s="329"/>
-      <c r="O37" s="330" t="s">
-        <v>9</v>
+      <c r="N37" s="329" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="349" t="s">
+        <v>39</v>
       </c>
       <c r="P37" s="330" t="s">
         <v>595</v>
       </c>
       <c r="Q37" s="328" t="s">
-        <v>23</v>
+        <v>691</v>
       </c>
       <c r="R37" s="346" t="s">
         <v>563</v>
@@ -30011,8 +30084,7 @@
       <c r="U37" s="347" t="s">
         <v>744</v>
       </c>
-      <c r="V37" s="334"/>
-      <c r="W37" s="334">
+      <c r="W37" s="340">
         <v>10</v>
       </c>
       <c r="X37" s="340">
@@ -30022,55 +30094,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="340" customFormat="1" ht="33.75" hidden="1">
-      <c r="A38" s="324" t="s">
+    <row r="38" spans="1:25" s="357" customFormat="1" ht="108.75" thickBot="1">
+      <c r="A38" s="350" t="s">
         <v>687</v>
       </c>
-      <c r="B38" s="325" t="s">
+      <c r="B38" s="351" t="s">
         <v>562</v>
       </c>
-      <c r="C38" s="325"/>
-      <c r="D38" s="325" t="s">
+      <c r="C38" s="351"/>
+      <c r="D38" s="351" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="326" t="s">
+      <c r="E38" s="352" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="327" t="s">
-        <v>758</v>
-      </c>
-      <c r="G38" s="341" t="s">
-        <v>730</v>
-      </c>
-      <c r="H38" s="348"/>
-      <c r="I38" s="328">
+      <c r="F38" s="353" t="s">
+        <v>759</v>
+      </c>
+      <c r="G38" s="350" t="s">
+        <v>729</v>
+      </c>
+      <c r="H38" s="354"/>
+      <c r="I38" s="354">
         <v>1</v>
       </c>
-      <c r="J38" s="324" t="s">
+      <c r="J38" s="350" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="328">
+      <c r="K38" s="354">
         <v>60</v>
       </c>
-      <c r="L38" s="324" t="s">
+      <c r="L38" s="350" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="328">
+      <c r="M38" s="354">
         <v>1</v>
       </c>
-      <c r="N38" s="329" t="s">
+      <c r="N38" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="349" t="s">
+      <c r="O38" s="343" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="330" t="s">
+      <c r="P38" s="343" t="s">
         <v>595</v>
       </c>
-      <c r="Q38" s="328" t="s">
+      <c r="Q38" s="354" t="s">
         <v>691</v>
       </c>
-      <c r="R38" s="346" t="s">
+      <c r="R38" s="365" t="s">
         <v>563</v>
       </c>
       <c r="S38" s="328" t="s">
@@ -30079,160 +30151,160 @@
       <c r="T38" s="328" t="s">
         <v>743</v>
       </c>
-      <c r="U38" s="347" t="s">
+      <c r="U38" s="356" t="s">
         <v>744</v>
       </c>
-      <c r="W38" s="340">
+      <c r="W38" s="357">
         <v>10</v>
       </c>
-      <c r="X38" s="340">
+      <c r="X38" s="357">
         <v>6</v>
       </c>
-      <c r="Y38" s="340">
+      <c r="Y38" s="357">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="357" customFormat="1" ht="108.75" hidden="1" thickBot="1">
-      <c r="A39" s="350" t="s">
+    <row r="39" spans="1:25" s="364" customFormat="1" ht="36.75" thickTop="1">
+      <c r="A39" s="280" t="s">
         <v>687</v>
       </c>
-      <c r="B39" s="351" t="s">
-        <v>562</v>
-      </c>
-      <c r="C39" s="351"/>
-      <c r="D39" s="351" t="s">
+      <c r="B39" s="281" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="352" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="353" t="s">
-        <v>759</v>
-      </c>
-      <c r="G39" s="350" t="s">
-        <v>729</v>
-      </c>
-      <c r="H39" s="354"/>
-      <c r="I39" s="354">
-        <v>1</v>
-      </c>
-      <c r="J39" s="350" t="s">
+      <c r="E39" s="282" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="283" t="s">
+        <v>760</v>
+      </c>
+      <c r="G39" s="280" t="s">
+        <v>719</v>
+      </c>
+      <c r="H39" s="284"/>
+      <c r="I39" s="284">
+        <v>20</v>
+      </c>
+      <c r="J39" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="354">
+      <c r="K39" s="284">
         <v>60</v>
       </c>
-      <c r="L39" s="350" t="s">
+      <c r="L39" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="354">
-        <v>1</v>
-      </c>
-      <c r="N39" s="355" t="s">
+      <c r="M39" s="284">
+        <v>10</v>
+      </c>
+      <c r="N39" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="343" t="s">
-        <v>39</v>
-      </c>
-      <c r="P39" s="343" t="s">
+      <c r="O39" s="290" t="s">
+        <v>731</v>
+      </c>
+      <c r="P39" s="290" t="s">
         <v>595</v>
       </c>
-      <c r="Q39" s="354" t="s">
+      <c r="Q39" s="284" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="363" t="s">
+        <v>571</v>
+      </c>
+      <c r="S39" s="286" t="s">
+        <v>741</v>
+      </c>
+      <c r="T39" s="286" t="s">
+        <v>742</v>
+      </c>
+      <c r="U39" s="304" t="s">
+        <v>744</v>
+      </c>
+      <c r="W39" s="364">
+        <v>10</v>
+      </c>
+      <c r="X39" s="364">
+        <v>13</v>
+      </c>
+      <c r="Y39" s="364">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="260" customFormat="1" ht="36">
+      <c r="A40" s="261" t="s">
+        <v>687</v>
+      </c>
+      <c r="B40" s="262" t="s">
+        <v>570</v>
+      </c>
+      <c r="C40" s="262"/>
+      <c r="D40" s="262" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="263" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="264" t="s">
+        <v>761</v>
+      </c>
+      <c r="G40" s="261" t="s">
+        <v>708</v>
+      </c>
+      <c r="H40" s="265"/>
+      <c r="I40" s="265">
+        <v>20</v>
+      </c>
+      <c r="J40" s="261" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="265">
+        <v>60</v>
+      </c>
+      <c r="L40" s="261" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="265">
+        <v>10</v>
+      </c>
+      <c r="N40" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="288" t="s">
+        <v>696</v>
+      </c>
+      <c r="P40" s="288" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q40" s="265" t="s">
         <v>691</v>
       </c>
-      <c r="R39" s="365" t="s">
-        <v>563</v>
-      </c>
-      <c r="S39" s="328" t="s">
-        <v>727</v>
-      </c>
-      <c r="T39" s="328" t="s">
-        <v>743</v>
-      </c>
-      <c r="U39" s="356" t="s">
+      <c r="R40" s="358" t="s">
+        <v>571</v>
+      </c>
+      <c r="S40" s="267" t="s">
+        <v>739</v>
+      </c>
+      <c r="T40" s="267" t="s">
+        <v>741</v>
+      </c>
+      <c r="U40" s="288" t="s">
         <v>744</v>
       </c>
-      <c r="W39" s="357">
+      <c r="W40" s="260">
         <v>10</v>
       </c>
-      <c r="X39" s="357">
-        <v>6</v>
-      </c>
-      <c r="Y39" s="357">
+      <c r="X40" s="260">
+        <v>13</v>
+      </c>
+      <c r="Y40" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="364" customFormat="1" ht="36.75" hidden="1" thickTop="1">
-      <c r="A40" s="280" t="s">
-        <v>687</v>
-      </c>
-      <c r="B40" s="281" t="s">
-        <v>570</v>
-      </c>
-      <c r="C40" s="281"/>
-      <c r="D40" s="281" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="282" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="283" t="s">
-        <v>760</v>
-      </c>
-      <c r="G40" s="280" t="s">
-        <v>719</v>
-      </c>
-      <c r="H40" s="284"/>
-      <c r="I40" s="284">
-        <v>20</v>
-      </c>
-      <c r="J40" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="284">
-        <v>60</v>
-      </c>
-      <c r="L40" s="280" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="284">
-        <v>10</v>
-      </c>
-      <c r="N40" s="285" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="290" t="s">
-        <v>731</v>
-      </c>
-      <c r="P40" s="290" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q40" s="284" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="363" t="s">
-        <v>571</v>
-      </c>
-      <c r="S40" s="286" t="s">
-        <v>741</v>
-      </c>
-      <c r="T40" s="286" t="s">
-        <v>742</v>
-      </c>
-      <c r="U40" s="304" t="s">
-        <v>744</v>
-      </c>
-      <c r="W40" s="364">
-        <v>10</v>
-      </c>
-      <c r="X40" s="364">
-        <v>13</v>
-      </c>
-      <c r="Y40" s="364">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="260" customFormat="1" ht="36" hidden="1">
+    <row r="41" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A41" s="261" t="s">
         <v>687</v>
       </c>
@@ -30247,10 +30319,10 @@
         <v>32</v>
       </c>
       <c r="F41" s="264" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G41" s="261" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H41" s="265"/>
       <c r="I41" s="265">
@@ -30272,7 +30344,7 @@
         <v>20</v>
       </c>
       <c r="O41" s="288" t="s">
-        <v>696</v>
+        <v>39</v>
       </c>
       <c r="P41" s="288" t="s">
         <v>595</v>
@@ -30302,7 +30374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
+    <row r="42" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A42" s="261" t="s">
         <v>687</v>
       </c>
@@ -30317,10 +30389,10 @@
         <v>32</v>
       </c>
       <c r="F42" s="264" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G42" s="261" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H42" s="265"/>
       <c r="I42" s="265">
@@ -30372,7 +30444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
+    <row r="43" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A43" s="261" t="s">
         <v>687</v>
       </c>
@@ -30387,10 +30459,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="264" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G43" s="261" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H43" s="265"/>
       <c r="I43" s="265">
@@ -30412,7 +30484,7 @@
         <v>20</v>
       </c>
       <c r="O43" s="288" t="s">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="P43" s="288" t="s">
         <v>595</v>
@@ -30442,7 +30514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
+    <row r="44" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A44" s="261" t="s">
         <v>687</v>
       </c>
@@ -30457,10 +30529,10 @@
         <v>32</v>
       </c>
       <c r="F44" s="264" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G44" s="261" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H44" s="265"/>
       <c r="I44" s="265">
@@ -30482,7 +30554,7 @@
         <v>20</v>
       </c>
       <c r="O44" s="288" t="s">
-        <v>696</v>
+        <v>39</v>
       </c>
       <c r="P44" s="288" t="s">
         <v>595</v>
@@ -30497,7 +30569,7 @@
         <v>739</v>
       </c>
       <c r="T44" s="267" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="U44" s="288" t="s">
         <v>744</v>
@@ -30512,7 +30584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
+    <row r="45" spans="1:25" ht="36">
       <c r="A45" s="261" t="s">
         <v>687</v>
       </c>
@@ -30527,12 +30599,12 @@
         <v>32</v>
       </c>
       <c r="F45" s="264" t="s">
-        <v>765</v>
-      </c>
-      <c r="G45" s="261" t="s">
-        <v>705</v>
-      </c>
-      <c r="H45" s="265"/>
+        <v>766</v>
+      </c>
+      <c r="G45" s="268" t="s">
+        <v>704</v>
+      </c>
+      <c r="H45" s="275"/>
       <c r="I45" s="265">
         <v>20</v>
       </c>
@@ -30554,10 +30626,10 @@
       <c r="O45" s="288" t="s">
         <v>39</v>
       </c>
-      <c r="P45" s="288" t="s">
+      <c r="P45" s="276" t="s">
         <v>595</v>
       </c>
-      <c r="Q45" s="265" t="s">
+      <c r="Q45" s="359" t="s">
         <v>691</v>
       </c>
       <c r="R45" s="358" t="s">
@@ -30572,17 +30644,17 @@
       <c r="U45" s="288" t="s">
         <v>744</v>
       </c>
-      <c r="W45" s="260">
+      <c r="W45" s="269">
         <v>10</v>
       </c>
-      <c r="X45" s="260">
+      <c r="X45" s="269">
         <v>13</v>
       </c>
-      <c r="Y45" s="260">
+      <c r="Y45" s="269">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="36" hidden="1">
+    <row r="46" spans="1:25" ht="36">
       <c r="A46" s="261" t="s">
         <v>687</v>
       </c>
@@ -30597,10 +30669,10 @@
         <v>32</v>
       </c>
       <c r="F46" s="264" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G46" s="268" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H46" s="275"/>
       <c r="I46" s="265">
@@ -30622,7 +30694,7 @@
         <v>20</v>
       </c>
       <c r="O46" s="288" t="s">
-        <v>39</v>
+        <v>703</v>
       </c>
       <c r="P46" s="276" t="s">
         <v>595</v>
@@ -30637,7 +30709,7 @@
         <v>739</v>
       </c>
       <c r="T46" s="267" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="U46" s="288" t="s">
         <v>744</v>
@@ -30652,7 +30724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="36" hidden="1">
+    <row r="47" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A47" s="261" t="s">
         <v>687</v>
       </c>
@@ -30661,18 +30733,18 @@
       </c>
       <c r="C47" s="262"/>
       <c r="D47" s="262" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E47" s="263" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="264" t="s">
-        <v>767</v>
-      </c>
-      <c r="G47" s="268" t="s">
-        <v>702</v>
-      </c>
-      <c r="H47" s="275"/>
+        <v>768</v>
+      </c>
+      <c r="G47" s="261" t="s">
+        <v>694</v>
+      </c>
+      <c r="H47" s="265"/>
       <c r="I47" s="265">
         <v>20</v>
       </c>
@@ -30692,37 +30764,37 @@
         <v>20</v>
       </c>
       <c r="O47" s="288" t="s">
-        <v>703</v>
-      </c>
-      <c r="P47" s="276" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" s="288" t="s">
         <v>595</v>
       </c>
-      <c r="Q47" s="359" t="s">
+      <c r="Q47" s="265" t="s">
         <v>691</v>
       </c>
       <c r="R47" s="358" t="s">
         <v>571</v>
       </c>
       <c r="S47" s="267" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T47" s="267" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="U47" s="288" t="s">
         <v>744</v>
       </c>
-      <c r="W47" s="269">
+      <c r="W47" s="260">
         <v>10</v>
       </c>
-      <c r="X47" s="269">
+      <c r="X47" s="260">
         <v>13</v>
       </c>
-      <c r="Y47" s="269">
+      <c r="Y47" s="260">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="260" customFormat="1" ht="24" hidden="1">
+    <row r="48" spans="1:25" s="260" customFormat="1" ht="24">
       <c r="A48" s="261" t="s">
         <v>687</v>
       </c>
@@ -30737,10 +30809,10 @@
         <v>32</v>
       </c>
       <c r="F48" s="264" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G48" s="261" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H48" s="265"/>
       <c r="I48" s="265">
@@ -30762,7 +30834,7 @@
         <v>20</v>
       </c>
       <c r="O48" s="288" t="s">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="P48" s="288" t="s">
         <v>595</v>
@@ -30774,10 +30846,10 @@
         <v>571</v>
       </c>
       <c r="S48" s="267" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T48" s="267" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="U48" s="288" t="s">
         <v>744</v>
@@ -30792,194 +30864,117 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="260" customFormat="1" ht="24" hidden="1">
-      <c r="A49" s="261" t="s">
+    <row r="49" spans="1:26" s="302" customFormat="1" ht="24.75" thickBot="1">
+      <c r="A49" s="292" t="s">
         <v>687</v>
       </c>
-      <c r="B49" s="262" t="s">
+      <c r="B49" s="293" t="s">
         <v>570</v>
       </c>
-      <c r="C49" s="262"/>
-      <c r="D49" s="262" t="s">
+      <c r="C49" s="293"/>
+      <c r="D49" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="263" t="s">
+      <c r="E49" s="301" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="264" t="s">
-        <v>769</v>
-      </c>
-      <c r="G49" s="261" t="s">
-        <v>695</v>
-      </c>
-      <c r="H49" s="265"/>
-      <c r="I49" s="265">
+      <c r="F49" s="294" t="s">
+        <v>770</v>
+      </c>
+      <c r="G49" s="292" t="s">
+        <v>697</v>
+      </c>
+      <c r="H49" s="295"/>
+      <c r="I49" s="295">
         <v>20</v>
       </c>
-      <c r="J49" s="261" t="s">
+      <c r="J49" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="265">
+      <c r="K49" s="295">
         <v>60</v>
       </c>
-      <c r="L49" s="261" t="s">
+      <c r="L49" s="292" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="265">
+      <c r="M49" s="295">
         <v>10</v>
       </c>
-      <c r="N49" s="266" t="s">
+      <c r="N49" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="288" t="s">
-        <v>696</v>
-      </c>
-      <c r="P49" s="288" t="s">
+      <c r="O49" s="297" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" s="297" t="s">
         <v>595</v>
       </c>
-      <c r="Q49" s="265" t="s">
+      <c r="Q49" s="295" t="s">
         <v>691</v>
       </c>
-      <c r="R49" s="358" t="s">
+      <c r="R49" s="360" t="s">
         <v>571</v>
       </c>
-      <c r="S49" s="267" t="s">
+      <c r="S49" s="361" t="s">
         <v>739</v>
       </c>
-      <c r="T49" s="267" t="s">
+      <c r="T49" s="361" t="s">
         <v>741</v>
       </c>
-      <c r="U49" s="288" t="s">
+      <c r="U49" s="362" t="s">
         <v>744</v>
       </c>
-      <c r="W49" s="260">
+      <c r="W49" s="302">
         <v>10</v>
       </c>
-      <c r="X49" s="260">
+      <c r="X49" s="302">
         <v>13</v>
       </c>
-      <c r="Y49" s="260">
+      <c r="Y49" s="302">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="302" customFormat="1" ht="24.75" hidden="1" thickBot="1">
-      <c r="A50" s="292" t="s">
-        <v>687</v>
-      </c>
-      <c r="B50" s="293" t="s">
-        <v>570</v>
-      </c>
-      <c r="C50" s="293"/>
-      <c r="D50" s="293" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="301" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="294" t="s">
-        <v>770</v>
-      </c>
-      <c r="G50" s="292" t="s">
-        <v>697</v>
-      </c>
-      <c r="H50" s="295"/>
-      <c r="I50" s="295">
-        <v>20</v>
-      </c>
-      <c r="J50" s="292" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="295">
-        <v>60</v>
-      </c>
-      <c r="L50" s="292" t="s">
-        <v>19</v>
-      </c>
-      <c r="M50" s="295">
-        <v>10</v>
-      </c>
-      <c r="N50" s="296" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="297" t="s">
-        <v>39</v>
-      </c>
-      <c r="P50" s="297" t="s">
+    <row r="50" spans="1:26" ht="32.25" customHeight="1" thickTop="1">
+      <c r="V50" s="269" t="s">
+        <v>746</v>
+      </c>
+      <c r="W50" s="269">
+        <f>SUM(W1:W49)</f>
+        <v>490</v>
+      </c>
+      <c r="X50" s="269">
+        <f t="shared" ref="X50:Y50" si="0">SUM(X1:X49)</f>
         <v>595</v>
       </c>
-      <c r="Q50" s="295" t="s">
-        <v>691</v>
-      </c>
-      <c r="R50" s="360" t="s">
-        <v>571</v>
-      </c>
-      <c r="S50" s="361" t="s">
-        <v>739</v>
-      </c>
-      <c r="T50" s="361" t="s">
-        <v>741</v>
-      </c>
-      <c r="U50" s="362" t="s">
-        <v>744</v>
-      </c>
-      <c r="W50" s="302">
-        <v>10</v>
-      </c>
-      <c r="X50" s="302">
-        <v>13</v>
-      </c>
-      <c r="Y50" s="302">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="32.25" customHeight="1">
-      <c r="V51" s="269" t="s">
-        <v>746</v>
-      </c>
-      <c r="W51" s="269">
-        <f>SUM(W2:W50)</f>
-        <v>490</v>
-      </c>
-      <c r="X51" s="269">
-        <f t="shared" ref="X51:Y51" si="0">SUM(X2:X50)</f>
-        <v>595</v>
-      </c>
-      <c r="Y51" s="269">
+      <c r="Y50" s="269">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="Z51" s="291" t="s">
+      <c r="Z50" s="291" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="54" customHeight="1">
-      <c r="V52" s="367" t="s">
+    <row r="51" spans="1:26" ht="54" customHeight="1">
+      <c r="V51" s="367" t="s">
         <v>747</v>
       </c>
-      <c r="W52" s="366">
-        <f>W51/60</f>
+      <c r="W51" s="366">
+        <f>W50/60</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="X52" s="366">
-        <f>X51/60</f>
+      <c r="X51" s="366">
+        <f>X50/60</f>
         <v>9.9166666666666661</v>
       </c>
-      <c r="Y52" s="366">
-        <f>Y51/60</f>
+      <c r="Y51" s="366">
+        <f>Y50/60</f>
         <v>6.5333333333333332</v>
       </c>
-      <c r="Z52" s="366">
+      <c r="Z51" s="366">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:G50" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31033,14 +31028,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="385" t="s">
+      <c r="F1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="388"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -31720,19 +31715,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="389" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="387" t="s">
+      <c r="B6" s="389" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="387" t="s">
+      <c r="C6" s="389" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="389" t="s">
+      <c r="D6" s="391" t="s">
         <v>676</v>
       </c>
-      <c r="E6" s="390" t="s">
+      <c r="E6" s="392" t="s">
         <v>609</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -31744,11 +31739,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="388"/>
-      <c r="B7" s="388"/>
-      <c r="C7" s="388"/>
-      <c r="D7" s="388"/>
-      <c r="E7" s="388"/>
+      <c r="A7" s="390"/>
+      <c r="B7" s="390"/>
+      <c r="C7" s="390"/>
+      <c r="D7" s="390"/>
+      <c r="E7" s="390"/>
       <c r="F7" s="61" t="s">
         <v>678</v>
       </c>
@@ -31853,14 +31848,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="373" t="s">
+      <c r="F1" s="375" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="375"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="377"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -31878,7 +31873,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="376" t="s">
+      <c r="A2" s="378" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -31929,7 +31924,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="377"/>
+      <c r="A3" s="379"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -31977,7 +31972,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="378"/>
+      <c r="A4" s="380"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -36997,12 +36992,12 @@
       <c r="D1" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="379" t="s">
+      <c r="E1" s="381" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="381"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="383"/>
       <c r="I1" s="255"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -42637,14 +42632,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="382" t="s">
+      <c r="I1" s="384" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="383"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="383"/>
-      <c r="M1" s="383"/>
-      <c r="N1" s="383"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
+      <c r="N1" s="385"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -46126,15 +46121,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46399,21 +46391,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46438,9 +46430,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
+++ b/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB479E0-AB36-443E-AEC8-7E0C52AE17A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7035F21-5702-4BBD-9A88-DF8043EB54AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7290" yWindow="5955" windowWidth="15090" windowHeight="9135" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="1575" windowWidth="21600" windowHeight="7950" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo de Tratamiento" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5176,10 +5176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -6179,10 +6179,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6514,7 +6514,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6684,7 +6684,7 @@
     <xf numFmtId="9" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6740,7 +6740,7 @@
     <xf numFmtId="9" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6752,7 +6752,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6770,7 +6770,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6971,13 +6971,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7088,13 +7088,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7121,7 +7121,7 @@
     <xf numFmtId="0" fontId="58" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="58" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="58" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7147,7 +7147,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7173,6 +7173,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7226,15 +7235,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="58" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -12378,14 +12403,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="384" t="s">
+      <c r="I1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -15264,14 +15289,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="386" t="s">
+      <c r="I1" s="389" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="389"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -18071,14 +18096,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="384" t="s">
+      <c r="I1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -21140,14 +21165,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="384" t="s">
+      <c r="I1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -24323,14 +24348,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="384" t="s">
+      <c r="I1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -27437,8 +27462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.140625" defaultRowHeight="54" customHeight="1"/>
@@ -27450,16 +27475,16 @@
     <col min="5" max="5" width="10" style="269" customWidth="1"/>
     <col min="6" max="6" width="62.140625" style="271" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="271" customWidth="1"/>
-    <col min="8" max="8" width="15" style="269" customWidth="1"/>
+    <col min="8" max="8" width="15" style="269" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" style="269" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="271" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" style="269" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" style="271" customWidth="1"/>
     <col min="13" max="13" width="4.85546875" style="269" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" style="269" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="271" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="271" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="269" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="271" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="271" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="269" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="27.5703125" style="269" customWidth="1"/>
     <col min="19" max="20" width="20.85546875" style="269" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.140625" style="271" customWidth="1"/>
@@ -27839,7 +27864,7 @@
       <c r="E6" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="394" t="s">
+      <c r="F6" s="376" t="s">
         <v>754</v>
       </c>
       <c r="G6" s="268" t="s">
@@ -27910,7 +27935,7 @@
       <c r="E7" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="395" t="s">
+      <c r="F7" s="377" t="s">
         <v>755</v>
       </c>
       <c r="G7" s="279" t="s">
@@ -27981,7 +28006,7 @@
       <c r="E8" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="393" t="s">
+      <c r="F8" s="375" t="s">
         <v>756</v>
       </c>
       <c r="G8" s="268" t="s">
@@ -30724,73 +30749,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="260" customFormat="1" ht="24">
-      <c r="A47" s="261" t="s">
+    <row r="47" spans="1:25" s="404" customFormat="1" ht="24">
+      <c r="A47" s="396" t="s">
         <v>687</v>
       </c>
-      <c r="B47" s="262" t="s">
+      <c r="B47" s="397" t="s">
         <v>570</v>
       </c>
-      <c r="C47" s="262"/>
-      <c r="D47" s="262" t="s">
+      <c r="C47" s="397"/>
+      <c r="D47" s="397" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="263" t="s">
+      <c r="E47" s="398" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="264" t="s">
+      <c r="F47" s="375" t="s">
         <v>768</v>
       </c>
-      <c r="G47" s="261" t="s">
+      <c r="G47" s="396" t="s">
         <v>694</v>
       </c>
-      <c r="H47" s="265"/>
-      <c r="I47" s="265">
+      <c r="H47" s="399"/>
+      <c r="I47" s="399">
         <v>20</v>
       </c>
-      <c r="J47" s="261" t="s">
+      <c r="J47" s="396" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="265">
+      <c r="K47" s="399">
         <v>60</v>
       </c>
-      <c r="L47" s="261" t="s">
+      <c r="L47" s="396" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="265">
+      <c r="M47" s="399">
         <v>10</v>
       </c>
-      <c r="N47" s="266" t="s">
+      <c r="N47" s="400" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="288" t="s">
+      <c r="O47" s="401" t="s">
         <v>39</v>
       </c>
-      <c r="P47" s="288" t="s">
+      <c r="P47" s="401" t="s">
         <v>595</v>
       </c>
-      <c r="Q47" s="265" t="s">
+      <c r="Q47" s="399" t="s">
         <v>691</v>
       </c>
-      <c r="R47" s="358" t="s">
+      <c r="R47" s="402" t="s">
         <v>571</v>
       </c>
-      <c r="S47" s="267" t="s">
+      <c r="S47" s="403" t="s">
         <v>740</v>
       </c>
-      <c r="T47" s="267" t="s">
+      <c r="T47" s="403" t="s">
         <v>738</v>
       </c>
-      <c r="U47" s="288" t="s">
+      <c r="U47" s="401" t="s">
         <v>744</v>
       </c>
-      <c r="W47" s="260">
+      <c r="W47" s="404">
         <v>10</v>
       </c>
-      <c r="X47" s="260">
+      <c r="X47" s="404">
         <v>13</v>
       </c>
-      <c r="Y47" s="260">
+      <c r="Y47" s="404">
         <v>8</v>
       </c>
     </row>
@@ -31028,14 +31053,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="387" t="s">
+      <c r="F1" s="390" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -31715,19 +31740,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="392" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="389" t="s">
+      <c r="B6" s="392" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="389" t="s">
+      <c r="C6" s="392" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="391" t="s">
+      <c r="D6" s="394" t="s">
         <v>676</v>
       </c>
-      <c r="E6" s="392" t="s">
+      <c r="E6" s="395" t="s">
         <v>609</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -31739,11 +31764,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="390"/>
-      <c r="B7" s="390"/>
-      <c r="C7" s="390"/>
-      <c r="D7" s="390"/>
-      <c r="E7" s="390"/>
+      <c r="A7" s="393"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="393"/>
+      <c r="D7" s="393"/>
+      <c r="E7" s="393"/>
       <c r="F7" s="61" t="s">
         <v>678</v>
       </c>
@@ -31848,14 +31873,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="375" t="s">
+      <c r="F1" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="377"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="380"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -31873,7 +31898,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="378" t="s">
+      <c r="A2" s="381" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -31924,7 +31949,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="379"/>
+      <c r="A3" s="382"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -31972,7 +31997,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="380"/>
+      <c r="A4" s="383"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -36992,12 +37017,12 @@
       <c r="D1" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="381" t="s">
+      <c r="E1" s="384" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="383"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="386"/>
       <c r="I1" s="255"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -42632,14 +42657,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="384" t="s">
+      <c r="I1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="385"/>
-      <c r="K1" s="385"/>
-      <c r="L1" s="385"/>
-      <c r="M1" s="385"/>
-      <c r="N1" s="385"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -46121,12 +46146,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46391,21 +46419,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46430,12 +46458,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
+++ b/PROYECTO PASARELLA/QA Pruebas No Funcionales - JMeter - PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO PASARELLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7035F21-5702-4BBD-9A88-DF8043EB54AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27C0AA3-4E88-41BE-AA49-E05C6BF84F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1575" windowWidth="21600" windowHeight="7950" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo de Tratamiento" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1986,7 +1986,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7807" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7808" uniqueCount="771">
   <si>
     <t>RUTA DE EJEMPLO DE EJECUCIÓN DE TIPO POST</t>
   </si>
@@ -5176,10 +5176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -6179,10 +6179,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6514,7 +6514,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6684,7 +6684,7 @@
     <xf numFmtId="9" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6740,7 +6740,7 @@
     <xf numFmtId="9" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6752,7 +6752,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6770,7 +6770,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6971,13 +6971,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7088,13 +7088,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7121,7 +7121,7 @@
     <xf numFmtId="0" fontId="58" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="58" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="58" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7147,7 +7147,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7183,6 +7183,31 @@
     <xf numFmtId="0" fontId="61" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="58" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7235,31 +7260,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="58" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="58" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -12403,14 +12424,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="387" t="s">
+      <c r="I1" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
+      <c r="L1" s="396"/>
+      <c r="M1" s="396"/>
+      <c r="N1" s="396"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -15289,14 +15310,14 @@
       <c r="H1" s="142" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="389" t="s">
+      <c r="I1" s="398" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="389"/>
-      <c r="K1" s="389"/>
-      <c r="L1" s="389"/>
-      <c r="M1" s="389"/>
-      <c r="N1" s="389"/>
+      <c r="J1" s="398"/>
+      <c r="K1" s="398"/>
+      <c r="L1" s="398"/>
+      <c r="M1" s="398"/>
+      <c r="N1" s="398"/>
       <c r="O1" s="144" t="s">
         <v>9</v>
       </c>
@@ -18096,14 +18117,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="387" t="s">
+      <c r="I1" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
+      <c r="L1" s="396"/>
+      <c r="M1" s="396"/>
+      <c r="N1" s="396"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -21165,14 +21186,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="387" t="s">
+      <c r="I1" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
+      <c r="L1" s="396"/>
+      <c r="M1" s="396"/>
+      <c r="N1" s="396"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -24348,14 +24369,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="387" t="s">
+      <c r="I1" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
+      <c r="L1" s="396"/>
+      <c r="M1" s="396"/>
+      <c r="N1" s="396"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -27462,8 +27483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE418F55-960B-4D78-8EF5-AA03071B7F57}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.140625" defaultRowHeight="54" customHeight="1"/>
@@ -27475,16 +27496,16 @@
     <col min="5" max="5" width="10" style="269" customWidth="1"/>
     <col min="6" max="6" width="62.140625" style="271" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="271" customWidth="1"/>
-    <col min="8" max="8" width="15" style="269" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="269" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" style="269" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="271" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" style="269" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" style="271" customWidth="1"/>
     <col min="13" max="13" width="4.85546875" style="269" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" style="269" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="271" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="271" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="269" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="271" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="271" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="269" customWidth="1"/>
     <col min="18" max="18" width="27.5703125" style="269" customWidth="1"/>
     <col min="19" max="20" width="20.85546875" style="269" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.140625" style="271" customWidth="1"/>
@@ -28000,13 +28021,13 @@
         <v>688</v>
       </c>
       <c r="C8" s="262"/>
-      <c r="D8" s="262" t="s">
+      <c r="D8" s="405" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="263" t="s">
+      <c r="E8" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="375" t="s">
+      <c r="F8" s="264" t="s">
         <v>756</v>
       </c>
       <c r="G8" s="268" t="s">
@@ -29199,74 +29220,74 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="24">
-      <c r="A25" s="261" t="s">
+    <row r="25" spans="1:25" s="411" customFormat="1" ht="24">
+      <c r="A25" s="378" t="s">
         <v>687</v>
       </c>
-      <c r="B25" s="262" t="s">
+      <c r="B25" s="379" t="s">
         <v>555</v>
       </c>
-      <c r="C25" s="262"/>
-      <c r="D25" s="262" t="s">
+      <c r="C25" s="379"/>
+      <c r="D25" s="379" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="263" t="s">
+      <c r="E25" s="380" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="264" t="s">
+      <c r="F25" s="375" t="s">
         <v>754</v>
       </c>
-      <c r="G25" s="268" t="s">
+      <c r="G25" s="407" t="s">
         <v>717</v>
       </c>
-      <c r="H25" s="265"/>
-      <c r="I25" s="265">
+      <c r="H25" s="381"/>
+      <c r="I25" s="381">
         <v>75</v>
       </c>
-      <c r="J25" s="261" t="s">
+      <c r="J25" s="378" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="265">
+      <c r="K25" s="381">
         <v>40</v>
       </c>
-      <c r="L25" s="261" t="s">
+      <c r="L25" s="378" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="265">
+      <c r="M25" s="381">
         <v>10</v>
       </c>
-      <c r="N25" s="274" t="s">
+      <c r="N25" s="408" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="288" t="s">
+      <c r="O25" s="383" t="s">
         <v>711</v>
       </c>
-      <c r="P25" s="288" t="s">
+      <c r="P25" s="383" t="s">
         <v>595</v>
       </c>
-      <c r="Q25" s="265" t="s">
+      <c r="Q25" s="381" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="303" t="s">
+      <c r="R25" s="409" t="s">
         <v>732</v>
       </c>
-      <c r="S25" s="267">
+      <c r="S25" s="385">
         <v>0.95</v>
       </c>
-      <c r="T25" s="267">
+      <c r="T25" s="385">
         <v>0.99980000000000002</v>
       </c>
-      <c r="U25" s="300" t="s">
+      <c r="U25" s="410" t="s">
         <v>734</v>
       </c>
-      <c r="V25" s="260"/>
-      <c r="W25" s="269">
+      <c r="V25" s="386"/>
+      <c r="W25" s="411">
         <v>10</v>
       </c>
-      <c r="X25" s="269">
+      <c r="X25" s="411">
         <v>13</v>
       </c>
-      <c r="Y25" s="269">
+      <c r="Y25" s="411">
         <v>8</v>
       </c>
     </row>
@@ -30016,7 +30037,9 @@
       <c r="M36" s="328">
         <v>1</v>
       </c>
-      <c r="N36" s="329"/>
+      <c r="N36" s="329" t="s">
+        <v>20</v>
+      </c>
       <c r="O36" s="330" t="s">
         <v>9</v>
       </c>
@@ -30749,73 +30772,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="404" customFormat="1" ht="24">
-      <c r="A47" s="396" t="s">
+    <row r="47" spans="1:25" s="386" customFormat="1" ht="24">
+      <c r="A47" s="378" t="s">
         <v>687</v>
       </c>
-      <c r="B47" s="397" t="s">
+      <c r="B47" s="379" t="s">
         <v>570</v>
       </c>
-      <c r="C47" s="397"/>
-      <c r="D47" s="397" t="s">
+      <c r="C47" s="379"/>
+      <c r="D47" s="379" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="398" t="s">
+      <c r="E47" s="380" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="375" t="s">
         <v>768</v>
       </c>
-      <c r="G47" s="396" t="s">
+      <c r="G47" s="378" t="s">
         <v>694</v>
       </c>
-      <c r="H47" s="399"/>
-      <c r="I47" s="399">
+      <c r="H47" s="381"/>
+      <c r="I47" s="381">
         <v>20</v>
       </c>
-      <c r="J47" s="396" t="s">
+      <c r="J47" s="378" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="399">
+      <c r="K47" s="381">
         <v>60</v>
       </c>
-      <c r="L47" s="396" t="s">
+      <c r="L47" s="378" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="399">
+      <c r="M47" s="381">
         <v>10</v>
       </c>
-      <c r="N47" s="400" t="s">
+      <c r="N47" s="382" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="401" t="s">
+      <c r="O47" s="383" t="s">
         <v>39</v>
       </c>
-      <c r="P47" s="401" t="s">
+      <c r="P47" s="383" t="s">
         <v>595</v>
       </c>
-      <c r="Q47" s="399" t="s">
+      <c r="Q47" s="381" t="s">
         <v>691</v>
       </c>
-      <c r="R47" s="402" t="s">
+      <c r="R47" s="384" t="s">
         <v>571</v>
       </c>
-      <c r="S47" s="403" t="s">
+      <c r="S47" s="385" t="s">
         <v>740</v>
       </c>
-      <c r="T47" s="403" t="s">
+      <c r="T47" s="385" t="s">
         <v>738</v>
       </c>
-      <c r="U47" s="401" t="s">
+      <c r="U47" s="383" t="s">
         <v>744</v>
       </c>
-      <c r="W47" s="404">
+      <c r="W47" s="386">
         <v>10</v>
       </c>
-      <c r="X47" s="404">
+      <c r="X47" s="386">
         <v>13</v>
       </c>
-      <c r="Y47" s="404">
+      <c r="Y47" s="386">
         <v>8</v>
       </c>
     </row>
@@ -31053,14 +31076,14 @@
       <c r="E1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="390" t="s">
+      <c r="F1" s="399" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
       <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
@@ -31740,19 +31763,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.75">
-      <c r="A6" s="392" t="s">
+      <c r="A6" s="401" t="s">
         <v>675</v>
       </c>
-      <c r="B6" s="392" t="s">
+      <c r="B6" s="401" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="392" t="s">
+      <c r="C6" s="401" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="394" t="s">
+      <c r="D6" s="403" t="s">
         <v>676</v>
       </c>
-      <c r="E6" s="395" t="s">
+      <c r="E6" s="404" t="s">
         <v>609</v>
       </c>
       <c r="F6" s="61" t="s">
@@ -31764,11 +31787,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.5">
-      <c r="A7" s="393"/>
-      <c r="B7" s="393"/>
-      <c r="C7" s="393"/>
-      <c r="D7" s="393"/>
-      <c r="E7" s="393"/>
+      <c r="A7" s="402"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
       <c r="F7" s="61" t="s">
         <v>678</v>
       </c>
@@ -31873,14 +31896,14 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="378" t="s">
+      <c r="F1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="380"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="389"/>
       <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
@@ -31898,7 +31921,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="102">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="390" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -31949,7 +31972,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102">
-      <c r="A3" s="382"/>
+      <c r="A3" s="391"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -31997,7 +32020,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="102">
-      <c r="A4" s="383"/>
+      <c r="A4" s="392"/>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
@@ -37017,12 +37040,12 @@
       <c r="D1" s="126" t="s">
         <v>601</v>
       </c>
-      <c r="E1" s="384" t="s">
+      <c r="E1" s="393" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="386"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="395"/>
       <c r="I1" s="255"/>
     </row>
     <row r="2" spans="1:13" ht="25.5">
@@ -42657,14 +42680,14 @@
       <c r="H1" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="387" t="s">
+      <c r="I1" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
+      <c r="J1" s="397"/>
+      <c r="K1" s="397"/>
+      <c r="L1" s="397"/>
+      <c r="M1" s="397"/>
+      <c r="N1" s="397"/>
       <c r="O1" s="114" t="s">
         <v>9</v>
       </c>
@@ -46146,15 +46169,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46419,21 +46439,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46458,9 +46478,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B31859-69F2-4F6B-9D3F-A0CF5F820719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0213C849-4ED6-492E-BE0F-5063FF7403D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>